--- a/output/c9/c9aurac_brawler_levels_team.xlsx
+++ b/output/c9/c9aurac_brawler_levels_team.xlsx
@@ -88,48 +88,48 @@
     <t>Ethan형사°</t>
   </si>
   <si>
+    <t>MuffinIsCute</t>
+  </si>
+  <si>
+    <t>❄|Vırtual ◇</t>
+  </si>
+  <si>
+    <t>Draku2013</t>
+  </si>
+  <si>
     <t>Fortnite</t>
   </si>
   <si>
-    <t>MuffinIsCute</t>
-  </si>
-  <si>
-    <t>❄|Vırtual ◇</t>
-  </si>
-  <si>
     <t>꧁✨やͪeͧ༒ͨ 𝖊𝖗✨꧂</t>
   </si>
   <si>
     <t>SG|🔥Fire🔥</t>
   </si>
   <si>
+    <t>ᴸᴼᵛᴱ ᵞᴼᵁ Aegis</t>
+  </si>
+  <si>
+    <t>JustBeNice</t>
+  </si>
+  <si>
+    <t>Procrastinator⏳</t>
+  </si>
+  <si>
+    <t>menoobenelol</t>
+  </si>
+  <si>
+    <t>XiXi</t>
+  </si>
+  <si>
+    <t>gkb</t>
+  </si>
+  <si>
+    <t>one</t>
+  </si>
+  <si>
     <t>VS∣Daniel</t>
   </si>
   <si>
-    <t>ᴸᴼᵛᴱ ᵞᴼᵁ Aegis</t>
-  </si>
-  <si>
-    <t>JustBeNice</t>
-  </si>
-  <si>
-    <t>Procrastinator⏳</t>
-  </si>
-  <si>
-    <t>menoobenelol</t>
-  </si>
-  <si>
-    <t>XiXi</t>
-  </si>
-  <si>
-    <t>gkb</t>
-  </si>
-  <si>
-    <t>one</t>
-  </si>
-  <si>
-    <t>Draku2013</t>
-  </si>
-  <si>
     <t>#CLR99L9L</t>
   </si>
   <si>
@@ -178,48 +178,48 @@
     <t>#R82QLVQJ</t>
   </si>
   <si>
+    <t>#RLUYCG8V</t>
+  </si>
+  <si>
+    <t>#U99LR8PR</t>
+  </si>
+  <si>
+    <t>#2J0JQGPP</t>
+  </si>
+  <si>
     <t>#PY0YR2CR8</t>
   </si>
   <si>
-    <t>#RLUYCG8V</t>
-  </si>
-  <si>
-    <t>#U99LR8PR</t>
-  </si>
-  <si>
     <t>#RQUQG8JY</t>
   </si>
   <si>
     <t>#CQ8RC802</t>
   </si>
   <si>
+    <t>#LVCLCLYC</t>
+  </si>
+  <si>
+    <t>#J90L8C0Y</t>
+  </si>
+  <si>
+    <t>#V2JCQQQJ</t>
+  </si>
+  <si>
+    <t>#CP988U8Y</t>
+  </si>
+  <si>
+    <t>#CJ2Y202J</t>
+  </si>
+  <si>
+    <t>#J9CJGRLG</t>
+  </si>
+  <si>
+    <t>#2LQ899P82</t>
+  </si>
+  <si>
     <t>#PCRG080</t>
   </si>
   <si>
-    <t>#LVCLCLYC</t>
-  </si>
-  <si>
-    <t>#J90L8C0Y</t>
-  </si>
-  <si>
-    <t>#V2JCQQQJ</t>
-  </si>
-  <si>
-    <t>#CP988U8Y</t>
-  </si>
-  <si>
-    <t>#CJ2Y202J</t>
-  </si>
-  <si>
-    <t>#J9CJGRLG</t>
-  </si>
-  <si>
-    <t>#2LQ899P82</t>
-  </si>
-  <si>
-    <t>#2J0JQGPP</t>
-  </si>
-  <si>
     <t xml:space="preserve">AMBER, ASH, BEA, BELLE, BROCK, BYRON, CARL, CROW, EMZ, GRIFF, JANET, LOLA, ... </t>
   </si>
   <si>
@@ -268,52 +268,52 @@
     <t xml:space="preserve">8-BIT, BARLEY, BEA, BELLE, BO, BROCK, BYRON, CARL, COLETTE, CROW, DARRYL, EMZ, ... </t>
   </si>
   <si>
+    <t xml:space="preserve">BEA, BO, COLETTE, EMZ, GALE, JANET, LEON, LOLA, POCO, SPIKE, STU, TARA, ... </t>
+  </si>
+  <si>
+    <t>ASH, BIBI, CARL, GENE, MAX, RICO, STU, SURGE</t>
+  </si>
+  <si>
+    <t>BEA, JANET, STU, SURGE</t>
+  </si>
+  <si>
     <t>BELLE, CARL, MORTIS, PIPER, STU</t>
   </si>
   <si>
-    <t xml:space="preserve">BEA, BO, COLETTE, EMZ, GALE, JANET, LEON, LOLA, POCO, SPIKE, STU, TARA, ... </t>
-  </si>
-  <si>
-    <t>ASH, BIBI, CARL, GENE, MAX, RICO, STU, SURGE</t>
-  </si>
-  <si>
     <t xml:space="preserve">BELLE, BO, BROCK, BUZZ, CARL, CROW, DARRYL, EL PRIMO, EMZ, EVE, GALE, GENE, ... </t>
   </si>
   <si>
     <t>CARL, GENE, MAX, MORTIS, SPIKE, SURGE</t>
   </si>
   <si>
+    <t>BROCK, LEON, STU, TARA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8-BIT, AMBER, ASH, BARLEY, BEA, BELLE, BIBI, BO, BONNIE, BROCK, BULL, BUZZ, ... </t>
+  </si>
+  <si>
+    <t xml:space="preserve">8-BIT, AMBER, BARLEY, BEA, BELLE, BUZZ, BYRON, COLETTE, CROW, DYNAMIKE, EDGAR, EMZ, ... </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ASH, BO, BONNIE, BYRON, CARL, COLETTE, COLT, CROW, EVE, FANG, GALE, GRIFF, ... </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BELLE, BO, BONNIE, BYRON, CARL, DARRYL, EVE, FANG, GALE, JANET, MAX, MR. P, ... </t>
+  </si>
+  <si>
+    <t>BROCK, BYRON, CROW, LEON, MAX, PENNY, PIPER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8-BIT, ASH, BEA, BELLE, BO, BROCK, BYRON, CARL, EMZ, GENE, GRIFF, JANET, ... </t>
+  </si>
+  <si>
     <t>BELLE, CROW, GENE, LEON, MAX, MORTIS, SANDY, SQUEAK, SURGE, TARA</t>
   </si>
   <si>
-    <t>BROCK, LEON, STU, TARA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8-BIT, AMBER, ASH, BARLEY, BEA, BELLE, BIBI, BO, BONNIE, BROCK, BULL, BUZZ, ... </t>
-  </si>
-  <si>
-    <t xml:space="preserve">8-BIT, AMBER, BARLEY, BEA, BELLE, BUZZ, BYRON, COLETTE, CROW, DYNAMIKE, EDGAR, EMZ, ... </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ASH, BO, BONNIE, BYRON, CARL, COLETTE, COLT, CROW, EVE, FANG, GALE, GRIFF, ... </t>
-  </si>
-  <si>
-    <t xml:space="preserve">BELLE, BO, BONNIE, BYRON, CARL, DARRYL, EVE, FANG, GALE, JANET, MAX, MR. P, ... </t>
-  </si>
-  <si>
-    <t>BROCK, BYRON, CROW, LEON, MAX, PENNY, PIPER</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8-BIT, ASH, BEA, BELLE, BO, BROCK, BYRON, CARL, EMZ, GENE, GRIFF, JANET, ... </t>
-  </si>
-  <si>
-    <t>BEA, JANET, STU, SURGE</t>
-  </si>
-  <si>
     <t>C9 Brawler Levels</t>
   </si>
   <si>
-    <t>2022-11-15</t>
+    <t>2022-11-16</t>
   </si>
 </sst>
 </file>
@@ -1223,16 +1223,16 @@
         <v>54</v>
       </c>
       <c r="D20" s="2">
-        <v>36800</v>
+        <v>27695</v>
       </c>
       <c r="E20" s="2">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F20" s="2">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="G20" s="2">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="H20" s="3" t="s">
         <v>84</v>
@@ -1249,16 +1249,16 @@
         <v>55</v>
       </c>
       <c r="D21" s="2">
-        <v>27695</v>
+        <v>31338</v>
       </c>
       <c r="E21" s="2">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="F21" s="2">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="G21" s="2">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>85</v>
@@ -1275,16 +1275,16 @@
         <v>56</v>
       </c>
       <c r="D22" s="2">
-        <v>31338</v>
+        <v>21084</v>
       </c>
       <c r="E22" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F22" s="2">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="G22" s="2">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H22" s="3" t="s">
         <v>86</v>
@@ -1301,16 +1301,16 @@
         <v>57</v>
       </c>
       <c r="D23" s="2">
-        <v>37780</v>
+        <v>36800</v>
       </c>
       <c r="E23" s="2">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="F23" s="2">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="G23" s="2">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="H23" s="3" t="s">
         <v>87</v>
@@ -1321,22 +1321,22 @@
         <v>28</v>
       </c>
       <c r="B24" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>58</v>
       </c>
       <c r="D24" s="2">
-        <v>40288</v>
+        <v>37780</v>
       </c>
       <c r="E24" s="2">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F24" s="2">
         <v>26</v>
       </c>
       <c r="G24" s="2">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="H24" s="3" t="s">
         <v>88</v>
@@ -1353,16 +1353,16 @@
         <v>59</v>
       </c>
       <c r="D25" s="2">
-        <v>44840</v>
+        <v>40288</v>
       </c>
       <c r="E25" s="2">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="F25" s="2">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="G25" s="2">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H25" s="3" t="s">
         <v>89</v>
@@ -1559,16 +1559,16 @@
         <v>67</v>
       </c>
       <c r="D33" s="2">
-        <v>21084</v>
+        <v>44840</v>
       </c>
       <c r="E33" s="2">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F33" s="2">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="G33" s="2">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="H33" s="3" t="s">
         <v>97</v>

--- a/output/c9/c9aurac_brawler_levels_team.xlsx
+++ b/output/c9/c9aurac_brawler_levels_team.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="99">
   <si>
     <t>player</t>
   </si>
@@ -127,7 +127,7 @@
     <t>one</t>
   </si>
   <si>
-    <t>VS∣Daniel</t>
+    <t>STD|Squish</t>
   </si>
   <si>
     <t>#CLR99L9L</t>
@@ -217,7 +217,7 @@
     <t>#2LQ899P82</t>
   </si>
   <si>
-    <t>#PCRG080</t>
+    <t>#GU9VJGPG</t>
   </si>
   <si>
     <t xml:space="preserve">AMBER, ASH, BEA, BELLE, BROCK, BYRON, CARL, CROW, EMZ, GRIFF, JANET, LOLA, ... </t>
@@ -226,7 +226,7 @@
     <t xml:space="preserve">BELLE, BIBI, BROCK, BULL, CARL, COLT, CROW, EL PRIMO, JESSIE, MAX, MORTIS, MR. P, ... </t>
   </si>
   <si>
-    <t xml:space="preserve">8-BIT, AMBER, ASH, BELLE, BYRON, CARL, DARRYL, GALE, GENE, GRIFF, LOLA, MAX, ... </t>
+    <t xml:space="preserve">8-BIT, AMBER, ASH, BARLEY, BELLE, BROCK, BYRON, CARL, DARRYL, GALE, GENE, GRIFF, ... </t>
   </si>
   <si>
     <t xml:space="preserve">BO, BUZZ, BYRON, CARL, COLETTE, CROW, EMZ, FRANK, GALE, GENE, GRIFF, LEON, ... </t>
@@ -235,7 +235,7 @@
     <t xml:space="preserve">AMBER, BEA, BELLE, BIBI, BO, BONNIE, BROCK, BYRON, CARL, COLETTE, CROW, DARRYL, ... </t>
   </si>
   <si>
-    <t xml:space="preserve">8-BIT, ASH, BEA, BELLE, BUSTER, BUZZ, BYRON, CARL, COLETTE, CROW, DARRYL, EMZ, ... </t>
+    <t xml:space="preserve">8-BIT, ASH, BEA, BELLE, BIBI, BO, BUSTER, BUZZ, BYRON, CARL, COLETTE, CROW, ... </t>
   </si>
   <si>
     <t>EMZ, EVE</t>
@@ -274,7 +274,7 @@
     <t>ASH, BIBI, CARL, GENE, MAX, RICO, STU, SURGE</t>
   </si>
   <si>
-    <t>BEA, JANET, STU, SURGE</t>
+    <t>BEA, BO, JANET, STU, SURGE</t>
   </si>
   <si>
     <t>BELLE, CARL, MORTIS, PIPER, STU</t>
@@ -292,22 +292,19 @@
     <t xml:space="preserve">8-BIT, AMBER, ASH, BARLEY, BEA, BELLE, BIBI, BO, BONNIE, BROCK, BULL, BUZZ, ... </t>
   </si>
   <si>
-    <t xml:space="preserve">8-BIT, AMBER, BARLEY, BEA, BELLE, BUZZ, BYRON, COLETTE, CROW, DYNAMIKE, EDGAR, EMZ, ... </t>
+    <t xml:space="preserve">8-BIT, AMBER, BARLEY, BEA, BELLE, BUZZ, BYRON, COLETTE, CROW, DARRYL, DYNAMIKE, EDGAR, ... </t>
   </si>
   <si>
     <t xml:space="preserve">ASH, BO, BONNIE, BYRON, CARL, COLETTE, COLT, CROW, EVE, FANG, GALE, GRIFF, ... </t>
   </si>
   <si>
-    <t xml:space="preserve">BELLE, BO, BONNIE, BYRON, CARL, DARRYL, EVE, FANG, GALE, JANET, MAX, MR. P, ... </t>
+    <t xml:space="preserve">BELLE, BO, BONNIE, BYRON, CARL, DARRYL, EVE, FANG, GALE, GENE, JANET, MAX, ... </t>
   </si>
   <si>
     <t>BROCK, BYRON, CROW, LEON, MAX, PENNY, PIPER</t>
   </si>
   <si>
     <t xml:space="preserve">8-BIT, ASH, BEA, BELLE, BO, BROCK, BYRON, CARL, EMZ, GENE, GRIFF, JANET, ... </t>
-  </si>
-  <si>
-    <t>BELLE, CROW, GENE, LEON, MAX, MORTIS, SANDY, SQUEAK, SURGE, TARA</t>
   </si>
   <si>
     <t>C9 Brawler Levels</t>
@@ -697,7 +694,7 @@
   <sheetData>
     <row r="1" spans="1:45">
       <c r="A1" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -746,7 +743,7 @@
     </row>
     <row r="2" spans="1:45">
       <c r="A2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B2" s="2">
         <v>1</v>
@@ -755,7 +752,7 @@
         <v>38</v>
       </c>
       <c r="D2" s="2">
-        <v>37455</v>
+        <v>37471</v>
       </c>
       <c r="E2" s="2">
         <v>26</v>
@@ -807,7 +804,7 @@
         <v>38</v>
       </c>
       <c r="D4" s="2">
-        <v>37455</v>
+        <v>37471</v>
       </c>
       <c r="E4" s="2">
         <v>26</v>
@@ -859,16 +856,16 @@
         <v>40</v>
       </c>
       <c r="D6" s="2">
-        <v>28945</v>
+        <v>28953</v>
       </c>
       <c r="E6" s="2">
         <v>6</v>
       </c>
       <c r="F6" s="2">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="G6" s="2">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="H6" s="3" t="s">
         <v>70</v>
@@ -885,7 +882,7 @@
         <v>41</v>
       </c>
       <c r="D7" s="2">
-        <v>49451</v>
+        <v>49650</v>
       </c>
       <c r="E7" s="2">
         <v>15</v>
@@ -911,7 +908,7 @@
         <v>42</v>
       </c>
       <c r="D8" s="2">
-        <v>45615</v>
+        <v>45623</v>
       </c>
       <c r="E8" s="2">
         <v>26</v>
@@ -937,16 +934,16 @@
         <v>43</v>
       </c>
       <c r="D9" s="2">
-        <v>43518</v>
+        <v>43914</v>
       </c>
       <c r="E9" s="2">
         <v>0</v>
       </c>
       <c r="F9" s="2">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="G9" s="2">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="H9" s="3" t="s">
         <v>73</v>
@@ -963,7 +960,7 @@
         <v>44</v>
       </c>
       <c r="D10" s="2">
-        <v>34746</v>
+        <v>34822</v>
       </c>
       <c r="E10" s="2">
         <v>42</v>
@@ -989,7 +986,7 @@
         <v>45</v>
       </c>
       <c r="D11" s="2">
-        <v>36729</v>
+        <v>36773</v>
       </c>
       <c r="E11" s="2">
         <v>12</v>
@@ -1015,10 +1012,10 @@
         <v>46</v>
       </c>
       <c r="D12" s="2">
-        <v>46925</v>
+        <v>46970</v>
       </c>
       <c r="E12" s="2">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F12" s="2">
         <v>16</v>
@@ -1041,16 +1038,16 @@
         <v>47</v>
       </c>
       <c r="D13" s="2">
-        <v>42300</v>
+        <v>42340</v>
       </c>
       <c r="E13" s="2">
         <v>0</v>
       </c>
       <c r="F13" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G13" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H13" s="3" t="s">
         <v>77</v>
@@ -1067,13 +1064,13 @@
         <v>48</v>
       </c>
       <c r="D14" s="2">
-        <v>31840</v>
+        <v>31937</v>
       </c>
       <c r="E14" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F14" s="2">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G14" s="2">
         <v>5</v>
@@ -1093,16 +1090,16 @@
         <v>49</v>
       </c>
       <c r="D15" s="2">
-        <v>39710</v>
+        <v>39741</v>
       </c>
       <c r="E15" s="2">
         <v>13</v>
       </c>
       <c r="F15" s="2">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G15" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H15" s="3" t="s">
         <v>79</v>
@@ -1119,7 +1116,7 @@
         <v>50</v>
       </c>
       <c r="D16" s="2">
-        <v>33101</v>
+        <v>33107</v>
       </c>
       <c r="E16" s="2">
         <v>35</v>
@@ -1145,7 +1142,7 @@
         <v>51</v>
       </c>
       <c r="D17" s="2">
-        <v>42708</v>
+        <v>42801</v>
       </c>
       <c r="E17" s="2">
         <v>0</v>
@@ -1171,13 +1168,13 @@
         <v>52</v>
       </c>
       <c r="D18" s="2">
-        <v>41375</v>
+        <v>41718</v>
       </c>
       <c r="E18" s="2">
         <v>8</v>
       </c>
       <c r="F18" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G18" s="2">
         <v>35</v>
@@ -1197,13 +1194,13 @@
         <v>53</v>
       </c>
       <c r="D19" s="2">
-        <v>41493</v>
+        <v>41514</v>
       </c>
       <c r="E19" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F19" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G19" s="2">
         <v>30</v>
@@ -1223,7 +1220,7 @@
         <v>54</v>
       </c>
       <c r="D20" s="2">
-        <v>27695</v>
+        <v>27755</v>
       </c>
       <c r="E20" s="2">
         <v>21</v>
@@ -1249,7 +1246,7 @@
         <v>55</v>
       </c>
       <c r="D21" s="2">
-        <v>31338</v>
+        <v>31358</v>
       </c>
       <c r="E21" s="2">
         <v>13</v>
@@ -1275,16 +1272,16 @@
         <v>56</v>
       </c>
       <c r="D22" s="2">
-        <v>21084</v>
+        <v>21297</v>
       </c>
       <c r="E22" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F22" s="2">
         <v>7</v>
       </c>
       <c r="G22" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H22" s="3" t="s">
         <v>86</v>
@@ -1301,7 +1298,7 @@
         <v>57</v>
       </c>
       <c r="D23" s="2">
-        <v>36800</v>
+        <v>36779</v>
       </c>
       <c r="E23" s="2">
         <v>22</v>
@@ -1327,16 +1324,16 @@
         <v>58</v>
       </c>
       <c r="D24" s="2">
-        <v>37780</v>
+        <v>37811</v>
       </c>
       <c r="E24" s="2">
         <v>7</v>
       </c>
       <c r="F24" s="2">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G24" s="2">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H24" s="3" t="s">
         <v>88</v>
@@ -1353,13 +1350,13 @@
         <v>59</v>
       </c>
       <c r="D25" s="2">
-        <v>40288</v>
+        <v>40413</v>
       </c>
       <c r="E25" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F25" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G25" s="2">
         <v>6</v>
@@ -1405,16 +1402,16 @@
         <v>61</v>
       </c>
       <c r="D27" s="2">
-        <v>34994</v>
+        <v>35018</v>
       </c>
       <c r="E27" s="2">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F27" s="2">
         <v>0</v>
       </c>
       <c r="G27" s="2">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H27" s="3" t="s">
         <v>91</v>
@@ -1434,13 +1431,13 @@
         <v>38375</v>
       </c>
       <c r="E28" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F28" s="2">
         <v>3</v>
       </c>
       <c r="G28" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H28" s="3" t="s">
         <v>92</v>
@@ -1457,7 +1454,7 @@
         <v>63</v>
       </c>
       <c r="D29" s="2">
-        <v>34276</v>
+        <v>34284</v>
       </c>
       <c r="E29" s="2">
         <v>31</v>
@@ -1483,16 +1480,16 @@
         <v>64</v>
       </c>
       <c r="D30" s="2">
-        <v>33559</v>
+        <v>33573</v>
       </c>
       <c r="E30" s="2">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F30" s="2">
         <v>12</v>
       </c>
       <c r="G30" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H30" s="3" t="s">
         <v>94</v>
@@ -1509,13 +1506,13 @@
         <v>65</v>
       </c>
       <c r="D31" s="2">
-        <v>37491</v>
+        <v>37462</v>
       </c>
       <c r="E31" s="2">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F31" s="2">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G31" s="2">
         <v>7</v>
@@ -1535,16 +1532,16 @@
         <v>66</v>
       </c>
       <c r="D32" s="2">
-        <v>38419</v>
+        <v>38393</v>
       </c>
       <c r="E32" s="2">
         <v>12</v>
       </c>
       <c r="F32" s="2">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G32" s="2">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H32" s="3" t="s">
         <v>96</v>
@@ -1559,19 +1556,19 @@
         <v>67</v>
       </c>
       <c r="D33" s="2">
-        <v>44840</v>
+        <v>45459</v>
       </c>
       <c r="E33" s="2">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="F33" s="2">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="G33" s="2">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="H33" s="3" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>

--- a/output/c9/c9aurac_brawler_levels_team.xlsx
+++ b/output/c9/c9aurac_brawler_levels_team.xlsx
@@ -310,7 +310,7 @@
     <t>C9 Brawler Levels</t>
   </si>
   <si>
-    <t>2022-11-16</t>
+    <t>2022-11-17</t>
   </si>
 </sst>
 </file>

--- a/output/c9/c9aurac_brawler_levels_team.xlsx
+++ b/output/c9/c9aurac_brawler_levels_team.xlsx
@@ -88,9 +88,6 @@
     <t>Ethan형사°</t>
   </si>
   <si>
-    <t>MuffinIsCute</t>
-  </si>
-  <si>
     <t>❄|Vırtual ◇</t>
   </si>
   <si>
@@ -103,6 +100,9 @@
     <t>꧁✨やͪeͧ༒ͨ 𝖊𝖗✨꧂</t>
   </si>
   <si>
+    <t>Codes🧋</t>
+  </si>
+  <si>
     <t>SG|🔥Fire🔥</t>
   </si>
   <si>
@@ -127,7 +127,7 @@
     <t>one</t>
   </si>
   <si>
-    <t>STD|Squish</t>
+    <t>pigeo</t>
   </si>
   <si>
     <t>#CLR99L9L</t>
@@ -178,9 +178,6 @@
     <t>#R82QLVQJ</t>
   </si>
   <si>
-    <t>#RLUYCG8V</t>
-  </si>
-  <si>
     <t>#U99LR8PR</t>
   </si>
   <si>
@@ -193,6 +190,9 @@
     <t>#RQUQG8JY</t>
   </si>
   <si>
+    <t>#92ULCUY99</t>
+  </si>
+  <si>
     <t>#CQ8RC802</t>
   </si>
   <si>
@@ -217,10 +217,10 @@
     <t>#2LQ899P82</t>
   </si>
   <si>
-    <t>#GU9VJGPG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AMBER, ASH, BEA, BELLE, BROCK, BYRON, CARL, CROW, EMZ, GRIFF, JANET, LOLA, ... </t>
+    <t>#RYVGJYQ2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AMBER, ASH, BEA, BELLE, BONNIE, BROCK, BYRON, CARL, CROW, EMZ, GRIFF, JANET, ... </t>
   </si>
   <si>
     <t xml:space="preserve">BELLE, BIBI, BROCK, BULL, CARL, COLT, CROW, EL PRIMO, JESSIE, MAX, MORTIS, MR. P, ... </t>
@@ -229,34 +229,34 @@
     <t xml:space="preserve">8-BIT, AMBER, ASH, BARLEY, BELLE, BROCK, BYRON, CARL, DARRYL, GALE, GENE, GRIFF, ... </t>
   </si>
   <si>
-    <t xml:space="preserve">BO, BUZZ, BYRON, CARL, COLETTE, CROW, EMZ, FRANK, GALE, GENE, GRIFF, LEON, ... </t>
+    <t xml:space="preserve">BEA, BO, BUZZ, BYRON, CARL, COLETTE, CROW, EMZ, FRANK, GALE, GENE, GRIFF, ... </t>
   </si>
   <si>
     <t xml:space="preserve">AMBER, BEA, BELLE, BIBI, BO, BONNIE, BROCK, BYRON, CARL, COLETTE, CROW, DARRYL, ... </t>
   </si>
   <si>
-    <t xml:space="preserve">8-BIT, ASH, BEA, BELLE, BIBI, BO, BUSTER, BUZZ, BYRON, CARL, COLETTE, CROW, ... </t>
+    <t xml:space="preserve">8-BIT, ASH, BEA, BELLE, BIBI, BO, BROCK, BUSTER, BUZZ, BYRON, CARL, COLETTE, ... </t>
   </si>
   <si>
     <t>EMZ, EVE</t>
   </si>
   <si>
-    <t xml:space="preserve">ASH, BEA, BELLE, BONNIE, CARL, COLETTE, CROW, GENE, GRIFF, JANET, LOLA, MAX, ... </t>
+    <t xml:space="preserve">ASH, BEA, BELLE, BONNIE, BUSTER, CARL, COLETTE, CROW, GENE, GRIFF, JANET, LOLA, ... </t>
   </si>
   <si>
     <t xml:space="preserve">AMBER, BEA, BELLE, BIBI, COLETTE, EMZ, GENE, JACKY, JANET, LOLA, MAX, NITA, ... </t>
   </si>
   <si>
-    <t xml:space="preserve">8-BIT, AMBER, ASH, BARLEY, BEA, BELLE, BIBI, BO, BROCK, BULL, BUZZ, BYRON, ... </t>
+    <t xml:space="preserve">8-BIT, AMBER, ASH, BARLEY, BEA, BELLE, BIBI, BO, BONNIE, BROCK, BULL, BUZZ, ... </t>
   </si>
   <si>
     <t>BEA, BELLE, GENE, PIPER, STU</t>
   </si>
   <si>
-    <t xml:space="preserve">ASH, BEA, BELLE, BO, BYRON, COLETTE, FANG, JANET, MAX, MORTIS, PIPER, RICO, ... </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ASH, BEA, BO, BONNIE, BYRON, COLETTE, CROW, FANG, GENE, GRIFF, GUS, JANET, ... </t>
+    <t xml:space="preserve">ASH, BEA, BELLE, BO, BYRON, COLETTE, FANG, JANET, MAX, MORTIS, PENNY, PIPER, ... </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ASH, BEA, BO, BONNIE, BYRON, COLETTE, CROW, EVE, FANG, GENE, GRIFF, GUS, ... </t>
   </si>
   <si>
     <t xml:space="preserve">8-BIT, AMBER, ASH, BARLEY, BEA, BELLE, BIBI, BO, BONNIE, BROCK, BULL, BUSTER, ... </t>
@@ -268,10 +268,7 @@
     <t xml:space="preserve">8-BIT, BARLEY, BEA, BELLE, BO, BROCK, BYRON, CARL, COLETTE, CROW, DARRYL, EMZ, ... </t>
   </si>
   <si>
-    <t xml:space="preserve">BEA, BO, COLETTE, EMZ, GALE, JANET, LEON, LOLA, POCO, SPIKE, STU, TARA, ... </t>
-  </si>
-  <si>
-    <t>ASH, BIBI, CARL, GENE, MAX, RICO, STU, SURGE</t>
+    <t>ASH, BELLE, BIBI, CARL, GENE, MAX, RICO, STU, SURGE</t>
   </si>
   <si>
     <t>BEA, BO, JANET, STU, SURGE</t>
@@ -280,22 +277,22 @@
     <t>BELLE, CARL, MORTIS, PIPER, STU</t>
   </si>
   <si>
-    <t xml:space="preserve">BELLE, BO, BROCK, BUZZ, CARL, CROW, DARRYL, EL PRIMO, EMZ, EVE, GALE, GENE, ... </t>
+    <t xml:space="preserve">BELLE, BO, BROCK, BUZZ, BYRON, CARL, CROW, DARRYL, EL PRIMO, EMZ, EVE, FANG, ... </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BEA, BELLE, BUZZ, BYRON, COLETTE, COLT, CROW, EMZ, FRANK, GALE, GENE, MAX, ... </t>
   </si>
   <si>
     <t>CARL, GENE, MAX, MORTIS, SPIKE, SURGE</t>
   </si>
   <si>
-    <t>BROCK, LEON, STU, TARA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8-BIT, AMBER, ASH, BARLEY, BEA, BELLE, BIBI, BO, BONNIE, BROCK, BULL, BUZZ, ... </t>
+    <t>BROCK, LEON, LOU, STU, TARA</t>
   </si>
   <si>
     <t xml:space="preserve">8-BIT, AMBER, BARLEY, BEA, BELLE, BUZZ, BYRON, COLETTE, CROW, DARRYL, DYNAMIKE, EDGAR, ... </t>
   </si>
   <si>
-    <t xml:space="preserve">ASH, BO, BONNIE, BYRON, CARL, COLETTE, COLT, CROW, EVE, FANG, GALE, GRIFF, ... </t>
+    <t xml:space="preserve">ASH, BO, BONNIE, BROCK, BYRON, CARL, COLETTE, COLT, CROW, EVE, FANG, GALE, ... </t>
   </si>
   <si>
     <t xml:space="preserve">BELLE, BO, BONNIE, BYRON, CARL, DARRYL, EVE, FANG, GALE, GENE, JANET, MAX, ... </t>
@@ -304,13 +301,16 @@
     <t>BROCK, BYRON, CROW, LEON, MAX, PENNY, PIPER</t>
   </si>
   <si>
-    <t xml:space="preserve">8-BIT, ASH, BEA, BELLE, BO, BROCK, BYRON, CARL, EMZ, GENE, GRIFF, JANET, ... </t>
+    <t xml:space="preserve">8-BIT, ASH, BEA, BELLE, BO, BROCK, BYRON, CARL, EMZ, GALE, GENE, GRIFF, ... </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BELLE, BIBI, BO, BROCK, BUZZ, CARL, COLETTE, DARRYL, EMZ, FANG, GALE, GENE, ... </t>
   </si>
   <si>
     <t>C9 Brawler Levels</t>
   </si>
   <si>
-    <t>2022-11-17</t>
+    <t>2022-11-22</t>
   </si>
 </sst>
 </file>
@@ -752,16 +752,16 @@
         <v>38</v>
       </c>
       <c r="D2" s="2">
-        <v>37471</v>
+        <v>37502</v>
       </c>
       <c r="E2" s="2">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F2" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G2" s="2">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H2" s="3" t="s">
         <v>68</v>
@@ -804,16 +804,16 @@
         <v>38</v>
       </c>
       <c r="D4" s="2">
-        <v>37471</v>
+        <v>37502</v>
       </c>
       <c r="E4" s="2">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F4" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G4" s="2">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H4" s="3" t="s">
         <v>68</v>
@@ -882,16 +882,16 @@
         <v>41</v>
       </c>
       <c r="D7" s="2">
-        <v>49650</v>
+        <v>49941</v>
       </c>
       <c r="E7" s="2">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F7" s="2">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G7" s="2">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="H7" s="3" t="s">
         <v>71</v>
@@ -908,10 +908,10 @@
         <v>42</v>
       </c>
       <c r="D8" s="2">
-        <v>45623</v>
+        <v>45752</v>
       </c>
       <c r="E8" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F8" s="2">
         <v>6</v>
@@ -934,16 +934,16 @@
         <v>43</v>
       </c>
       <c r="D9" s="2">
-        <v>43914</v>
+        <v>44501</v>
       </c>
       <c r="E9" s="2">
         <v>0</v>
       </c>
       <c r="F9" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G9" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H9" s="3" t="s">
         <v>73</v>
@@ -960,7 +960,7 @@
         <v>44</v>
       </c>
       <c r="D10" s="2">
-        <v>34822</v>
+        <v>34895</v>
       </c>
       <c r="E10" s="2">
         <v>42</v>
@@ -986,16 +986,16 @@
         <v>45</v>
       </c>
       <c r="D11" s="2">
-        <v>36773</v>
+        <v>36936</v>
       </c>
       <c r="E11" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F11" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G11" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H11" s="3" t="s">
         <v>75</v>
@@ -1012,10 +1012,10 @@
         <v>46</v>
       </c>
       <c r="D12" s="2">
-        <v>46970</v>
+        <v>47762</v>
       </c>
       <c r="E12" s="2">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="F12" s="2">
         <v>16</v>
@@ -1038,16 +1038,16 @@
         <v>47</v>
       </c>
       <c r="D13" s="2">
-        <v>42340</v>
+        <v>42425</v>
       </c>
       <c r="E13" s="2">
         <v>0</v>
       </c>
       <c r="F13" s="2">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G13" s="2">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="H13" s="3" t="s">
         <v>77</v>
@@ -1064,13 +1064,13 @@
         <v>48</v>
       </c>
       <c r="D14" s="2">
-        <v>31937</v>
+        <v>32421</v>
       </c>
       <c r="E14" s="2">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F14" s="2">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G14" s="2">
         <v>5</v>
@@ -1090,16 +1090,16 @@
         <v>49</v>
       </c>
       <c r="D15" s="2">
-        <v>39741</v>
+        <v>40257</v>
       </c>
       <c r="E15" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F15" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G15" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H15" s="3" t="s">
         <v>79</v>
@@ -1116,7 +1116,7 @@
         <v>50</v>
       </c>
       <c r="D16" s="2">
-        <v>33107</v>
+        <v>33466</v>
       </c>
       <c r="E16" s="2">
         <v>35</v>
@@ -1125,7 +1125,7 @@
         <v>3</v>
       </c>
       <c r="G16" s="2">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H16" s="3" t="s">
         <v>80</v>
@@ -1142,7 +1142,7 @@
         <v>51</v>
       </c>
       <c r="D17" s="2">
-        <v>42801</v>
+        <v>43395</v>
       </c>
       <c r="E17" s="2">
         <v>0</v>
@@ -1168,16 +1168,16 @@
         <v>52</v>
       </c>
       <c r="D18" s="2">
-        <v>41718</v>
+        <v>42510</v>
       </c>
       <c r="E18" s="2">
         <v>8</v>
       </c>
       <c r="F18" s="2">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G18" s="2">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>82</v>
@@ -1194,16 +1194,16 @@
         <v>53</v>
       </c>
       <c r="D19" s="2">
-        <v>41514</v>
+        <v>41597</v>
       </c>
       <c r="E19" s="2">
         <v>13</v>
       </c>
       <c r="F19" s="2">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G19" s="2">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H19" s="3" t="s">
         <v>83</v>
@@ -1220,16 +1220,16 @@
         <v>54</v>
       </c>
       <c r="D20" s="2">
-        <v>27755</v>
+        <v>31667</v>
       </c>
       <c r="E20" s="2">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="F20" s="2">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="G20" s="2">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="H20" s="3" t="s">
         <v>84</v>
@@ -1240,22 +1240,22 @@
         <v>25</v>
       </c>
       <c r="B21" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>55</v>
       </c>
       <c r="D21" s="2">
-        <v>31358</v>
+        <v>21657</v>
       </c>
       <c r="E21" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F21" s="2">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="G21" s="2">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>85</v>
@@ -1272,13 +1272,13 @@
         <v>56</v>
       </c>
       <c r="D22" s="2">
-        <v>21297</v>
+        <v>37404</v>
       </c>
       <c r="E22" s="2">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="F22" s="2">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="G22" s="2">
         <v>5</v>
@@ -1298,16 +1298,16 @@
         <v>57</v>
       </c>
       <c r="D23" s="2">
-        <v>36779</v>
+        <v>38375</v>
       </c>
       <c r="E23" s="2">
+        <v>7</v>
+      </c>
+      <c r="F23" s="2">
         <v>22</v>
       </c>
-      <c r="F23" s="2">
-        <v>19</v>
-      </c>
       <c r="G23" s="2">
-        <v>5</v>
+        <v>31</v>
       </c>
       <c r="H23" s="3" t="s">
         <v>87</v>
@@ -1318,22 +1318,22 @@
         <v>28</v>
       </c>
       <c r="B24" s="2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>58</v>
       </c>
       <c r="D24" s="2">
-        <v>37811</v>
+        <v>31267</v>
       </c>
       <c r="E24" s="2">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="F24" s="2">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="G24" s="2">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="H24" s="3" t="s">
         <v>88</v>
@@ -1350,7 +1350,7 @@
         <v>59</v>
       </c>
       <c r="D25" s="2">
-        <v>40413</v>
+        <v>40750</v>
       </c>
       <c r="E25" s="2">
         <v>2</v>
@@ -1376,16 +1376,16 @@
         <v>60</v>
       </c>
       <c r="D26" s="2">
-        <v>15434</v>
+        <v>15529</v>
       </c>
       <c r="E26" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F26" s="2">
         <v>2</v>
       </c>
       <c r="G26" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H26" s="3" t="s">
         <v>90</v>
@@ -1402,7 +1402,7 @@
         <v>61</v>
       </c>
       <c r="D27" s="2">
-        <v>35018</v>
+        <v>35070</v>
       </c>
       <c r="E27" s="2">
         <v>13</v>
@@ -1414,7 +1414,7 @@
         <v>47</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1428,19 +1428,19 @@
         <v>62</v>
       </c>
       <c r="D28" s="2">
-        <v>38375</v>
+        <v>38425</v>
       </c>
       <c r="E28" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F28" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G28" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1454,19 +1454,19 @@
         <v>63</v>
       </c>
       <c r="D29" s="2">
-        <v>34284</v>
+        <v>34332</v>
       </c>
       <c r="E29" s="2">
         <v>31</v>
       </c>
       <c r="F29" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G29" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1480,19 +1480,19 @@
         <v>64</v>
       </c>
       <c r="D30" s="2">
-        <v>33573</v>
+        <v>33590</v>
       </c>
       <c r="E30" s="2">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F30" s="2">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G30" s="2">
         <v>19</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1506,19 +1506,19 @@
         <v>65</v>
       </c>
       <c r="D31" s="2">
-        <v>37462</v>
+        <v>37482</v>
       </c>
       <c r="E31" s="2">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F31" s="2">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G31" s="2">
         <v>7</v>
       </c>
       <c r="H31" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1532,19 +1532,19 @@
         <v>66</v>
       </c>
       <c r="D32" s="2">
-        <v>38393</v>
+        <v>38686</v>
       </c>
       <c r="E32" s="2">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F32" s="2">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G32" s="2">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H32" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1556,19 +1556,19 @@
         <v>67</v>
       </c>
       <c r="D33" s="2">
-        <v>45459</v>
+        <v>47173</v>
       </c>
       <c r="E33" s="2">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="F33" s="2">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="G33" s="2">
-        <v>60</v>
+        <v>22</v>
       </c>
       <c r="H33" s="3" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>

--- a/output/c9/c9aurac_brawler_levels_team.xlsx
+++ b/output/c9/c9aurac_brawler_levels_team.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="110">
   <si>
     <t>player</t>
   </si>
@@ -28,6 +28,12 @@
     <t>trophies</t>
   </si>
   <si>
+    <t>highest_pl_rank_score</t>
+  </si>
+  <si>
+    <t>highest_pl_rank</t>
+  </si>
+  <si>
     <t>level_9s</t>
   </si>
   <si>
@@ -220,6 +226,33 @@
     <t>#RYVGJYQ2</t>
   </si>
   <si>
+    <t>Mythic II</t>
+  </si>
+  <si>
+    <t>Mythic III</t>
+  </si>
+  <si>
+    <t>Diamond III</t>
+  </si>
+  <si>
+    <t>Legend II</t>
+  </si>
+  <si>
+    <t>Masters</t>
+  </si>
+  <si>
+    <t>Gold III</t>
+  </si>
+  <si>
+    <t>Mythic I</t>
+  </si>
+  <si>
+    <t>Legend I</t>
+  </si>
+  <si>
+    <t>Gold II</t>
+  </si>
+  <si>
     <t xml:space="preserve">AMBER, ASH, BEA, BELLE, BONNIE, BROCK, BYRON, CARL, CROW, EMZ, GRIFF, JANET, ... </t>
   </si>
   <si>
@@ -310,7 +343,7 @@
     <t>C9 Brawler Levels</t>
   </si>
   <si>
-    <t>2022-11-22</t>
+    <t>2022-11-25</t>
   </si>
 </sst>
 </file>
@@ -694,7 +727,7 @@
   <sheetData>
     <row r="1" spans="1:45">
       <c r="A1" s="1" t="s">
-        <v>97</v>
+        <v>108</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -743,28 +776,34 @@
     </row>
     <row r="2" spans="1:45">
       <c r="A2" t="s">
-        <v>98</v>
+        <v>109</v>
       </c>
       <c r="B2" s="2">
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D2" s="2">
-        <v>37502</v>
+        <v>37630</v>
       </c>
       <c r="E2" s="2">
+        <v>14</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="G2" s="2">
         <v>24</v>
       </c>
-      <c r="F2" s="2">
+      <c r="H2" s="2">
         <v>9</v>
       </c>
-      <c r="G2" s="2">
+      <c r="I2" s="2">
         <v>23</v>
       </c>
-      <c r="H2" s="3" t="s">
-        <v>68</v>
+      <c r="J2" s="3" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:45">
@@ -792,614 +831,758 @@
       <c r="H3" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="I3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="4" spans="1:45">
       <c r="A4" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B4" s="2">
         <v>1</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D4" s="2">
-        <v>37502</v>
+        <v>37630</v>
       </c>
       <c r="E4" s="2">
+        <v>14</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="G4" s="2">
         <v>24</v>
       </c>
-      <c r="F4" s="2">
+      <c r="H4" s="2">
         <v>9</v>
       </c>
-      <c r="G4" s="2">
+      <c r="I4" s="2">
         <v>23</v>
       </c>
-      <c r="H4" s="3" t="s">
-        <v>68</v>
+      <c r="J4" s="3" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="5" spans="1:45">
       <c r="A5" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B5" s="2">
         <v>1</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D5" s="2">
-        <v>6723</v>
+        <v>6731</v>
       </c>
       <c r="E5" s="2">
+        <v>15</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="G5" s="2">
         <v>0</v>
       </c>
-      <c r="F5" s="2">
+      <c r="H5" s="2">
         <v>0</v>
       </c>
-      <c r="G5" s="2">
+      <c r="I5" s="2">
         <v>21</v>
       </c>
-      <c r="H5" s="3" t="s">
-        <v>69</v>
+      <c r="J5" s="3" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:45">
       <c r="A6" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B6" s="2">
         <v>1</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D6" s="2">
-        <v>28953</v>
+        <v>28985</v>
       </c>
       <c r="E6" s="2">
-        <v>6</v>
-      </c>
-      <c r="F6" s="2">
+        <v>12</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G6" s="2">
+        <v>4</v>
+      </c>
+      <c r="H6" s="2">
+        <v>25</v>
+      </c>
+      <c r="I6" s="2">
         <v>26</v>
       </c>
-      <c r="G6" s="2">
-        <v>23</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>70</v>
+      <c r="J6" s="3" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="7" spans="1:45">
       <c r="A7" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B7" s="2">
         <v>2</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D7" s="2">
-        <v>49941</v>
+        <v>50032</v>
       </c>
       <c r="E7" s="2">
+        <v>15</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="G7" s="2">
         <v>14</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>21</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>25</v>
       </c>
-      <c r="H7" s="3" t="s">
-        <v>71</v>
+      <c r="J7" s="3" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="8" spans="1:45">
       <c r="A8" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B8" s="2">
         <v>2</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D8" s="2">
-        <v>45752</v>
+        <v>46014</v>
       </c>
       <c r="E8" s="2">
+        <v>17</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="G8" s="2">
         <v>27</v>
       </c>
-      <c r="F8" s="2">
+      <c r="H8" s="2">
         <v>6</v>
       </c>
-      <c r="G8" s="2">
+      <c r="I8" s="2">
         <v>28</v>
       </c>
-      <c r="H8" s="3" t="s">
-        <v>72</v>
+      <c r="J8" s="3" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="9" spans="1:45">
       <c r="A9" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B9" s="2">
         <v>2</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D9" s="2">
-        <v>44501</v>
+        <v>44776</v>
       </c>
       <c r="E9" s="2">
+        <v>19</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="G9" s="2">
         <v>0</v>
       </c>
-      <c r="F9" s="2">
+      <c r="H9" s="2">
         <v>20</v>
       </c>
-      <c r="G9" s="2">
+      <c r="I9" s="2">
         <v>41</v>
       </c>
-      <c r="H9" s="3" t="s">
-        <v>73</v>
+      <c r="J9" s="3" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="10" spans="1:45">
       <c r="A10" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B10" s="2">
         <v>3</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D10" s="2">
-        <v>34895</v>
+        <v>34909</v>
       </c>
       <c r="E10" s="2">
-        <v>42</v>
-      </c>
-      <c r="F10" s="2">
+        <v>9</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="G10" s="2">
+        <v>43</v>
+      </c>
+      <c r="H10" s="2">
         <v>10</v>
       </c>
-      <c r="G10" s="2">
+      <c r="I10" s="2">
         <v>2</v>
       </c>
-      <c r="H10" s="3" t="s">
-        <v>74</v>
+      <c r="J10" s="3" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="11" spans="1:45">
       <c r="A11" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B11" s="2">
         <v>3</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D11" s="2">
-        <v>36936</v>
+        <v>37042</v>
       </c>
       <c r="E11" s="2">
+        <v>12</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G11" s="2">
         <v>11</v>
       </c>
-      <c r="F11" s="2">
+      <c r="H11" s="2">
         <v>30</v>
       </c>
-      <c r="G11" s="2">
+      <c r="I11" s="2">
         <v>20</v>
       </c>
-      <c r="H11" s="3" t="s">
-        <v>75</v>
+      <c r="J11" s="3" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="12" spans="1:45">
       <c r="A12" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B12" s="2">
         <v>3</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D12" s="2">
-        <v>47762</v>
+        <v>48041</v>
       </c>
       <c r="E12" s="2">
+        <v>15</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="G12" s="2">
         <v>27</v>
       </c>
-      <c r="F12" s="2">
+      <c r="H12" s="2">
         <v>16</v>
       </c>
-      <c r="G12" s="2">
+      <c r="I12" s="2">
         <v>17</v>
       </c>
-      <c r="H12" s="3" t="s">
-        <v>76</v>
+      <c r="J12" s="3" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:45">
       <c r="A13" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B13" s="2">
         <v>4</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D13" s="2">
-        <v>42425</v>
+        <v>42517</v>
       </c>
       <c r="E13" s="2">
+        <v>13</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="G13" s="2">
         <v>0</v>
       </c>
-      <c r="F13" s="2">
+      <c r="H13" s="2">
         <v>0</v>
       </c>
-      <c r="G13" s="2">
+      <c r="I13" s="2">
         <v>60</v>
       </c>
-      <c r="H13" s="3" t="s">
-        <v>77</v>
+      <c r="J13" s="3" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="14" spans="1:45">
       <c r="A14" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B14" s="2">
         <v>4</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D14" s="2">
-        <v>32421</v>
+        <v>32489</v>
       </c>
       <c r="E14" s="2">
-        <v>16</v>
-      </c>
-      <c r="F14" s="2">
-        <v>36</v>
+        <v>15</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>71</v>
       </c>
       <c r="G14" s="2">
+        <v>15</v>
+      </c>
+      <c r="H14" s="2">
+        <v>37</v>
+      </c>
+      <c r="I14" s="2">
         <v>5</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>78</v>
+      <c r="J14" s="3" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="15" spans="1:45">
       <c r="A15" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B15" s="2">
         <v>4</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D15" s="2">
-        <v>40257</v>
+        <v>40339</v>
       </c>
       <c r="E15" s="2">
+        <v>15</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="G15" s="2">
         <v>12</v>
       </c>
-      <c r="F15" s="2">
+      <c r="H15" s="2">
         <v>30</v>
       </c>
-      <c r="G15" s="2">
+      <c r="I15" s="2">
         <v>18</v>
       </c>
-      <c r="H15" s="3" t="s">
-        <v>79</v>
+      <c r="J15" s="3" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="16" spans="1:45">
       <c r="A16" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B16" s="2">
         <v>5</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D16" s="2">
-        <v>33466</v>
+        <v>33613</v>
       </c>
       <c r="E16" s="2">
+        <v>15</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="G16" s="2">
         <v>35</v>
       </c>
-      <c r="F16" s="2">
-        <v>3</v>
-      </c>
-      <c r="G16" s="2">
-        <v>22</v>
-      </c>
-      <c r="H16" s="3" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+      <c r="H16" s="2">
+        <v>2</v>
+      </c>
+      <c r="I16" s="2">
+        <v>23</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B17" s="2">
         <v>5</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D17" s="2">
-        <v>43395</v>
+        <v>43568</v>
       </c>
       <c r="E17" s="2">
+        <v>15</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="G17" s="2">
         <v>0</v>
       </c>
-      <c r="F17" s="2">
+      <c r="H17" s="2">
         <v>0</v>
       </c>
-      <c r="G17" s="2">
+      <c r="I17" s="2">
         <v>61</v>
       </c>
-      <c r="H17" s="3" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+      <c r="J17" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B18" s="2">
         <v>5</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D18" s="2">
-        <v>42510</v>
+        <v>42750</v>
       </c>
       <c r="E18" s="2">
-        <v>8</v>
-      </c>
-      <c r="F18" s="2">
+        <v>15</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="G18" s="2">
+        <v>7</v>
+      </c>
+      <c r="H18" s="2">
         <v>16</v>
       </c>
-      <c r="G18" s="2">
-        <v>37</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+      <c r="I18" s="2">
+        <v>38</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B19" s="2">
         <v>6</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D19" s="2">
-        <v>41597</v>
+        <v>41642</v>
       </c>
       <c r="E19" s="2">
+        <v>16</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="G19" s="2">
         <v>13</v>
       </c>
-      <c r="F19" s="2">
+      <c r="H19" s="2">
         <v>15</v>
       </c>
-      <c r="G19" s="2">
+      <c r="I19" s="2">
         <v>32</v>
       </c>
-      <c r="H19" s="3" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+      <c r="J19" s="3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B20" s="2">
         <v>6</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D20" s="2">
-        <v>31667</v>
+        <v>31706</v>
       </c>
       <c r="E20" s="2">
+        <v>15</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="G20" s="2">
         <v>12</v>
       </c>
-      <c r="F20" s="2">
+      <c r="H20" s="2">
         <v>11</v>
       </c>
-      <c r="G20" s="2">
+      <c r="I20" s="2">
         <v>9</v>
       </c>
-      <c r="H20" s="3" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+      <c r="J20" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B21" s="2">
         <v>7</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D21" s="2">
-        <v>21657</v>
+        <v>21821</v>
       </c>
       <c r="E21" s="2">
-        <v>12</v>
-      </c>
-      <c r="F21" s="2">
-        <v>7</v>
+        <v>15</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>71</v>
       </c>
       <c r="G21" s="2">
+        <v>10</v>
+      </c>
+      <c r="H21" s="2">
+        <v>9</v>
+      </c>
+      <c r="I21" s="2">
         <v>5</v>
       </c>
-      <c r="H21" s="3" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+      <c r="J21" s="3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B22" s="2">
         <v>7</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D22" s="2">
-        <v>37404</v>
+        <v>37580</v>
       </c>
       <c r="E22" s="2">
+        <v>14</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="G22" s="2">
         <v>22</v>
       </c>
-      <c r="F22" s="2">
+      <c r="H22" s="2">
         <v>19</v>
       </c>
-      <c r="G22" s="2">
+      <c r="I22" s="2">
         <v>5</v>
       </c>
-      <c r="H22" s="3" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+      <c r="J22" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B23" s="2">
         <v>7</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D23" s="2">
-        <v>38375</v>
+        <v>38452</v>
       </c>
       <c r="E23" s="2">
-        <v>7</v>
-      </c>
-      <c r="F23" s="2">
-        <v>22</v>
+        <v>14</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>70</v>
       </c>
       <c r="G23" s="2">
+        <v>6</v>
+      </c>
+      <c r="H23" s="2">
+        <v>23</v>
+      </c>
+      <c r="I23" s="2">
         <v>31</v>
       </c>
-      <c r="H23" s="3" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+      <c r="J23" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B24" s="2">
         <v>8</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D24" s="2">
-        <v>31267</v>
+        <v>31510</v>
       </c>
       <c r="E24" s="2">
+        <v>15</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="G24" s="2">
         <v>13</v>
       </c>
-      <c r="F24" s="2">
-        <v>18</v>
-      </c>
-      <c r="G24" s="2">
-        <v>19</v>
-      </c>
-      <c r="H24" s="3" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+      <c r="H24" s="2">
+        <v>17</v>
+      </c>
+      <c r="I24" s="2">
+        <v>20</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B25" s="2">
         <v>8</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D25" s="2">
-        <v>40750</v>
+        <v>41216</v>
       </c>
       <c r="E25" s="2">
+        <v>14</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="G25" s="2">
         <v>2</v>
       </c>
-      <c r="F25" s="2">
+      <c r="H25" s="2">
         <v>27</v>
       </c>
-      <c r="G25" s="2">
+      <c r="I25" s="2">
         <v>6</v>
       </c>
-      <c r="H25" s="3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+      <c r="J25" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B26" s="2">
         <v>8</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D26" s="2">
         <v>15529</v>
       </c>
       <c r="E26" s="2">
+        <v>13</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="G26" s="2">
         <v>4</v>
       </c>
-      <c r="F26" s="2">
+      <c r="H26" s="2">
         <v>2</v>
       </c>
-      <c r="G26" s="2">
+      <c r="I26" s="2">
         <v>5</v>
       </c>
-      <c r="H26" s="3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+      <c r="J26" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B27" s="2">
         <v>9</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D27" s="2">
         <v>35070</v>
@@ -1407,168 +1590,210 @@
       <c r="E27" s="2">
         <v>13</v>
       </c>
-      <c r="F27" s="2">
+      <c r="F27" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="G27" s="2">
+        <v>13</v>
+      </c>
+      <c r="H27" s="2">
         <v>0</v>
       </c>
-      <c r="G27" s="2">
+      <c r="I27" s="2">
         <v>47</v>
       </c>
-      <c r="H27" s="3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+      <c r="J27" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B28" s="2">
         <v>9</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D28" s="2">
         <v>38425</v>
       </c>
       <c r="E28" s="2">
+        <v>16</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="G28" s="2">
         <v>20</v>
       </c>
-      <c r="F28" s="2">
+      <c r="H28" s="2">
         <v>2</v>
       </c>
-      <c r="G28" s="2">
+      <c r="I28" s="2">
         <v>39</v>
       </c>
-      <c r="H28" s="3" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+      <c r="J28" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B29" s="2">
         <v>9</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D29" s="2">
-        <v>34332</v>
+        <v>34309</v>
       </c>
       <c r="E29" s="2">
+        <v>14</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="G29" s="2">
         <v>31</v>
       </c>
-      <c r="F29" s="2">
+      <c r="H29" s="2">
         <v>3</v>
       </c>
-      <c r="G29" s="2">
+      <c r="I29" s="2">
         <v>24</v>
       </c>
-      <c r="H29" s="3" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+      <c r="J29" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B30" s="2">
         <v>10</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D30" s="2">
         <v>33590</v>
       </c>
       <c r="E30" s="2">
+        <v>13</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="G30" s="2">
         <v>28</v>
       </c>
-      <c r="F30" s="2">
+      <c r="H30" s="2">
         <v>13</v>
       </c>
-      <c r="G30" s="2">
+      <c r="I30" s="2">
         <v>19</v>
       </c>
-      <c r="H30" s="3" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+      <c r="J30" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B31" s="2">
         <v>10</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D31" s="2">
-        <v>37482</v>
+        <v>37475</v>
       </c>
       <c r="E31" s="2">
+        <v>8</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="G31" s="2">
         <v>19</v>
       </c>
-      <c r="F31" s="2">
+      <c r="H31" s="2">
         <v>32</v>
       </c>
-      <c r="G31" s="2">
+      <c r="I31" s="2">
         <v>7</v>
       </c>
-      <c r="H31" s="3" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+      <c r="J31" s="3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B32" s="2">
         <v>10</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D32" s="2">
-        <v>38686</v>
+        <v>38860</v>
       </c>
       <c r="E32" s="2">
         <v>13</v>
       </c>
-      <c r="F32" s="2">
+      <c r="F32" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="G32" s="2">
+        <v>13</v>
+      </c>
+      <c r="H32" s="2">
         <v>25</v>
       </c>
-      <c r="G32" s="2">
+      <c r="I32" s="2">
         <v>23</v>
       </c>
-      <c r="H32" s="3" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+      <c r="J32" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D33" s="2">
         <v>47173</v>
       </c>
       <c r="E33" s="2">
-        <v>20</v>
-      </c>
-      <c r="F33" s="2">
-        <v>16</v>
+        <v>15</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>71</v>
       </c>
       <c r="G33" s="2">
+        <v>19</v>
+      </c>
+      <c r="H33" s="2">
+        <v>17</v>
+      </c>
+      <c r="I33" s="2">
         <v>22</v>
       </c>
-      <c r="H33" s="3" t="s">
-        <v>96</v>
+      <c r="J33" s="3" t="s">
+        <v>107</v>
       </c>
     </row>
   </sheetData>

--- a/output/c9/c9aurac_brawler_levels_team.xlsx
+++ b/output/c9/c9aurac_brawler_levels_team.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="110">
   <si>
     <t>player</t>
   </si>
@@ -28,10 +28,10 @@
     <t>trophies</t>
   </si>
   <si>
-    <t>highest_pl_rank_score</t>
-  </si>
-  <si>
-    <t>highest_pl_rank</t>
+    <t>pl_score</t>
+  </si>
+  <si>
+    <t>pl_rank</t>
   </si>
   <si>
     <t>level_9s</t>
@@ -229,25 +229,25 @@
     <t>Mythic II</t>
   </si>
   <si>
+    <t>Mythic I</t>
+  </si>
+  <si>
+    <t>Legend I</t>
+  </si>
+  <si>
     <t>Mythic III</t>
   </si>
   <si>
+    <t>Gold III</t>
+  </si>
+  <si>
     <t>Diamond III</t>
   </si>
   <si>
-    <t>Legend II</t>
-  </si>
-  <si>
-    <t>Masters</t>
-  </si>
-  <si>
-    <t>Gold III</t>
-  </si>
-  <si>
-    <t>Mythic I</t>
-  </si>
-  <si>
-    <t>Legend I</t>
+    <t>Diamond II</t>
+  </si>
+  <si>
+    <t>Diamond I</t>
   </si>
   <si>
     <t>Gold II</t>
@@ -884,7 +884,7 @@
         <v>6731</v>
       </c>
       <c r="E5" s="2">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>71</v>
@@ -916,11 +916,9 @@
         <v>28985</v>
       </c>
       <c r="E6" s="2">
-        <v>12</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>72</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F6" s="2"/>
       <c r="G6" s="2">
         <v>4</v>
       </c>
@@ -948,10 +946,10 @@
         <v>50032</v>
       </c>
       <c r="E7" s="2">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G7" s="2">
         <v>14</v>
@@ -977,13 +975,13 @@
         <v>44</v>
       </c>
       <c r="D8" s="2">
-        <v>46014</v>
+        <v>46017</v>
       </c>
       <c r="E8" s="2">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G8" s="2">
         <v>27</v>
@@ -1012,10 +1010,10 @@
         <v>44776</v>
       </c>
       <c r="E9" s="2">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G9" s="2">
         <v>0</v>
@@ -1044,13 +1042,11 @@
         <v>34909</v>
       </c>
       <c r="E10" s="2">
-        <v>9</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>75</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F10" s="2"/>
       <c r="G10" s="2">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H10" s="2">
         <v>10</v>
@@ -1076,13 +1072,13 @@
         <v>37042</v>
       </c>
       <c r="E11" s="2">
+        <v>9</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="G11" s="2">
         <v>12</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="G11" s="2">
-        <v>11</v>
       </c>
       <c r="H11" s="2">
         <v>30</v>
@@ -1108,10 +1104,10 @@
         <v>48041</v>
       </c>
       <c r="E12" s="2">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="G12" s="2">
         <v>27</v>
@@ -1140,7 +1136,7 @@
         <v>42517</v>
       </c>
       <c r="E13" s="2">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>76</v>
@@ -1152,7 +1148,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="J13" s="3" t="s">
         <v>88</v>
@@ -1172,10 +1168,10 @@
         <v>32489</v>
       </c>
       <c r="E14" s="2">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G14" s="2">
         <v>15</v>
@@ -1204,7 +1200,7 @@
         <v>40339</v>
       </c>
       <c r="E15" s="2">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>71</v>
@@ -1236,10 +1232,10 @@
         <v>33613</v>
       </c>
       <c r="E16" s="2">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="G16" s="2">
         <v>35</v>
@@ -1268,7 +1264,7 @@
         <v>43568</v>
       </c>
       <c r="E17" s="2">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>71</v>
@@ -1297,13 +1293,13 @@
         <v>54</v>
       </c>
       <c r="D18" s="2">
-        <v>42750</v>
+        <v>42700</v>
       </c>
       <c r="E18" s="2">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G18" s="2">
         <v>7</v>
@@ -1332,10 +1328,10 @@
         <v>41642</v>
       </c>
       <c r="E19" s="2">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="G19" s="2">
         <v>13</v>
@@ -1364,10 +1360,10 @@
         <v>31706</v>
       </c>
       <c r="E20" s="2">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G20" s="2">
         <v>12</v>
@@ -1393,13 +1389,13 @@
         <v>57</v>
       </c>
       <c r="D21" s="2">
-        <v>21821</v>
+        <v>21837</v>
       </c>
       <c r="E21" s="2">
         <v>15</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G21" s="2">
         <v>10</v>
@@ -1428,10 +1424,10 @@
         <v>37580</v>
       </c>
       <c r="E22" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G22" s="2">
         <v>22</v>
@@ -1460,10 +1456,10 @@
         <v>38452</v>
       </c>
       <c r="E23" s="2">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="G23" s="2">
         <v>6</v>
@@ -1472,7 +1468,7 @@
         <v>23</v>
       </c>
       <c r="I23" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J23" s="3" t="s">
         <v>98</v>
@@ -1489,13 +1485,13 @@
         <v>60</v>
       </c>
       <c r="D24" s="2">
-        <v>31510</v>
+        <v>31533</v>
       </c>
       <c r="E24" s="2">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="G24" s="2">
         <v>13</v>
@@ -1524,10 +1520,10 @@
         <v>41216</v>
       </c>
       <c r="E25" s="2">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="G25" s="2">
         <v>2</v>
@@ -1556,11 +1552,9 @@
         <v>15529</v>
       </c>
       <c r="E26" s="2">
-        <v>13</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>76</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F26" s="2"/>
       <c r="G26" s="2">
         <v>4</v>
       </c>
@@ -1588,7 +1582,7 @@
         <v>35070</v>
       </c>
       <c r="E27" s="2">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>76</v>
@@ -1600,7 +1594,7 @@
         <v>0</v>
       </c>
       <c r="I27" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J27" s="3" t="s">
         <v>88</v>
@@ -1620,10 +1614,10 @@
         <v>38425</v>
       </c>
       <c r="E28" s="2">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G28" s="2">
         <v>20</v>
@@ -1632,7 +1626,7 @@
         <v>2</v>
       </c>
       <c r="I28" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J28" s="3" t="s">
         <v>102</v>
@@ -1684,16 +1678,16 @@
         <v>33590</v>
       </c>
       <c r="E30" s="2">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G30" s="2">
         <v>28</v>
       </c>
       <c r="H30" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I30" s="2">
         <v>19</v>
@@ -1748,10 +1742,10 @@
         <v>38860</v>
       </c>
       <c r="E32" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G32" s="2">
         <v>13</v>
@@ -1778,11 +1772,9 @@
         <v>47173</v>
       </c>
       <c r="E33" s="2">
-        <v>15</v>
-      </c>
-      <c r="F33" s="2" t="s">
-        <v>71</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F33" s="2"/>
       <c r="G33" s="2">
         <v>19</v>
       </c>

--- a/output/c9/c9aurac_brawler_levels_team.xlsx
+++ b/output/c9/c9aurac_brawler_levels_team.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="110">
   <si>
     <t>player</t>
   </si>
@@ -943,7 +943,7 @@
         <v>43</v>
       </c>
       <c r="D7" s="2">
-        <v>50032</v>
+        <v>49972</v>
       </c>
       <c r="E7" s="2">
         <v>14</v>
@@ -975,7 +975,7 @@
         <v>44</v>
       </c>
       <c r="D8" s="2">
-        <v>46017</v>
+        <v>46065</v>
       </c>
       <c r="E8" s="2">
         <v>16</v>
@@ -1007,7 +1007,7 @@
         <v>45</v>
       </c>
       <c r="D9" s="2">
-        <v>44776</v>
+        <v>44784</v>
       </c>
       <c r="E9" s="2">
         <v>15</v>
@@ -1261,7 +1261,7 @@
         <v>53</v>
       </c>
       <c r="D17" s="2">
-        <v>43568</v>
+        <v>43560</v>
       </c>
       <c r="E17" s="2">
         <v>13</v>
@@ -1392,10 +1392,10 @@
         <v>21837</v>
       </c>
       <c r="E21" s="2">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="G21" s="2">
         <v>10</v>
@@ -1485,7 +1485,7 @@
         <v>60</v>
       </c>
       <c r="D24" s="2">
-        <v>31533</v>
+        <v>31513</v>
       </c>
       <c r="E24" s="2">
         <v>12</v>
@@ -1517,7 +1517,7 @@
         <v>61</v>
       </c>
       <c r="D25" s="2">
-        <v>41216</v>
+        <v>41356</v>
       </c>
       <c r="E25" s="2">
         <v>12</v>
@@ -1707,7 +1707,7 @@
         <v>67</v>
       </c>
       <c r="D31" s="2">
-        <v>37475</v>
+        <v>37483</v>
       </c>
       <c r="E31" s="2">
         <v>8</v>
@@ -1769,12 +1769,14 @@
         <v>69</v>
       </c>
       <c r="D33" s="2">
-        <v>47173</v>
+        <v>47157</v>
       </c>
       <c r="E33" s="2">
-        <v>0</v>
-      </c>
-      <c r="F33" s="2"/>
+        <v>13</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>71</v>
+      </c>
       <c r="G33" s="2">
         <v>19</v>
       </c>

--- a/output/c9/c9aurac_brawler_levels_team.xlsx
+++ b/output/c9/c9aurac_brawler_levels_team.xlsx
@@ -785,7 +785,7 @@
         <v>40</v>
       </c>
       <c r="D2" s="2">
-        <v>37630</v>
+        <v>37639</v>
       </c>
       <c r="E2" s="2">
         <v>14</v>
@@ -849,7 +849,7 @@
         <v>40</v>
       </c>
       <c r="D4" s="2">
-        <v>37630</v>
+        <v>37639</v>
       </c>
       <c r="E4" s="2">
         <v>14</v>
@@ -1421,7 +1421,7 @@
         <v>58</v>
       </c>
       <c r="D22" s="2">
-        <v>37580</v>
+        <v>37628</v>
       </c>
       <c r="E22" s="2">
         <v>13</v>
@@ -1430,7 +1430,7 @@
         <v>71</v>
       </c>
       <c r="G22" s="2">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H22" s="2">
         <v>19</v>
@@ -1769,7 +1769,7 @@
         <v>69</v>
       </c>
       <c r="D33" s="2">
-        <v>47157</v>
+        <v>47160</v>
       </c>
       <c r="E33" s="2">
         <v>13</v>

--- a/output/c9/c9aurac_brawler_levels_team.xlsx
+++ b/output/c9/c9aurac_brawler_levels_team.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="111">
   <si>
     <t>player</t>
   </si>
@@ -61,7 +61,7 @@
     <t>Tribe|LHC</t>
   </si>
   <si>
-    <t>Yanny3</t>
+    <t>Zachary ϟ</t>
   </si>
   <si>
     <t>David</t>
@@ -94,6 +94,9 @@
     <t>Ethan형사°</t>
   </si>
   <si>
+    <t>prasanna</t>
+  </si>
+  <si>
     <t>❄|Vırtual ◇</t>
   </si>
   <si>
@@ -103,18 +106,18 @@
     <t>Fortnite</t>
   </si>
   <si>
+    <t>VS∣Daniel</t>
+  </si>
+  <si>
+    <t>SG|🔥Fire🔥</t>
+  </si>
+  <si>
+    <t>pigeo</t>
+  </si>
+  <si>
     <t>꧁✨やͪeͧ༒ͨ 𝖊𝖗✨꧂</t>
   </si>
   <si>
-    <t>Codes🧋</t>
-  </si>
-  <si>
-    <t>SG|🔥Fire🔥</t>
-  </si>
-  <si>
-    <t>ᴸᴼᵛᴱ ᵞᴼᵁ Aegis</t>
-  </si>
-  <si>
     <t>JustBeNice</t>
   </si>
   <si>
@@ -133,9 +136,6 @@
     <t>one</t>
   </si>
   <si>
-    <t>pigeo</t>
-  </si>
-  <si>
     <t>#CLR99L9L</t>
   </si>
   <si>
@@ -151,7 +151,7 @@
     <t>#J2RLUJP2</t>
   </si>
   <si>
-    <t>#9C0UUJVJ</t>
+    <t>#RQ8RRV0Y</t>
   </si>
   <si>
     <t>#9UPQVRQ</t>
@@ -184,6 +184,9 @@
     <t>#R82QLVQJ</t>
   </si>
   <si>
+    <t>#Y09QC2UJQ</t>
+  </si>
+  <si>
     <t>#U99LR8PR</t>
   </si>
   <si>
@@ -193,18 +196,18 @@
     <t>#PY0YR2CR8</t>
   </si>
   <si>
+    <t>#PCRG080</t>
+  </si>
+  <si>
+    <t>#CQ8RC802</t>
+  </si>
+  <si>
+    <t>#RYVGJYQ2</t>
+  </si>
+  <si>
     <t>#RQUQG8JY</t>
   </si>
   <si>
-    <t>#92ULCUY99</t>
-  </si>
-  <si>
-    <t>#CQ8RC802</t>
-  </si>
-  <si>
-    <t>#LVCLCLYC</t>
-  </si>
-  <si>
     <t>#J90L8C0Y</t>
   </si>
   <si>
@@ -223,37 +226,37 @@
     <t>#2LQ899P82</t>
   </si>
   <si>
-    <t>#RYVGJYQ2</t>
-  </si>
-  <si>
     <t>Mythic II</t>
   </si>
   <si>
+    <t>Mythic III</t>
+  </si>
+  <si>
+    <t>Diamond II</t>
+  </si>
+  <si>
+    <t>Gold III</t>
+  </si>
+  <si>
     <t>Mythic I</t>
   </si>
   <si>
     <t>Legend I</t>
   </si>
   <si>
-    <t>Mythic III</t>
-  </si>
-  <si>
-    <t>Gold III</t>
+    <t>Legend II</t>
+  </si>
+  <si>
+    <t>Diamond I</t>
   </si>
   <si>
     <t>Diamond III</t>
   </si>
   <si>
-    <t>Diamond II</t>
-  </si>
-  <si>
-    <t>Diamond I</t>
-  </si>
-  <si>
     <t>Gold II</t>
   </si>
   <si>
-    <t xml:space="preserve">AMBER, ASH, BEA, BELLE, BONNIE, BROCK, BYRON, CARL, CROW, EMZ, GRIFF, JANET, ... </t>
+    <t xml:space="preserve">AMBER, ASH, BARLEY, BEA, BELLE, BO, BONNIE, BROCK, BYRON, CARL, COLETTE, CROW, ... </t>
   </si>
   <si>
     <t xml:space="preserve">BELLE, BIBI, BROCK, BULL, CARL, COLT, CROW, EL PRIMO, JESSIE, MAX, MORTIS, MR. P, ... </t>
@@ -262,88 +265,88 @@
     <t xml:space="preserve">8-BIT, AMBER, ASH, BARLEY, BELLE, BROCK, BYRON, CARL, DARRYL, GALE, GENE, GRIFF, ... </t>
   </si>
   <si>
-    <t xml:space="preserve">BEA, BO, BUZZ, BYRON, CARL, COLETTE, CROW, EMZ, FRANK, GALE, GENE, GRIFF, ... </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AMBER, BEA, BELLE, BIBI, BO, BONNIE, BROCK, BYRON, CARL, COLETTE, CROW, DARRYL, ... </t>
-  </si>
-  <si>
-    <t xml:space="preserve">8-BIT, ASH, BEA, BELLE, BIBI, BO, BROCK, BUSTER, BUZZ, BYRON, CARL, COLETTE, ... </t>
-  </si>
-  <si>
-    <t>EMZ, EVE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ASH, BEA, BELLE, BONNIE, BUSTER, CARL, COLETTE, CROW, GENE, GRIFF, JANET, LOLA, ... </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AMBER, BEA, BELLE, BIBI, COLETTE, EMZ, GENE, JACKY, JANET, LOLA, MAX, NITA, ... </t>
+    <t xml:space="preserve">AMBER, BEA, BO, BUZZ, BYRON, CARL, CHESTER, COLETTE, CROW, DARRYL, DYNAMIKE, EMZ, ... </t>
+  </si>
+  <si>
+    <t xml:space="preserve">8-BIT, AMBER, BEA, BELLE, BIBI, BO, BONNIE, BROCK, BUSTER, BUZZ, BYRON, CARL, ... </t>
+  </si>
+  <si>
+    <t>BYRON, MAX, MORTIS, RICO, SPIKE, STU, TARA</t>
+  </si>
+  <si>
+    <t>BROCK, EMZ, EVE, GALE, SPROUT, TICK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AMBER, ASH, BEA, BELLE, BONNIE, BUSTER, CARL, CHESTER, COLETTE, CROW, GALE, GENE, ... </t>
+  </si>
+  <si>
+    <t xml:space="preserve">8-BIT, AMBER, BEA, BELLE, BIBI, COLETTE, EMZ, GENE, GRAY, GUS, JACKY, JANET, ... </t>
+  </si>
+  <si>
+    <t xml:space="preserve">8-BIT, AMBER, ASH, BARLEY, BEA, BELLE, BIBI, BO, BONNIE, BROCK, BULL, BUSTER, ... </t>
+  </si>
+  <si>
+    <t>BEA, BELLE, GENE, MAX, PIPER, SPIKE, STU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ASH, BEA, BELLE, BIBI, BO, BROCK, BYRON, CARL, CHESTER, COLETTE, FANG, GENE, ... </t>
+  </si>
+  <si>
+    <t xml:space="preserve">AMBER, ASH, BEA, BO, BONNIE, BUSTER, BYRON, CHESTER, COLETTE, CROW, EMZ, EVE, ... </t>
+  </si>
+  <si>
+    <t xml:space="preserve">8-BIT, AMBER, ASH, BEA, BELLE, BIBI, BO, BROCK, BULL, BUSTER, BUZZ, CARL, ... </t>
+  </si>
+  <si>
+    <t xml:space="preserve">8-BIT, BARLEY, BEA, BELLE, BO, BROCK, BUSTER, BYRON, CARL, CHESTER, COLETTE, CROW, ... </t>
+  </si>
+  <si>
+    <t>BUSTER, CHESTER, EL PRIMO, EMZ, FANG, GRIFF, LOLA, MAX, NITA, OTIS, SANDY</t>
+  </si>
+  <si>
+    <t>ASH, BELLE, BIBI, CARL, COLETTE, EMZ, GENE, MAX, RICO, STU, SURGE</t>
+  </si>
+  <si>
+    <t>BEA, BO, JANET, OTIS, STU, SURGE</t>
+  </si>
+  <si>
+    <t>BELLE, CARL, CHESTER, MORTIS, PENNY, PIPER, STU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BEA, BELLE, CROW, EMZ, FANG, GENE, LEON, MAX, MORTIS, RUFFS, SANDY, SQUEAK, ... </t>
+  </si>
+  <si>
+    <t>BUZZ, CARL, CHESTER, GENE, MAX, MORTIS, SPIKE, SURGE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ASH, BEA, BELLE, BIBI, BO, BROCK, BUZZ, CARL, CHESTER, COLETTE, COLT, DARRYL, ... </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BEA, BELLE, BIBI, BO, BROCK, BUSTER, BUZZ, BYRON, CARL, CHESTER, COLETTE, CROW, ... </t>
   </si>
   <si>
     <t xml:space="preserve">8-BIT, AMBER, ASH, BARLEY, BEA, BELLE, BIBI, BO, BONNIE, BROCK, BULL, BUZZ, ... </t>
   </si>
   <si>
-    <t>BEA, BELLE, GENE, PIPER, STU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ASH, BEA, BELLE, BO, BYRON, COLETTE, FANG, JANET, MAX, MORTIS, PENNY, PIPER, ... </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ASH, BEA, BO, BONNIE, BYRON, COLETTE, CROW, EVE, FANG, GENE, GRIFF, GUS, ... </t>
-  </si>
-  <si>
-    <t xml:space="preserve">8-BIT, AMBER, ASH, BARLEY, BEA, BELLE, BIBI, BO, BONNIE, BROCK, BULL, BUSTER, ... </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ASH, BEA, BELLE, BIBI, BO, BROCK, BUZZ, CARL, COLETTE, CROW, EMZ, EVE, ... </t>
-  </si>
-  <si>
-    <t xml:space="preserve">8-BIT, BARLEY, BEA, BELLE, BO, BROCK, BYRON, CARL, COLETTE, CROW, DARRYL, EMZ, ... </t>
-  </si>
-  <si>
-    <t>ASH, BELLE, BIBI, CARL, GENE, MAX, RICO, STU, SURGE</t>
-  </si>
-  <si>
-    <t>BEA, BO, JANET, STU, SURGE</t>
-  </si>
-  <si>
-    <t>BELLE, CARL, MORTIS, PIPER, STU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BELLE, BO, BROCK, BUZZ, BYRON, CARL, CROW, DARRYL, EL PRIMO, EMZ, EVE, FANG, ... </t>
-  </si>
-  <si>
-    <t xml:space="preserve">BEA, BELLE, BUZZ, BYRON, COLETTE, COLT, CROW, EMZ, FRANK, GALE, GENE, MAX, ... </t>
-  </si>
-  <si>
-    <t>CARL, GENE, MAX, MORTIS, SPIKE, SURGE</t>
-  </si>
-  <si>
-    <t>BROCK, LEON, LOU, STU, TARA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8-BIT, AMBER, BARLEY, BEA, BELLE, BUZZ, BYRON, COLETTE, CROW, DARRYL, DYNAMIKE, EDGAR, ... </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ASH, BO, BONNIE, BROCK, BYRON, CARL, COLETTE, COLT, CROW, EVE, FANG, GALE, ... </t>
-  </si>
-  <si>
-    <t xml:space="preserve">BELLE, BO, BONNIE, BYRON, CARL, DARRYL, EVE, FANG, GALE, GENE, JANET, MAX, ... </t>
-  </si>
-  <si>
-    <t>BROCK, BYRON, CROW, LEON, MAX, PENNY, PIPER</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8-BIT, ASH, BEA, BELLE, BO, BROCK, BYRON, CARL, EMZ, GALE, GENE, GRIFF, ... </t>
-  </si>
-  <si>
-    <t xml:space="preserve">BELLE, BIBI, BO, BROCK, BUZZ, CARL, COLETTE, DARRYL, EMZ, FANG, GALE, GENE, ... </t>
+    <t xml:space="preserve">8-BIT, AMBER, ASH, BARLEY, BEA, BELLE, BIBI, BO, BONNIE, BROCK, BUZZ, BYRON, ... </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ASH, BELLE, BO, BONNIE, BROCK, BUZZ, BYRON, CARL, COLETTE, COLT, CROW, DARRYL, ... </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BELLE, BO, BONNIE, BROCK, BUSTER, BUZZ, BYRON, CARL, DARRYL, EMZ, EVE, FANG, ... </t>
+  </si>
+  <si>
+    <t>BROCK, BYRON, CROW, LEON, MAX, PENNY, PIPER, STU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8-BIT, ASH, BARLEY, BEA, BELLE, BO, BONNIE, BROCK, BYRON, CARL, COLETTE, COLT, ... </t>
   </si>
   <si>
     <t>C9 Brawler Levels</t>
   </si>
   <si>
-    <t>2022-11-25</t>
+    <t>2022-12-29</t>
   </si>
 </sst>
 </file>
@@ -727,7 +730,7 @@
   <sheetData>
     <row r="1" spans="1:45">
       <c r="A1" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -776,7 +779,7 @@
     </row>
     <row r="2" spans="1:45">
       <c r="A2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B2" s="2">
         <v>1</v>
@@ -785,7 +788,7 @@
         <v>40</v>
       </c>
       <c r="D2" s="2">
-        <v>37639</v>
+        <v>38525</v>
       </c>
       <c r="E2" s="2">
         <v>14</v>
@@ -794,16 +797,16 @@
         <v>70</v>
       </c>
       <c r="G2" s="2">
+        <v>2</v>
+      </c>
+      <c r="H2" s="2">
         <v>24</v>
       </c>
-      <c r="H2" s="2">
-        <v>9</v>
-      </c>
       <c r="I2" s="2">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:45">
@@ -849,7 +852,7 @@
         <v>40</v>
       </c>
       <c r="D4" s="2">
-        <v>37639</v>
+        <v>38525</v>
       </c>
       <c r="E4" s="2">
         <v>14</v>
@@ -858,16 +861,16 @@
         <v>70</v>
       </c>
       <c r="G4" s="2">
+        <v>2</v>
+      </c>
+      <c r="H4" s="2">
         <v>24</v>
       </c>
-      <c r="H4" s="2">
-        <v>9</v>
-      </c>
       <c r="I4" s="2">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:45">
@@ -881,13 +884,13 @@
         <v>41</v>
       </c>
       <c r="D5" s="2">
-        <v>6731</v>
+        <v>6739</v>
       </c>
       <c r="E5" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G5" s="2">
         <v>0</v>
@@ -899,7 +902,7 @@
         <v>21</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6" spans="1:45">
@@ -913,7 +916,7 @@
         <v>42</v>
       </c>
       <c r="D6" s="2">
-        <v>28985</v>
+        <v>29439</v>
       </c>
       <c r="E6" s="2">
         <v>0</v>
@@ -923,13 +926,13 @@
         <v>4</v>
       </c>
       <c r="H6" s="2">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="I6" s="2">
         <v>26</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7" spans="1:45">
@@ -943,7 +946,7 @@
         <v>43</v>
       </c>
       <c r="D7" s="2">
-        <v>49972</v>
+        <v>50853</v>
       </c>
       <c r="E7" s="2">
         <v>14</v>
@@ -955,13 +958,13 @@
         <v>14</v>
       </c>
       <c r="H7" s="2">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="I7" s="2">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="8" spans="1:45">
@@ -975,25 +978,25 @@
         <v>44</v>
       </c>
       <c r="D8" s="2">
-        <v>46065</v>
+        <v>48360</v>
       </c>
       <c r="E8" s="2">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G8" s="2">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="H8" s="2">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="I8" s="2">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="9" spans="1:45">
@@ -1007,25 +1010,25 @@
         <v>45</v>
       </c>
       <c r="D9" s="2">
-        <v>44784</v>
+        <v>33319</v>
       </c>
       <c r="E9" s="2">
+        <v>11</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G9" s="2">
         <v>15</v>
       </c>
-      <c r="F9" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="G9" s="2">
-        <v>0</v>
-      </c>
       <c r="H9" s="2">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="I9" s="2">
-        <v>41</v>
+        <v>8</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="10" spans="1:45">
@@ -1039,23 +1042,23 @@
         <v>46</v>
       </c>
       <c r="D10" s="2">
-        <v>34909</v>
+        <v>36259</v>
       </c>
       <c r="E10" s="2">
         <v>0</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="H10" s="2">
         <v>10</v>
       </c>
       <c r="I10" s="2">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="11" spans="1:45">
@@ -1069,25 +1072,25 @@
         <v>47</v>
       </c>
       <c r="D11" s="2">
-        <v>37042</v>
+        <v>38831</v>
       </c>
       <c r="E11" s="2">
         <v>9</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G11" s="2">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H11" s="2">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="I11" s="2">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="12" spans="1:45">
@@ -1101,25 +1104,25 @@
         <v>48</v>
       </c>
       <c r="D12" s="2">
-        <v>48041</v>
+        <v>51996</v>
       </c>
       <c r="E12" s="2">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="G12" s="2">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H12" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I12" s="2">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="13" spans="1:45">
@@ -1133,25 +1136,25 @@
         <v>49</v>
       </c>
       <c r="D13" s="2">
-        <v>42517</v>
+        <v>43428</v>
       </c>
       <c r="E13" s="2">
         <v>11</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H13" s="2">
         <v>0</v>
       </c>
       <c r="I13" s="2">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="14" spans="1:45">
@@ -1165,25 +1168,25 @@
         <v>50</v>
       </c>
       <c r="D14" s="2">
-        <v>32489</v>
+        <v>34584</v>
       </c>
       <c r="E14" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="G14" s="2">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H14" s="2">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="I14" s="2">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="15" spans="1:45">
@@ -1197,25 +1200,25 @@
         <v>51</v>
       </c>
       <c r="D15" s="2">
-        <v>40339</v>
+        <v>43354</v>
       </c>
       <c r="E15" s="2">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>71</v>
       </c>
       <c r="G15" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H15" s="2">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="I15" s="2">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="16" spans="1:45">
@@ -1229,25 +1232,25 @@
         <v>52</v>
       </c>
       <c r="D16" s="2">
-        <v>33613</v>
+        <v>40142</v>
       </c>
       <c r="E16" s="2">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="G16" s="2">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H16" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I16" s="2">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -1261,13 +1264,13 @@
         <v>53</v>
       </c>
       <c r="D17" s="2">
-        <v>43560</v>
+        <v>45243</v>
       </c>
       <c r="E17" s="2">
         <v>13</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="G17" s="2">
         <v>0</v>
@@ -1276,10 +1279,10 @@
         <v>0</v>
       </c>
       <c r="I17" s="2">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -1293,22 +1296,22 @@
         <v>54</v>
       </c>
       <c r="D18" s="2">
-        <v>42700</v>
+        <v>48242</v>
       </c>
       <c r="E18" s="2">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="G18" s="2">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H18" s="2">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="I18" s="2">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="J18" s="3" t="s">
         <v>93</v>
@@ -1325,22 +1328,22 @@
         <v>55</v>
       </c>
       <c r="D19" s="2">
-        <v>41642</v>
+        <v>45828</v>
       </c>
       <c r="E19" s="2">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="G19" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H19" s="2">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I19" s="2">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="J19" s="3" t="s">
         <v>94</v>
@@ -1357,22 +1360,22 @@
         <v>56</v>
       </c>
       <c r="D20" s="2">
-        <v>31706</v>
+        <v>34389</v>
       </c>
       <c r="E20" s="2">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="G20" s="2">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H20" s="2">
+        <v>18</v>
+      </c>
+      <c r="I20" s="2">
         <v>11</v>
-      </c>
-      <c r="I20" s="2">
-        <v>9</v>
       </c>
       <c r="J20" s="3" t="s">
         <v>95</v>
@@ -1383,28 +1386,28 @@
         <v>27</v>
       </c>
       <c r="B21" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>57</v>
       </c>
       <c r="D21" s="2">
-        <v>21837</v>
+        <v>33670</v>
       </c>
       <c r="E21" s="2">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G21" s="2">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H21" s="2">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="I21" s="2">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="J21" s="3" t="s">
         <v>96</v>
@@ -1421,22 +1424,22 @@
         <v>58</v>
       </c>
       <c r="D22" s="2">
-        <v>37628</v>
+        <v>23982</v>
       </c>
       <c r="E22" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="G22" s="2">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="H22" s="2">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="I22" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J22" s="3" t="s">
         <v>97</v>
@@ -1453,22 +1456,22 @@
         <v>59</v>
       </c>
       <c r="D23" s="2">
-        <v>38452</v>
+        <v>40847</v>
       </c>
       <c r="E23" s="2">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G23" s="2">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="H23" s="2">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="I23" s="2">
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="J23" s="3" t="s">
         <v>98</v>
@@ -1479,28 +1482,28 @@
         <v>30</v>
       </c>
       <c r="B24" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>60</v>
       </c>
       <c r="D24" s="2">
-        <v>31513</v>
+        <v>49248</v>
       </c>
       <c r="E24" s="2">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G24" s="2">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="H24" s="2">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="I24" s="2">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="J24" s="3" t="s">
         <v>99</v>
@@ -1517,22 +1520,22 @@
         <v>61</v>
       </c>
       <c r="D25" s="2">
-        <v>41356</v>
+        <v>45221</v>
       </c>
       <c r="E25" s="2">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="G25" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H25" s="2">
         <v>27</v>
       </c>
       <c r="I25" s="2">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J25" s="3" t="s">
         <v>100</v>
@@ -1549,20 +1552,22 @@
         <v>62</v>
       </c>
       <c r="D26" s="2">
-        <v>15529</v>
+        <v>49800</v>
       </c>
       <c r="E26" s="2">
-        <v>0</v>
-      </c>
-      <c r="F26" s="2"/>
+        <v>12</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>78</v>
+      </c>
       <c r="G26" s="2">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="H26" s="2">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="I26" s="2">
-        <v>5</v>
+        <v>34</v>
       </c>
       <c r="J26" s="3" t="s">
         <v>101</v>
@@ -1573,31 +1578,31 @@
         <v>33</v>
       </c>
       <c r="B27" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>63</v>
       </c>
       <c r="D27" s="2">
-        <v>35070</v>
+        <v>40220</v>
       </c>
       <c r="E27" s="2">
         <v>11</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G27" s="2">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="H27" s="2">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="I27" s="2">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="J27" s="3" t="s">
-        <v>88</v>
+        <v>102</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -1611,25 +1616,25 @@
         <v>64</v>
       </c>
       <c r="D28" s="2">
-        <v>38425</v>
+        <v>35136</v>
       </c>
       <c r="E28" s="2">
         <v>11</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G28" s="2">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="H28" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I28" s="2">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="J28" s="3" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -1643,7 +1648,7 @@
         <v>65</v>
       </c>
       <c r="D29" s="2">
-        <v>34309</v>
+        <v>38662</v>
       </c>
       <c r="E29" s="2">
         <v>14</v>
@@ -1652,16 +1657,16 @@
         <v>70</v>
       </c>
       <c r="G29" s="2">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="H29" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I29" s="2">
-        <v>24</v>
+        <v>52</v>
       </c>
       <c r="J29" s="3" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="30" spans="1:10">
@@ -1669,31 +1674,31 @@
         <v>36</v>
       </c>
       <c r="B30" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>66</v>
       </c>
       <c r="D30" s="2">
-        <v>33590</v>
+        <v>34383</v>
       </c>
       <c r="E30" s="2">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="G30" s="2">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H30" s="2">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="I30" s="2">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="J30" s="3" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="31" spans="1:10">
@@ -1707,25 +1712,25 @@
         <v>67</v>
       </c>
       <c r="D31" s="2">
-        <v>37483</v>
+        <v>34294</v>
       </c>
       <c r="E31" s="2">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="G31" s="2">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H31" s="2">
+        <v>10</v>
+      </c>
+      <c r="I31" s="2">
         <v>32</v>
       </c>
-      <c r="I31" s="2">
-        <v>7</v>
-      </c>
       <c r="J31" s="3" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="32" spans="1:10">
@@ -1739,55 +1744,57 @@
         <v>68</v>
       </c>
       <c r="D32" s="2">
-        <v>38860</v>
+        <v>38445</v>
       </c>
       <c r="E32" s="2">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="G32" s="2">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H32" s="2">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="I32" s="2">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="J32" s="3" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="33" spans="1:10">
       <c r="A33" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B33" s="2"/>
+      <c r="B33" s="2">
+        <v>10</v>
+      </c>
       <c r="C33" s="2" t="s">
         <v>69</v>
       </c>
       <c r="D33" s="2">
-        <v>47160</v>
+        <v>41665</v>
       </c>
       <c r="E33" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="G33" s="2">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="H33" s="2">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I33" s="2">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="J33" s="3" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -1795,7 +1802,7 @@
     <mergeCell ref="A1:AS1"/>
     <mergeCell ref="A2:AS2"/>
   </mergeCells>
-  <conditionalFormatting sqref="A2:H32">
+  <conditionalFormatting sqref="A2:H33">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>MOD($B2,2)=0</formula>
     </cfRule>

--- a/output/c9/c9aurac_brawler_levels_team.xlsx
+++ b/output/c9/c9aurac_brawler_levels_team.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="110">
   <si>
     <t>player</t>
   </si>
@@ -91,30 +91,30 @@
     <t>ZSilverZ</t>
   </si>
   <si>
-    <t>Ethan형사°</t>
-  </si>
-  <si>
     <t>prasanna</t>
   </si>
   <si>
     <t>❄|Vırtual ◇</t>
   </si>
   <si>
-    <t>Draku2013</t>
-  </si>
-  <si>
-    <t>Fortnite</t>
+    <t>冰Ferds ☃️</t>
+  </si>
+  <si>
+    <t>Saurav</t>
   </si>
   <si>
     <t>VS∣Daniel</t>
   </si>
   <si>
+    <t>majd✿</t>
+  </si>
+  <si>
+    <t>KaiWen</t>
+  </si>
+  <si>
     <t>SG|🔥Fire🔥</t>
   </si>
   <si>
-    <t>pigeo</t>
-  </si>
-  <si>
     <t>꧁✨やͪeͧ༒ͨ 𝖊𝖗✨꧂</t>
   </si>
   <si>
@@ -181,30 +181,30 @@
     <t>#2YQUPUYJ</t>
   </si>
   <si>
-    <t>#R82QLVQJ</t>
-  </si>
-  <si>
     <t>#Y09QC2UJQ</t>
   </si>
   <si>
     <t>#U99LR8PR</t>
   </si>
   <si>
-    <t>#2J0JQGPP</t>
+    <t>#YPRVGV8L</t>
+  </si>
+  <si>
+    <t>#U2Q9L2QU</t>
+  </si>
+  <si>
+    <t>#PCRG080</t>
   </si>
   <si>
     <t>#PY0YR2CR8</t>
   </si>
   <si>
-    <t>#PCRG080</t>
+    <t>#YUCGRY2V</t>
   </si>
   <si>
     <t>#CQ8RC802</t>
   </si>
   <si>
-    <t>#RYVGJYQ2</t>
-  </si>
-  <si>
     <t>#RQUQG8JY</t>
   </si>
   <si>
@@ -226,34 +226,31 @@
     <t>#2LQ899P82</t>
   </si>
   <si>
+    <t>Mythic I</t>
+  </si>
+  <si>
+    <t>Mythic III</t>
+  </si>
+  <si>
+    <t>Diamond I</t>
+  </si>
+  <si>
+    <t>Silver III</t>
+  </si>
+  <si>
     <t>Mythic II</t>
   </si>
   <si>
-    <t>Mythic III</t>
-  </si>
-  <si>
     <t>Diamond II</t>
   </si>
   <si>
     <t>Gold III</t>
   </si>
   <si>
-    <t>Mythic I</t>
-  </si>
-  <si>
-    <t>Legend I</t>
-  </si>
-  <si>
-    <t>Legend II</t>
-  </si>
-  <si>
-    <t>Diamond I</t>
-  </si>
-  <si>
     <t>Diamond III</t>
   </si>
   <si>
-    <t>Gold II</t>
+    <t>Gold I</t>
   </si>
   <si>
     <t xml:space="preserve">AMBER, ASH, BARLEY, BEA, BELLE, BO, BONNIE, BROCK, BYRON, CARL, COLETTE, CROW, ... </t>
@@ -274,7 +271,7 @@
     <t>BYRON, MAX, MORTIS, RICO, SPIKE, STU, TARA</t>
   </si>
   <si>
-    <t>BROCK, EMZ, EVE, GALE, SPROUT, TICK</t>
+    <t>BROCK, EMZ, EVE, GALE, ROSA, SPROUT, TICK</t>
   </si>
   <si>
     <t xml:space="preserve">AMBER, ASH, BEA, BELLE, BONNIE, BUSTER, CARL, CHESTER, COLETTE, CROW, GALE, GENE, ... </t>
@@ -286,7 +283,7 @@
     <t xml:space="preserve">8-BIT, AMBER, ASH, BARLEY, BEA, BELLE, BIBI, BO, BONNIE, BROCK, BULL, BUSTER, ... </t>
   </si>
   <si>
-    <t>BEA, BELLE, GENE, MAX, PIPER, SPIKE, STU</t>
+    <t>BEA, BELLE, GENE, GUS, MAX, PIPER, SPIKE, STU</t>
   </si>
   <si>
     <t xml:space="preserve">ASH, BEA, BELLE, BIBI, BO, BROCK, BYRON, CARL, CHESTER, COLETTE, FANG, GENE, ... </t>
@@ -298,30 +295,30 @@
     <t xml:space="preserve">8-BIT, AMBER, ASH, BEA, BELLE, BIBI, BO, BROCK, BULL, BUSTER, BUZZ, CARL, ... </t>
   </si>
   <si>
-    <t xml:space="preserve">8-BIT, BARLEY, BEA, BELLE, BO, BROCK, BUSTER, BYRON, CARL, CHESTER, COLETTE, CROW, ... </t>
-  </si>
-  <si>
     <t>BUSTER, CHESTER, EL PRIMO, EMZ, FANG, GRIFF, LOLA, MAX, NITA, OTIS, SANDY</t>
   </si>
   <si>
     <t>ASH, BELLE, BIBI, CARL, COLETTE, EMZ, GENE, MAX, RICO, STU, SURGE</t>
   </si>
   <si>
-    <t>BEA, BO, JANET, OTIS, STU, SURGE</t>
-  </si>
-  <si>
-    <t>BELLE, CARL, CHESTER, MORTIS, PENNY, PIPER, STU</t>
+    <t>BELLE, BIBI, BULL, FRANK, MAX, MORTIS, RICO, SQUEAK, STU, TARA</t>
+  </si>
+  <si>
+    <t>BEA, CARL, COLT, EMZ, GENE, JACKY, MAX, MORTIS, SURGE, TARA</t>
   </si>
   <si>
     <t xml:space="preserve">BEA, BELLE, CROW, EMZ, FANG, GENE, LEON, MAX, MORTIS, RUFFS, SANDY, SQUEAK, ... </t>
   </si>
   <si>
+    <t>BEA, BELLE, CARL, CHESTER, MORTIS, PENNY, PIPER, STU</t>
+  </si>
+  <si>
+    <t>SHELLY</t>
+  </si>
+  <si>
     <t>BUZZ, CARL, CHESTER, GENE, MAX, MORTIS, SPIKE, SURGE</t>
   </si>
   <si>
-    <t xml:space="preserve">ASH, BEA, BELLE, BIBI, BO, BROCK, BUZZ, CARL, CHESTER, COLETTE, COLT, DARRYL, ... </t>
-  </si>
-  <si>
     <t xml:space="preserve">BEA, BELLE, BIBI, BO, BROCK, BUSTER, BUZZ, BYRON, CARL, CHESTER, COLETTE, CROW, ... </t>
   </si>
   <si>
@@ -334,7 +331,7 @@
     <t xml:space="preserve">ASH, BELLE, BO, BONNIE, BROCK, BUZZ, BYRON, CARL, COLETTE, COLT, CROW, DARRYL, ... </t>
   </si>
   <si>
-    <t xml:space="preserve">BELLE, BO, BONNIE, BROCK, BUSTER, BUZZ, BYRON, CARL, DARRYL, EMZ, EVE, FANG, ... </t>
+    <t xml:space="preserve">BELLE, BO, BONNIE, BROCK, BUSTER, BUZZ, BYRON, CARL, CHESTER, DARRYL, EMZ, EVE, ... </t>
   </si>
   <si>
     <t>BROCK, BYRON, CROW, LEON, MAX, PENNY, PIPER, STU</t>
@@ -346,7 +343,7 @@
     <t>C9 Brawler Levels</t>
   </si>
   <si>
-    <t>2022-12-29</t>
+    <t>2023-01-04</t>
   </si>
 </sst>
 </file>
@@ -730,7 +727,7 @@
   <sheetData>
     <row r="1" spans="1:45">
       <c r="A1" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -779,7 +776,7 @@
     </row>
     <row r="2" spans="1:45">
       <c r="A2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B2" s="2">
         <v>1</v>
@@ -788,10 +785,10 @@
         <v>40</v>
       </c>
       <c r="D2" s="2">
-        <v>38525</v>
+        <v>38197</v>
       </c>
       <c r="E2" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>70</v>
@@ -806,7 +803,7 @@
         <v>30</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:45">
@@ -852,10 +849,10 @@
         <v>40</v>
       </c>
       <c r="D4" s="2">
-        <v>38525</v>
+        <v>38197</v>
       </c>
       <c r="E4" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>70</v>
@@ -870,7 +867,7 @@
         <v>30</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5" spans="1:45">
@@ -884,10 +881,10 @@
         <v>41</v>
       </c>
       <c r="D5" s="2">
-        <v>6739</v>
+        <v>6558</v>
       </c>
       <c r="E5" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>70</v>
@@ -902,7 +899,7 @@
         <v>21</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:45">
@@ -916,7 +913,7 @@
         <v>42</v>
       </c>
       <c r="D6" s="2">
-        <v>29439</v>
+        <v>28808</v>
       </c>
       <c r="E6" s="2">
         <v>0</v>
@@ -932,7 +929,7 @@
         <v>26</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="7" spans="1:45">
@@ -946,25 +943,23 @@
         <v>43</v>
       </c>
       <c r="D7" s="2">
-        <v>50853</v>
+        <v>49867</v>
       </c>
       <c r="E7" s="2">
-        <v>14</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>70</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F7" s="2"/>
       <c r="G7" s="2">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H7" s="2">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="I7" s="2">
         <v>32</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="8" spans="1:45">
@@ -978,7 +973,7 @@
         <v>44</v>
       </c>
       <c r="D8" s="2">
-        <v>48360</v>
+        <v>48129</v>
       </c>
       <c r="E8" s="2">
         <v>15</v>
@@ -996,7 +991,7 @@
         <v>40</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="9" spans="1:45">
@@ -1010,25 +1005,25 @@
         <v>45</v>
       </c>
       <c r="D9" s="2">
-        <v>33319</v>
+        <v>33101</v>
       </c>
       <c r="E9" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>72</v>
       </c>
       <c r="G9" s="2">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H9" s="2">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I9" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="10" spans="1:45">
@@ -1042,23 +1037,25 @@
         <v>46</v>
       </c>
       <c r="D10" s="2">
-        <v>36259</v>
+        <v>36106</v>
       </c>
       <c r="E10" s="2">
-        <v>0</v>
-      </c>
-      <c r="F10" s="2"/>
+        <v>6</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>73</v>
+      </c>
       <c r="G10" s="2">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H10" s="2">
         <v>10</v>
       </c>
       <c r="I10" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="11" spans="1:45">
@@ -1072,25 +1069,23 @@
         <v>47</v>
       </c>
       <c r="D11" s="2">
-        <v>38831</v>
+        <v>38678</v>
       </c>
       <c r="E11" s="2">
-        <v>9</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>73</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F11" s="2"/>
       <c r="G11" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H11" s="2">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I11" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="12" spans="1:45">
@@ -1104,25 +1099,25 @@
         <v>48</v>
       </c>
       <c r="D12" s="2">
-        <v>51996</v>
+        <v>50845</v>
       </c>
       <c r="E12" s="2">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G12" s="2">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H12" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I12" s="2">
         <v>21</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:45">
@@ -1136,14 +1131,12 @@
         <v>49</v>
       </c>
       <c r="D13" s="2">
-        <v>43428</v>
+        <v>42374</v>
       </c>
       <c r="E13" s="2">
-        <v>11</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>72</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F13" s="2"/>
       <c r="G13" s="2">
         <v>1</v>
       </c>
@@ -1151,10 +1144,10 @@
         <v>0</v>
       </c>
       <c r="I13" s="2">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="14" spans="1:45">
@@ -1168,25 +1161,25 @@
         <v>50</v>
       </c>
       <c r="D14" s="2">
-        <v>34584</v>
+        <v>34713</v>
       </c>
       <c r="E14" s="2">
         <v>13</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G14" s="2">
         <v>16</v>
       </c>
       <c r="H14" s="2">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I14" s="2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="15" spans="1:45">
@@ -1200,13 +1193,13 @@
         <v>51</v>
       </c>
       <c r="D15" s="2">
-        <v>43354</v>
+        <v>43562</v>
       </c>
       <c r="E15" s="2">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="G15" s="2">
         <v>11</v>
@@ -1218,7 +1211,7 @@
         <v>27</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="16" spans="1:45">
@@ -1232,25 +1225,25 @@
         <v>52</v>
       </c>
       <c r="D16" s="2">
-        <v>40142</v>
+        <v>40869</v>
       </c>
       <c r="E16" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>70</v>
       </c>
       <c r="G16" s="2">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H16" s="2">
         <v>5</v>
       </c>
       <c r="I16" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -1264,10 +1257,10 @@
         <v>53</v>
       </c>
       <c r="D17" s="2">
-        <v>45243</v>
+        <v>45367</v>
       </c>
       <c r="E17" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>74</v>
@@ -1282,7 +1275,7 @@
         <v>63</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -1296,13 +1289,13 @@
         <v>54</v>
       </c>
       <c r="D18" s="2">
-        <v>48242</v>
+        <v>49185</v>
       </c>
       <c r="E18" s="2">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G18" s="2">
         <v>5</v>
@@ -1314,7 +1307,7 @@
         <v>49</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -1328,25 +1321,25 @@
         <v>55</v>
       </c>
       <c r="D19" s="2">
-        <v>45828</v>
+        <v>35142</v>
       </c>
       <c r="E19" s="2">
+        <v>11</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="G19" s="2">
+        <v>14</v>
+      </c>
+      <c r="H19" s="2">
         <v>17</v>
       </c>
-      <c r="F19" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="G19" s="2">
+      <c r="I19" s="2">
         <v>12</v>
       </c>
-      <c r="H19" s="2">
-        <v>14</v>
-      </c>
-      <c r="I19" s="2">
-        <v>37</v>
-      </c>
       <c r="J19" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -1360,25 +1353,25 @@
         <v>56</v>
       </c>
       <c r="D20" s="2">
-        <v>34389</v>
+        <v>34097</v>
       </c>
       <c r="E20" s="2">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="G20" s="2">
+        <v>12</v>
+      </c>
+      <c r="H20" s="2">
         <v>13</v>
-      </c>
-      <c r="H20" s="2">
-        <v>18</v>
       </c>
       <c r="I20" s="2">
         <v>11</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -1392,25 +1385,25 @@
         <v>57</v>
       </c>
       <c r="D21" s="2">
-        <v>33670</v>
+        <v>35749</v>
       </c>
       <c r="E21" s="2">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="G21" s="2">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="H21" s="2">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="I21" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -1424,25 +1417,23 @@
         <v>58</v>
       </c>
       <c r="D22" s="2">
-        <v>23982</v>
+        <v>34843</v>
       </c>
       <c r="E22" s="2">
-        <v>12</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>78</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F22" s="2"/>
       <c r="G22" s="2">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="H22" s="2">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="I22" s="2">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -1456,25 +1447,25 @@
         <v>59</v>
       </c>
       <c r="D23" s="2">
-        <v>40847</v>
+        <v>49820</v>
       </c>
       <c r="E23" s="2">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="G23" s="2">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="H23" s="2">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="I23" s="2">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -1488,25 +1479,25 @@
         <v>60</v>
       </c>
       <c r="D24" s="2">
-        <v>49248</v>
+        <v>40895</v>
       </c>
       <c r="E24" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>74</v>
       </c>
       <c r="G24" s="2">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="H24" s="2">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="I24" s="2">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="J24" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -1520,25 +1511,23 @@
         <v>61</v>
       </c>
       <c r="D25" s="2">
-        <v>45221</v>
+        <v>35940</v>
       </c>
       <c r="E25" s="2">
+        <v>0</v>
+      </c>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2">
+        <v>44</v>
+      </c>
+      <c r="H25" s="2">
         <v>14</v>
       </c>
-      <c r="F25" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="G25" s="2">
-        <v>3</v>
-      </c>
-      <c r="H25" s="2">
-        <v>27</v>
-      </c>
       <c r="I25" s="2">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="J25" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -1552,25 +1541,25 @@
         <v>62</v>
       </c>
       <c r="D26" s="2">
-        <v>49800</v>
+        <v>44940</v>
       </c>
       <c r="E26" s="2">
         <v>12</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G26" s="2">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="H26" s="2">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="I26" s="2">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="J26" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -1584,13 +1573,13 @@
         <v>63</v>
       </c>
       <c r="D27" s="2">
-        <v>40220</v>
+        <v>39681</v>
       </c>
       <c r="E27" s="2">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G27" s="2">
         <v>5</v>
@@ -1599,10 +1588,10 @@
         <v>18</v>
       </c>
       <c r="I27" s="2">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J27" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -1616,25 +1605,25 @@
         <v>64</v>
       </c>
       <c r="D28" s="2">
-        <v>35136</v>
+        <v>34367</v>
       </c>
       <c r="E28" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>72</v>
       </c>
       <c r="G28" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H28" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I28" s="2">
         <v>53</v>
       </c>
       <c r="J28" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -1648,14 +1637,12 @@
         <v>65</v>
       </c>
       <c r="D29" s="2">
-        <v>38662</v>
+        <v>37897</v>
       </c>
       <c r="E29" s="2">
-        <v>14</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>70</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F29" s="2"/>
       <c r="G29" s="2">
         <v>11</v>
       </c>
@@ -1666,7 +1653,7 @@
         <v>52</v>
       </c>
       <c r="J29" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="30" spans="1:10">
@@ -1680,16 +1667,14 @@
         <v>66</v>
       </c>
       <c r="D30" s="2">
-        <v>34383</v>
+        <v>33861</v>
       </c>
       <c r="E30" s="2">
-        <v>15</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>71</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F30" s="2"/>
       <c r="G30" s="2">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H30" s="2">
         <v>3</v>
@@ -1698,7 +1683,7 @@
         <v>29</v>
       </c>
       <c r="J30" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="31" spans="1:10">
@@ -1712,25 +1697,25 @@
         <v>67</v>
       </c>
       <c r="D31" s="2">
-        <v>34294</v>
+        <v>34298</v>
       </c>
       <c r="E31" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>72</v>
       </c>
       <c r="G31" s="2">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H31" s="2">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I31" s="2">
         <v>32</v>
       </c>
       <c r="J31" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="32" spans="1:10">
@@ -1744,13 +1729,13 @@
         <v>68</v>
       </c>
       <c r="D32" s="2">
-        <v>38445</v>
+        <v>38145</v>
       </c>
       <c r="E32" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G32" s="2">
         <v>18</v>
@@ -1762,7 +1747,7 @@
         <v>8</v>
       </c>
       <c r="J32" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="33" spans="1:10">
@@ -1776,25 +1761,25 @@
         <v>69</v>
       </c>
       <c r="D33" s="2">
-        <v>41665</v>
+        <v>41336</v>
       </c>
       <c r="E33" s="2">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="G33" s="2">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H33" s="2">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I33" s="2">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="J33" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>

--- a/output/c9/c9aurac_brawler_levels_team.xlsx
+++ b/output/c9/c9aurac_brawler_levels_team.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="102">
   <si>
     <t>player</t>
   </si>
@@ -94,12 +94,6 @@
     <t>prasanna</t>
   </si>
   <si>
-    <t>❄|Vırtual ◇</t>
-  </si>
-  <si>
-    <t>冰Ferds ☃️</t>
-  </si>
-  <si>
     <t>Saurav</t>
   </si>
   <si>
@@ -112,9 +106,6 @@
     <t>KaiWen</t>
   </si>
   <si>
-    <t>SG|🔥Fire🔥</t>
-  </si>
-  <si>
     <t>꧁✨やͪeͧ༒ͨ 𝖊𝖗✨꧂</t>
   </si>
   <si>
@@ -136,6 +127,9 @@
     <t>one</t>
   </si>
   <si>
+    <t>Solo Entity</t>
+  </si>
+  <si>
     <t>#CLR99L9L</t>
   </si>
   <si>
@@ -184,12 +178,6 @@
     <t>#Y09QC2UJQ</t>
   </si>
   <si>
-    <t>#U99LR8PR</t>
-  </si>
-  <si>
-    <t>#YPRVGV8L</t>
-  </si>
-  <si>
     <t>#U2Q9L2QU</t>
   </si>
   <si>
@@ -202,9 +190,6 @@
     <t>#YUCGRY2V</t>
   </si>
   <si>
-    <t>#CQ8RC802</t>
-  </si>
-  <si>
     <t>#RQUQG8JY</t>
   </si>
   <si>
@@ -226,49 +211,49 @@
     <t>#2LQ899P82</t>
   </si>
   <si>
+    <t>#CGV2R82J</t>
+  </si>
+  <si>
     <t>Mythic I</t>
   </si>
   <si>
+    <t>Mythic II</t>
+  </si>
+  <si>
+    <t>Diamond I</t>
+  </si>
+  <si>
+    <t>Gold II</t>
+  </si>
+  <si>
     <t>Mythic III</t>
   </si>
   <si>
-    <t>Diamond I</t>
-  </si>
-  <si>
-    <t>Silver III</t>
-  </si>
-  <si>
-    <t>Mythic II</t>
-  </si>
-  <si>
     <t>Diamond II</t>
   </si>
   <si>
+    <t>Diamond III</t>
+  </si>
+  <si>
     <t>Gold III</t>
   </si>
   <si>
-    <t>Diamond III</t>
-  </si>
-  <si>
-    <t>Gold I</t>
-  </si>
-  <si>
     <t xml:space="preserve">AMBER, ASH, BARLEY, BEA, BELLE, BO, BONNIE, BROCK, BYRON, CARL, COLETTE, CROW, ... </t>
   </si>
   <si>
     <t xml:space="preserve">BELLE, BIBI, BROCK, BULL, CARL, COLT, CROW, EL PRIMO, JESSIE, MAX, MORTIS, MR. P, ... </t>
   </si>
   <si>
-    <t xml:space="preserve">8-BIT, AMBER, ASH, BARLEY, BELLE, BROCK, BYRON, CARL, DARRYL, GALE, GENE, GRIFF, ... </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AMBER, BEA, BO, BUZZ, BYRON, CARL, CHESTER, COLETTE, CROW, DARRYL, DYNAMIKE, EMZ, ... </t>
+    <t xml:space="preserve">8-BIT, AMBER, ASH, BARLEY, BELLE, BO, BROCK, BYRON, CARL, CROW, DARRYL, GALE, ... </t>
+  </si>
+  <si>
+    <t xml:space="preserve">AMBER, BEA, BO, BUZZ, BYRON, CARL, CHESTER, COLETTE, CROW, DARRYL, DYNAMIKE, EL PRIMO, ... </t>
   </si>
   <si>
     <t xml:space="preserve">8-BIT, AMBER, BEA, BELLE, BIBI, BO, BONNIE, BROCK, BUSTER, BUZZ, BYRON, CARL, ... </t>
   </si>
   <si>
-    <t>BYRON, MAX, MORTIS, RICO, SPIKE, STU, TARA</t>
+    <t>BYRON, GUS, MAX, MORTIS, RICO, SPIKE, STU, TARA</t>
   </si>
   <si>
     <t>BROCK, EMZ, EVE, GALE, ROSA, SPROUT, TICK</t>
@@ -283,7 +268,7 @@
     <t xml:space="preserve">8-BIT, AMBER, ASH, BARLEY, BEA, BELLE, BIBI, BO, BONNIE, BROCK, BULL, BUSTER, ... </t>
   </si>
   <si>
-    <t>BEA, BELLE, GENE, GUS, MAX, PIPER, SPIKE, STU</t>
+    <t>BEA, BELLE, CROW, GENE, GUS, MAX, PIPER, SPIKE, STU</t>
   </si>
   <si>
     <t xml:space="preserve">ASH, BEA, BELLE, BIBI, BO, BROCK, BYRON, CARL, CHESTER, COLETTE, FANG, GENE, ... </t>
@@ -298,16 +283,10 @@
     <t>BUSTER, CHESTER, EL PRIMO, EMZ, FANG, GRIFF, LOLA, MAX, NITA, OTIS, SANDY</t>
   </si>
   <si>
-    <t>ASH, BELLE, BIBI, CARL, COLETTE, EMZ, GENE, MAX, RICO, STU, SURGE</t>
-  </si>
-  <si>
-    <t>BELLE, BIBI, BULL, FRANK, MAX, MORTIS, RICO, SQUEAK, STU, TARA</t>
-  </si>
-  <si>
     <t>BEA, CARL, COLT, EMZ, GENE, JACKY, MAX, MORTIS, SURGE, TARA</t>
   </si>
   <si>
-    <t xml:space="preserve">BEA, BELLE, CROW, EMZ, FANG, GENE, LEON, MAX, MORTIS, RUFFS, SANDY, SQUEAK, ... </t>
+    <t xml:space="preserve">BEA, BELLE, CROW, EMZ, FANG, GENE, LEON, MAX, MORTIS, PENNY, RUFFS, SANDY, ... </t>
   </si>
   <si>
     <t>BEA, BELLE, CARL, CHESTER, MORTIS, PENNY, PIPER, STU</t>
@@ -316,10 +295,7 @@
     <t>SHELLY</t>
   </si>
   <si>
-    <t>BUZZ, CARL, CHESTER, GENE, MAX, MORTIS, SPIKE, SURGE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BEA, BELLE, BIBI, BO, BROCK, BUSTER, BUZZ, BYRON, CARL, CHESTER, COLETTE, CROW, ... </t>
+    <t xml:space="preserve">ASH, BEA, BELLE, BIBI, BO, BROCK, BUSTER, BUZZ, BYRON, CARL, CHESTER, COLETTE, ... </t>
   </si>
   <si>
     <t xml:space="preserve">8-BIT, AMBER, ASH, BARLEY, BEA, BELLE, BIBI, BO, BONNIE, BROCK, BULL, BUZZ, ... </t>
@@ -334,16 +310,16 @@
     <t xml:space="preserve">BELLE, BO, BONNIE, BROCK, BUSTER, BUZZ, BYRON, CARL, CHESTER, DARRYL, EMZ, EVE, ... </t>
   </si>
   <si>
-    <t>BROCK, BYRON, CROW, LEON, MAX, PENNY, PIPER, STU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8-BIT, ASH, BARLEY, BEA, BELLE, BO, BONNIE, BROCK, BYRON, CARL, COLETTE, COLT, ... </t>
+    <t>BROCK, BYRON, CROW, LEON, MAX, PENNY, PIPER, SPIKE, STU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8-BIT, ASH, BARLEY, BEA, BELLE, BO, BONNIE, BROCK, BYRON, CARL, CHESTER, COLETTE, ... </t>
   </si>
   <si>
     <t>C9 Brawler Levels</t>
   </si>
   <si>
-    <t>2023-01-04</t>
+    <t>2023-01-11</t>
   </si>
 </sst>
 </file>
@@ -714,7 +690,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AS33"/>
+  <dimension ref="A1:AS31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -727,7 +703,7 @@
   <sheetData>
     <row r="1" spans="1:45">
       <c r="A1" s="1" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -776,34 +752,34 @@
     </row>
     <row r="2" spans="1:45">
       <c r="A2" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="B2" s="2">
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D2" s="2">
-        <v>38197</v>
+        <v>38350</v>
       </c>
       <c r="E2" s="2">
         <v>13</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="G2" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H2" s="2">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I2" s="2">
         <v>30</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:45">
@@ -846,28 +822,28 @@
         <v>1</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D4" s="2">
-        <v>38197</v>
+        <v>38350</v>
       </c>
       <c r="E4" s="2">
         <v>13</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="G4" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H4" s="2">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I4" s="2">
         <v>30</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:45">
@@ -878,7 +854,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D5" s="2">
         <v>6558</v>
@@ -887,7 +863,7 @@
         <v>13</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="G5" s="2">
         <v>0</v>
@@ -899,7 +875,7 @@
         <v>21</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6" spans="1:45">
@@ -910,10 +886,10 @@
         <v>1</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D6" s="2">
-        <v>28808</v>
+        <v>28812</v>
       </c>
       <c r="E6" s="2">
         <v>0</v>
@@ -923,13 +899,13 @@
         <v>4</v>
       </c>
       <c r="H6" s="2">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I6" s="2">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7" spans="1:45">
@@ -940,26 +916,28 @@
         <v>2</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D7" s="2">
-        <v>49867</v>
+        <v>49900</v>
       </c>
       <c r="E7" s="2">
-        <v>0</v>
-      </c>
-      <c r="F7" s="2"/>
+        <v>13</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>66</v>
+      </c>
       <c r="G7" s="2">
         <v>12</v>
       </c>
       <c r="H7" s="2">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I7" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="8" spans="1:45">
@@ -970,28 +948,28 @@
         <v>2</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D8" s="2">
-        <v>48129</v>
+        <v>48280</v>
       </c>
       <c r="E8" s="2">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="G8" s="2">
         <v>14</v>
       </c>
       <c r="H8" s="2">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I8" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="9" spans="1:45">
@@ -1002,28 +980,28 @@
         <v>2</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D9" s="2">
-        <v>33101</v>
+        <v>33166</v>
       </c>
       <c r="E9" s="2">
         <v>10</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="G9" s="2">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H9" s="2">
         <v>35</v>
       </c>
       <c r="I9" s="2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="10" spans="1:45">
@@ -1034,17 +1012,15 @@
         <v>3</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D10" s="2">
-        <v>36106</v>
+        <v>36166</v>
       </c>
       <c r="E10" s="2">
-        <v>6</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>73</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F10" s="2"/>
       <c r="G10" s="2">
         <v>37</v>
       </c>
@@ -1055,7 +1031,7 @@
         <v>7</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="11" spans="1:45">
@@ -1066,15 +1042,17 @@
         <v>3</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D11" s="2">
-        <v>38678</v>
+        <v>38829</v>
       </c>
       <c r="E11" s="2">
-        <v>0</v>
-      </c>
-      <c r="F11" s="2"/>
+        <v>8</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>69</v>
+      </c>
       <c r="G11" s="2">
         <v>7</v>
       </c>
@@ -1085,7 +1063,7 @@
         <v>32</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="12" spans="1:45">
@@ -1096,16 +1074,16 @@
         <v>3</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D12" s="2">
-        <v>50845</v>
+        <v>51244</v>
       </c>
       <c r="E12" s="2">
         <v>13</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="G12" s="2">
         <v>24</v>
@@ -1117,7 +1095,7 @@
         <v>21</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="13" spans="1:45">
@@ -1128,26 +1106,28 @@
         <v>4</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D13" s="2">
-        <v>42374</v>
+        <v>42449</v>
       </c>
       <c r="E13" s="2">
+        <v>10</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="G13" s="2">
         <v>0</v>
       </c>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2">
+      <c r="H13" s="2">
         <v>1</v>
       </c>
-      <c r="H13" s="2">
-        <v>0</v>
-      </c>
       <c r="I13" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="14" spans="1:45">
@@ -1158,28 +1138,28 @@
         <v>4</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D14" s="2">
-        <v>34713</v>
+        <v>34766</v>
       </c>
       <c r="E14" s="2">
         <v>13</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="G14" s="2">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H14" s="2">
         <v>39</v>
       </c>
       <c r="I14" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="15" spans="1:45">
@@ -1190,16 +1170,16 @@
         <v>4</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D15" s="2">
-        <v>43562</v>
+        <v>43733</v>
       </c>
       <c r="E15" s="2">
         <v>14</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="G15" s="2">
         <v>11</v>
@@ -1211,7 +1191,7 @@
         <v>27</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="16" spans="1:45">
@@ -1222,13 +1202,13 @@
         <v>5</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D16" s="2">
-        <v>40869</v>
+        <v>41118</v>
       </c>
       <c r="E16" s="2">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>70</v>
@@ -1243,7 +1223,7 @@
         <v>30</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -1254,16 +1234,16 @@
         <v>5</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D17" s="2">
-        <v>45367</v>
+        <v>45489</v>
       </c>
       <c r="E17" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="G17" s="2">
         <v>0</v>
@@ -1272,10 +1252,10 @@
         <v>0</v>
       </c>
       <c r="I17" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -1286,7 +1266,7 @@
         <v>5</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D18" s="2">
         <v>49185</v>
@@ -1295,7 +1275,7 @@
         <v>14</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="G18" s="2">
         <v>5</v>
@@ -1307,7 +1287,7 @@
         <v>49</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -1318,28 +1298,28 @@
         <v>6</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D19" s="2">
-        <v>35142</v>
+        <v>35163</v>
       </c>
       <c r="E19" s="2">
         <v>11</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="G19" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H19" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I19" s="2">
         <v>12</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -1347,31 +1327,31 @@
         <v>26</v>
       </c>
       <c r="B20" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D20" s="2">
-        <v>34097</v>
+        <v>34794</v>
       </c>
       <c r="E20" s="2">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G20" s="2">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="H20" s="2">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="I20" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -1379,31 +1359,31 @@
         <v>27</v>
       </c>
       <c r="B21" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D21" s="2">
-        <v>35749</v>
+        <v>49985</v>
       </c>
       <c r="E21" s="2">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="G21" s="2">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="H21" s="2">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="I21" s="2">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -1414,26 +1394,28 @@
         <v>7</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D22" s="2">
-        <v>34843</v>
+        <v>41035</v>
       </c>
       <c r="E22" s="2">
-        <v>0</v>
-      </c>
-      <c r="F22" s="2"/>
+        <v>14</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>67</v>
+      </c>
       <c r="G22" s="2">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="H22" s="2">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="I22" s="2">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -1441,31 +1423,31 @@
         <v>29</v>
       </c>
       <c r="B23" s="2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D23" s="2">
-        <v>49820</v>
+        <v>36067</v>
       </c>
       <c r="E23" s="2">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G23" s="2">
-        <v>9</v>
+        <v>45</v>
       </c>
       <c r="H23" s="2">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="I23" s="2">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -1473,31 +1455,31 @@
         <v>30</v>
       </c>
       <c r="B24" s="2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D24" s="2">
-        <v>40895</v>
+        <v>40005</v>
       </c>
       <c r="E24" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="G24" s="2">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="H24" s="2">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I24" s="2">
-        <v>8</v>
+        <v>39</v>
       </c>
       <c r="J24" s="3" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -1505,29 +1487,31 @@
         <v>31</v>
       </c>
       <c r="B25" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D25" s="2">
-        <v>35940</v>
+        <v>34447</v>
       </c>
       <c r="E25" s="2">
-        <v>0</v>
-      </c>
-      <c r="F25" s="2"/>
+        <v>10</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>68</v>
+      </c>
       <c r="G25" s="2">
-        <v>44</v>
+        <v>9</v>
       </c>
       <c r="H25" s="2">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="I25" s="2">
-        <v>1</v>
+        <v>54</v>
       </c>
       <c r="J25" s="3" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -1535,31 +1519,31 @@
         <v>32</v>
       </c>
       <c r="B26" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D26" s="2">
-        <v>44940</v>
+        <v>37980</v>
       </c>
       <c r="E26" s="2">
         <v>12</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="G26" s="2">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="H26" s="2">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="I26" s="2">
-        <v>8</v>
+        <v>52</v>
       </c>
       <c r="J26" s="3" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -1567,31 +1551,31 @@
         <v>33</v>
       </c>
       <c r="B27" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D27" s="2">
-        <v>39681</v>
+        <v>33976</v>
       </c>
       <c r="E27" s="2">
         <v>13</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="G27" s="2">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="H27" s="2">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="I27" s="2">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="J27" s="3" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -1599,31 +1583,31 @@
         <v>34</v>
       </c>
       <c r="B28" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D28" s="2">
-        <v>34367</v>
+        <v>34471</v>
       </c>
       <c r="E28" s="2">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>72</v>
       </c>
       <c r="G28" s="2">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="H28" s="2">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="I28" s="2">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="J28" s="3" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -1631,29 +1615,31 @@
         <v>35</v>
       </c>
       <c r="B29" s="2">
+        <v>10</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D29" s="2">
+        <v>38155</v>
+      </c>
+      <c r="E29" s="2">
         <v>9</v>
       </c>
-      <c r="C29" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="D29" s="2">
-        <v>37897</v>
-      </c>
-      <c r="E29" s="2">
-        <v>0</v>
-      </c>
-      <c r="F29" s="2"/>
+      <c r="F29" s="2" t="s">
+        <v>73</v>
+      </c>
       <c r="G29" s="2">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="H29" s="2">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="I29" s="2">
-        <v>52</v>
+        <v>9</v>
       </c>
       <c r="J29" s="3" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="30" spans="1:10">
@@ -1661,125 +1647,61 @@
         <v>36</v>
       </c>
       <c r="B30" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D30" s="2">
-        <v>33861</v>
+        <v>41346</v>
       </c>
       <c r="E30" s="2">
-        <v>0</v>
-      </c>
-      <c r="F30" s="2"/>
+        <v>12</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>72</v>
+      </c>
       <c r="G30" s="2">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="H30" s="2">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="I30" s="2">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="J30" s="3" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="31" spans="1:10">
       <c r="A31" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B31" s="2">
-        <v>10</v>
-      </c>
+      <c r="B31" s="2"/>
       <c r="C31" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D31" s="2">
-        <v>34298</v>
+        <v>50486</v>
       </c>
       <c r="E31" s="2">
         <v>10</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="G31" s="2">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="H31" s="2">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="I31" s="2">
-        <v>32</v>
+        <v>63</v>
       </c>
       <c r="J31" s="3" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10">
-      <c r="A32" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B32" s="2">
-        <v>10</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="D32" s="2">
-        <v>38145</v>
-      </c>
-      <c r="E32" s="2">
-        <v>7</v>
-      </c>
-      <c r="F32" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="G32" s="2">
-        <v>18</v>
-      </c>
-      <c r="H32" s="2">
-        <v>37</v>
-      </c>
-      <c r="I32" s="2">
-        <v>8</v>
-      </c>
-      <c r="J32" s="3" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10">
-      <c r="A33" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B33" s="2">
-        <v>10</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="D33" s="2">
-        <v>41336</v>
-      </c>
-      <c r="E33" s="2">
-        <v>10</v>
-      </c>
-      <c r="F33" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="G33" s="2">
-        <v>6</v>
-      </c>
-      <c r="H33" s="2">
-        <v>15</v>
-      </c>
-      <c r="I33" s="2">
-        <v>43</v>
-      </c>
-      <c r="J33" s="3" t="s">
-        <v>107</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -1787,7 +1709,7 @@
     <mergeCell ref="A1:AS1"/>
     <mergeCell ref="A2:AS2"/>
   </mergeCells>
-  <conditionalFormatting sqref="A2:H33">
+  <conditionalFormatting sqref="A2:H30">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>MOD($B2,2)=0</formula>
     </cfRule>

--- a/output/c9/c9aurac_brawler_levels_team.xlsx
+++ b/output/c9/c9aurac_brawler_levels_team.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="111">
   <si>
     <t>player</t>
   </si>
@@ -73,12 +73,12 @@
     <t>Oh No! Jotaro</t>
   </si>
   <si>
-    <t>Cred</t>
-  </si>
-  <si>
     <t>DepressedRekt™</t>
   </si>
   <si>
+    <t>❄️|Frosty64💎</t>
+  </si>
+  <si>
     <t>哥本哈根大使</t>
   </si>
   <si>
@@ -91,13 +91,19 @@
     <t>ZSilverZ</t>
   </si>
   <si>
+    <t>TRB|Asakusaツ</t>
+  </si>
+  <si>
     <t>prasanna</t>
   </si>
   <si>
+    <t>💕LovedMedic💕</t>
+  </si>
+  <si>
     <t>Saurav</t>
   </si>
   <si>
-    <t>VS∣Daniel</t>
+    <t>Solo Entity</t>
   </si>
   <si>
     <t>majd✿</t>
@@ -106,6 +112,9 @@
     <t>KaiWen</t>
   </si>
   <si>
+    <t>SG|🔥Fire🔥</t>
+  </si>
+  <si>
     <t>꧁✨やͪeͧ༒ͨ 𝖊𝖗✨꧂</t>
   </si>
   <si>
@@ -127,9 +136,6 @@
     <t>one</t>
   </si>
   <si>
-    <t>Solo Entity</t>
-  </si>
-  <si>
     <t>#CLR99L9L</t>
   </si>
   <si>
@@ -157,12 +163,12 @@
     <t>#YQ0LJU2</t>
   </si>
   <si>
-    <t>#RGVL0L8V</t>
-  </si>
-  <si>
     <t>#VY9JJ9RQ</t>
   </si>
   <si>
+    <t>#PQGQJVC22</t>
+  </si>
+  <si>
     <t>#9CQURRU28</t>
   </si>
   <si>
@@ -175,13 +181,19 @@
     <t>#2YQUPUYJ</t>
   </si>
   <si>
+    <t>#PUL98YG82</t>
+  </si>
+  <si>
     <t>#Y09QC2UJQ</t>
   </si>
   <si>
+    <t>#20GCCVGPR</t>
+  </si>
+  <si>
     <t>#U2Q9L2QU</t>
   </si>
   <si>
-    <t>#PCRG080</t>
+    <t>#CGV2R82J</t>
   </si>
   <si>
     <t>#PY0YR2CR8</t>
@@ -190,6 +202,9 @@
     <t>#YUCGRY2V</t>
   </si>
   <si>
+    <t>#CQ8RC802</t>
+  </si>
+  <si>
     <t>#RQUQG8JY</t>
   </si>
   <si>
@@ -211,27 +226,30 @@
     <t>#2LQ899P82</t>
   </si>
   <si>
-    <t>#CGV2R82J</t>
-  </si>
-  <si>
     <t>Mythic I</t>
   </si>
   <si>
     <t>Mythic II</t>
   </si>
   <si>
+    <t>Gold II</t>
+  </si>
+  <si>
+    <t>Mythic III</t>
+  </si>
+  <si>
     <t>Diamond I</t>
   </si>
   <si>
-    <t>Gold II</t>
-  </si>
-  <si>
-    <t>Mythic III</t>
+    <t>Silver III</t>
   </si>
   <si>
     <t>Diamond II</t>
   </si>
   <si>
+    <t>Legend I</t>
+  </si>
+  <si>
     <t>Diamond III</t>
   </si>
   <si>
@@ -253,7 +271,7 @@
     <t xml:space="preserve">8-BIT, AMBER, BEA, BELLE, BIBI, BO, BONNIE, BROCK, BUSTER, BUZZ, BYRON, CARL, ... </t>
   </si>
   <si>
-    <t>BYRON, GUS, MAX, MORTIS, RICO, SPIKE, STU, TARA</t>
+    <t>BELLE, BYRON, CARL, GUS, MAX, MORTIS, RICO, SPIKE, STU, TARA</t>
   </si>
   <si>
     <t>BROCK, EMZ, EVE, GALE, ROSA, SPROUT, TICK</t>
@@ -265,28 +283,34 @@
     <t xml:space="preserve">8-BIT, AMBER, BEA, BELLE, BIBI, COLETTE, EMZ, GENE, GRAY, GUS, JACKY, JANET, ... </t>
   </si>
   <si>
+    <t>BEA, BELLE, CROW, GENE, GUS, MAX, PIPER, SPIKE, STU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BEA, BELLE, BIBI, BO, BONNIE, BUSTER, CHESTER, CROW, FANG, GROM, JANET, LEON, ... </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ASH, BEA, BELLE, BIBI, BO, BROCK, BUZZ, BYRON, CARL, CHESTER, COLETTE, FANG, ... </t>
+  </si>
+  <si>
+    <t xml:space="preserve">AMBER, ASH, BEA, BO, BONNIE, BUSTER, BYRON, CHESTER, COLETTE, CROW, EMZ, EVE, ... </t>
+  </si>
+  <si>
     <t xml:space="preserve">8-BIT, AMBER, ASH, BARLEY, BEA, BELLE, BIBI, BO, BONNIE, BROCK, BULL, BUSTER, ... </t>
   </si>
   <si>
-    <t>BEA, BELLE, CROW, GENE, GUS, MAX, PIPER, SPIKE, STU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ASH, BEA, BELLE, BIBI, BO, BROCK, BYRON, CARL, CHESTER, COLETTE, FANG, GENE, ... </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AMBER, ASH, BEA, BO, BONNIE, BUSTER, BYRON, CHESTER, COLETTE, CROW, EMZ, EVE, ... </t>
-  </si>
-  <si>
     <t xml:space="preserve">8-BIT, AMBER, ASH, BEA, BELLE, BIBI, BO, BROCK, BULL, BUSTER, BUZZ, CARL, ... </t>
   </si>
   <si>
+    <t xml:space="preserve">BO, BROCK, CARL, CHESTER, EMZ, EVE, FANG, GRIFF, GROM, LEON, MAX, MORTIS, ... </t>
+  </si>
+  <si>
     <t>BUSTER, CHESTER, EL PRIMO, EMZ, FANG, GRIFF, LOLA, MAX, NITA, OTIS, SANDY</t>
   </si>
   <si>
-    <t>BEA, CARL, COLT, EMZ, GENE, JACKY, MAX, MORTIS, SURGE, TARA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BEA, BELLE, CROW, EMZ, FANG, GENE, LEON, MAX, MORTIS, PENNY, RUFFS, SANDY, ... </t>
+    <t xml:space="preserve">BYRON, COLETTE, EL PRIMO, JACKY, JANET, MANDY, MORTIS, RICO, ROSA, SPIKE, STU, TARA, ... </t>
+  </si>
+  <si>
+    <t>BEA, CARL, COLT, EMZ, GENE, JACKY, MAX, MORTIS, SANDY, SURGE, TARA</t>
   </si>
   <si>
     <t>BEA, BELLE, CARL, CHESTER, MORTIS, PENNY, PIPER, STU</t>
@@ -295,6 +319,9 @@
     <t>SHELLY</t>
   </si>
   <si>
+    <t>BUZZ, CARL, CHESTER, GENE, MAX, MORTIS, SPIKE, SURGE</t>
+  </si>
+  <si>
     <t xml:space="preserve">ASH, BEA, BELLE, BIBI, BO, BROCK, BUSTER, BUZZ, BYRON, CARL, CHESTER, COLETTE, ... </t>
   </si>
   <si>
@@ -313,13 +340,13 @@
     <t>BROCK, BYRON, CROW, LEON, MAX, PENNY, PIPER, SPIKE, STU</t>
   </si>
   <si>
-    <t xml:space="preserve">8-BIT, ASH, BARLEY, BEA, BELLE, BO, BONNIE, BROCK, BYRON, CARL, CHESTER, COLETTE, ... </t>
+    <t xml:space="preserve">8-BIT, AMBER, ASH, BARLEY, BEA, BELLE, BO, BONNIE, BROCK, BYRON, CARL, CHESTER, ... </t>
   </si>
   <si>
     <t>C9 Brawler Levels</t>
   </si>
   <si>
-    <t>2023-01-11</t>
+    <t>2023-01-18</t>
   </si>
 </sst>
 </file>
@@ -690,7 +717,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AS31"/>
+  <dimension ref="A1:AS33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -703,7 +730,7 @@
   <sheetData>
     <row r="1" spans="1:45">
       <c r="A1" s="1" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -752,34 +779,34 @@
     </row>
     <row r="2" spans="1:45">
       <c r="A2" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="B2" s="2">
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D2" s="2">
-        <v>38350</v>
+        <v>38523</v>
       </c>
       <c r="E2" s="2">
         <v>13</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="G2" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H2" s="2">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I2" s="2">
         <v>30</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:45">
@@ -822,28 +849,28 @@
         <v>1</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D4" s="2">
-        <v>38350</v>
+        <v>38523</v>
       </c>
       <c r="E4" s="2">
         <v>13</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="G4" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H4" s="2">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I4" s="2">
         <v>30</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:45">
@@ -854,16 +881,16 @@
         <v>1</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D5" s="2">
         <v>6558</v>
       </c>
       <c r="E5" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="G5" s="2">
         <v>0</v>
@@ -875,7 +902,7 @@
         <v>21</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6" spans="1:45">
@@ -886,15 +913,17 @@
         <v>1</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D6" s="2">
-        <v>28812</v>
+        <v>28944</v>
       </c>
       <c r="E6" s="2">
-        <v>0</v>
-      </c>
-      <c r="F6" s="2"/>
+        <v>8</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>72</v>
+      </c>
       <c r="G6" s="2">
         <v>4</v>
       </c>
@@ -905,7 +934,7 @@
         <v>28</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7" spans="1:45">
@@ -916,16 +945,16 @@
         <v>2</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D7" s="2">
-        <v>49900</v>
+        <v>49865</v>
       </c>
       <c r="E7" s="2">
         <v>13</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="G7" s="2">
         <v>12</v>
@@ -937,7 +966,7 @@
         <v>33</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
     </row>
     <row r="8" spans="1:45">
@@ -948,28 +977,28 @@
         <v>2</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D8" s="2">
-        <v>48280</v>
+        <v>48451</v>
       </c>
       <c r="E8" s="2">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="G8" s="2">
         <v>14</v>
       </c>
       <c r="H8" s="2">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="I8" s="2">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
     </row>
     <row r="9" spans="1:45">
@@ -980,28 +1009,28 @@
         <v>2</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D9" s="2">
-        <v>33166</v>
+        <v>33331</v>
       </c>
       <c r="E9" s="2">
         <v>10</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="G9" s="2">
         <v>16</v>
       </c>
       <c r="H9" s="2">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="I9" s="2">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
     </row>
     <row r="10" spans="1:45">
@@ -1012,26 +1041,28 @@
         <v>3</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D10" s="2">
-        <v>36166</v>
+        <v>36437</v>
       </c>
       <c r="E10" s="2">
-        <v>0</v>
-      </c>
-      <c r="F10" s="2"/>
+        <v>6</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>75</v>
+      </c>
       <c r="G10" s="2">
         <v>37</v>
       </c>
       <c r="H10" s="2">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I10" s="2">
         <v>7</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
     </row>
     <row r="11" spans="1:45">
@@ -1042,17 +1073,15 @@
         <v>3</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D11" s="2">
-        <v>38829</v>
+        <v>39254</v>
       </c>
       <c r="E11" s="2">
-        <v>8</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>69</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F11" s="2"/>
       <c r="G11" s="2">
         <v>7</v>
       </c>
@@ -1060,10 +1089,10 @@
         <v>24</v>
       </c>
       <c r="I11" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
     </row>
     <row r="12" spans="1:45">
@@ -1074,16 +1103,16 @@
         <v>3</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D12" s="2">
-        <v>51244</v>
+        <v>51942</v>
       </c>
       <c r="E12" s="2">
         <v>13</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="G12" s="2">
         <v>24</v>
@@ -1092,10 +1121,10 @@
         <v>18</v>
       </c>
       <c r="I12" s="2">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
     </row>
     <row r="13" spans="1:45">
@@ -1106,28 +1135,28 @@
         <v>4</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D13" s="2">
-        <v>42449</v>
+        <v>34935</v>
       </c>
       <c r="E13" s="2">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G13" s="2">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H13" s="2">
-        <v>1</v>
+        <v>39</v>
       </c>
       <c r="I13" s="2">
-        <v>63</v>
+        <v>9</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
     </row>
     <row r="14" spans="1:45">
@@ -1138,28 +1167,28 @@
         <v>4</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D14" s="2">
-        <v>34766</v>
+        <v>36944</v>
       </c>
       <c r="E14" s="2">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="G14" s="2">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H14" s="2">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="I14" s="2">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
     </row>
     <row r="15" spans="1:45">
@@ -1170,28 +1199,28 @@
         <v>4</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D15" s="2">
-        <v>43733</v>
+        <v>44396</v>
       </c>
       <c r="E15" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="G15" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H15" s="2">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I15" s="2">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
     </row>
     <row r="16" spans="1:45">
@@ -1202,19 +1231,19 @@
         <v>5</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D16" s="2">
-        <v>41118</v>
+        <v>43234</v>
       </c>
       <c r="E16" s="2">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="G16" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H16" s="2">
         <v>5</v>
@@ -1223,7 +1252,7 @@
         <v>30</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -1234,16 +1263,16 @@
         <v>5</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D17" s="2">
-        <v>45489</v>
+        <v>46443</v>
       </c>
       <c r="E17" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="G17" s="2">
         <v>0</v>
@@ -1255,7 +1284,7 @@
         <v>64</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -1266,28 +1295,28 @@
         <v>5</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D18" s="2">
-        <v>49185</v>
+        <v>49618</v>
       </c>
       <c r="E18" s="2">
         <v>14</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="G18" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H18" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I18" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -1298,28 +1327,28 @@
         <v>6</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D19" s="2">
-        <v>35163</v>
+        <v>43457</v>
       </c>
       <c r="E19" s="2">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G19" s="2">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H19" s="2">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="I19" s="2">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -1327,31 +1356,31 @@
         <v>26</v>
       </c>
       <c r="B20" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D20" s="2">
-        <v>34794</v>
+        <v>35171</v>
       </c>
       <c r="E20" s="2">
+        <v>11</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="G20" s="2">
+        <v>13</v>
+      </c>
+      <c r="H20" s="2">
+        <v>18</v>
+      </c>
+      <c r="I20" s="2">
         <v>12</v>
       </c>
-      <c r="F20" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="G20" s="2">
-        <v>20</v>
-      </c>
-      <c r="H20" s="2">
-        <v>26</v>
-      </c>
-      <c r="I20" s="2">
-        <v>10</v>
-      </c>
       <c r="J20" s="3" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -1359,31 +1388,31 @@
         <v>27</v>
       </c>
       <c r="B21" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D21" s="2">
-        <v>49985</v>
+        <v>47053</v>
       </c>
       <c r="E21" s="2">
         <v>13</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="G21" s="2">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="H21" s="2">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="I21" s="2">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -1394,28 +1423,28 @@
         <v>7</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D22" s="2">
-        <v>41035</v>
+        <v>34936</v>
       </c>
       <c r="E22" s="2">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="G22" s="2">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="H22" s="2">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="I22" s="2">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -1423,31 +1452,31 @@
         <v>29</v>
       </c>
       <c r="B23" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D23" s="2">
-        <v>36067</v>
+        <v>50516</v>
       </c>
       <c r="E23" s="2">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G23" s="2">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="H23" s="2">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="I23" s="2">
-        <v>2</v>
+        <v>64</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -1455,31 +1484,31 @@
         <v>30</v>
       </c>
       <c r="B24" s="2">
+        <v>7</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D24" s="2">
+        <v>41012</v>
+      </c>
+      <c r="E24" s="2">
+        <v>14</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="G24" s="2">
+        <v>26</v>
+      </c>
+      <c r="H24" s="2">
+        <v>22</v>
+      </c>
+      <c r="I24" s="2">
         <v>8</v>
       </c>
-      <c r="C24" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="D24" s="2">
-        <v>40005</v>
-      </c>
-      <c r="E24" s="2">
-        <v>13</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="G24" s="2">
-        <v>5</v>
-      </c>
-      <c r="H24" s="2">
-        <v>17</v>
-      </c>
-      <c r="I24" s="2">
-        <v>39</v>
-      </c>
       <c r="J24" s="3" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -1487,31 +1516,31 @@
         <v>31</v>
       </c>
       <c r="B25" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D25" s="2">
-        <v>34447</v>
+        <v>36404</v>
       </c>
       <c r="E25" s="2">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="G25" s="2">
-        <v>9</v>
+        <v>45</v>
       </c>
       <c r="H25" s="2">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="I25" s="2">
-        <v>54</v>
+        <v>2</v>
       </c>
       <c r="J25" s="3" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -1519,31 +1548,31 @@
         <v>32</v>
       </c>
       <c r="B26" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D26" s="2">
-        <v>37980</v>
+        <v>45637</v>
       </c>
       <c r="E26" s="2">
         <v>12</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="G26" s="2">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="H26" s="2">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="I26" s="2">
-        <v>52</v>
+        <v>8</v>
       </c>
       <c r="J26" s="3" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -1551,31 +1580,31 @@
         <v>33</v>
       </c>
       <c r="B27" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D27" s="2">
-        <v>33976</v>
+        <v>40154</v>
       </c>
       <c r="E27" s="2">
         <v>13</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="G27" s="2">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="H27" s="2">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="I27" s="2">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="J27" s="3" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -1583,31 +1612,31 @@
         <v>34</v>
       </c>
       <c r="B28" s="2">
+        <v>9</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D28" s="2">
+        <v>34515</v>
+      </c>
+      <c r="E28" s="2">
         <v>10</v>
       </c>
-      <c r="C28" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="D28" s="2">
-        <v>34471</v>
-      </c>
-      <c r="E28" s="2">
-        <v>12</v>
-      </c>
       <c r="F28" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G28" s="2">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="H28" s="2">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="I28" s="2">
-        <v>32</v>
+        <v>56</v>
       </c>
       <c r="J28" s="3" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -1615,31 +1644,31 @@
         <v>35</v>
       </c>
       <c r="B29" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D29" s="2">
-        <v>38155</v>
+        <v>38078</v>
       </c>
       <c r="E29" s="2">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="G29" s="2">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="H29" s="2">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="I29" s="2">
-        <v>9</v>
+        <v>57</v>
       </c>
       <c r="J29" s="3" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
     </row>
     <row r="30" spans="1:10">
@@ -1647,61 +1676,127 @@
         <v>36</v>
       </c>
       <c r="B30" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D30" s="2">
-        <v>41346</v>
+        <v>34720</v>
       </c>
       <c r="E30" s="2">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G30" s="2">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="H30" s="2">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="I30" s="2">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="J30" s="3" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
     </row>
     <row r="31" spans="1:10">
       <c r="A31" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B31" s="2"/>
+      <c r="B31" s="2">
+        <v>10</v>
+      </c>
       <c r="C31" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D31" s="2">
-        <v>50486</v>
+        <v>34660</v>
       </c>
       <c r="E31" s="2">
+        <v>12</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="G31" s="2">
+        <v>21</v>
+      </c>
+      <c r="H31" s="2">
+        <v>11</v>
+      </c>
+      <c r="I31" s="2">
+        <v>32</v>
+      </c>
+      <c r="J31" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
+      <c r="A32" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B32" s="2">
         <v>10</v>
       </c>
-      <c r="F31" s="2" t="s">
+      <c r="C32" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="G31" s="2">
-        <v>0</v>
-      </c>
-      <c r="H31" s="2">
-        <v>1</v>
-      </c>
-      <c r="I31" s="2">
-        <v>63</v>
-      </c>
-      <c r="J31" s="3" t="s">
-        <v>83</v>
+      <c r="D32" s="2">
+        <v>38267</v>
+      </c>
+      <c r="E32" s="2">
+        <v>9</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="G32" s="2">
+        <v>19</v>
+      </c>
+      <c r="H32" s="2">
+        <v>36</v>
+      </c>
+      <c r="I32" s="2">
+        <v>9</v>
+      </c>
+      <c r="J32" s="3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
+      <c r="A33" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B33" s="2">
+        <v>10</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D33" s="2">
+        <v>41349</v>
+      </c>
+      <c r="E33" s="2">
+        <v>12</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="G33" s="2">
+        <v>6</v>
+      </c>
+      <c r="H33" s="2">
+        <v>10</v>
+      </c>
+      <c r="I33" s="2">
+        <v>48</v>
+      </c>
+      <c r="J33" s="3" t="s">
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -1709,7 +1804,7 @@
     <mergeCell ref="A1:AS1"/>
     <mergeCell ref="A2:AS2"/>
   </mergeCells>
-  <conditionalFormatting sqref="A2:H30">
+  <conditionalFormatting sqref="A2:H33">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>MOD($B2,2)=0</formula>
     </cfRule>

--- a/output/c9/c9aurac_brawler_levels_team.xlsx
+++ b/output/c9/c9aurac_brawler_levels_team.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="108">
   <si>
     <t>player</t>
   </si>
@@ -46,24 +46,24 @@
     <t>brawlers_11</t>
   </si>
   <si>
-    <t>PFCXF</t>
-  </si>
-  <si>
     <t>Sean747❤️Alexa</t>
   </si>
   <si>
+    <t>TRB|Asakusaツ</t>
+  </si>
+  <si>
     <t>VS | dragoh</t>
   </si>
   <si>
-    <t>BennyBoy_</t>
-  </si>
-  <si>
     <t>Tribe|LHC</t>
   </si>
   <si>
     <t>Zachary ϟ</t>
   </si>
   <si>
+    <t>𝓙𝓸𝔂🥀</t>
+  </si>
+  <si>
     <t>David</t>
   </si>
   <si>
@@ -73,43 +73,43 @@
     <t>Oh No! Jotaro</t>
   </si>
   <si>
+    <t>Cred</t>
+  </si>
+  <si>
     <t>DepressedRekt™</t>
   </si>
   <si>
-    <t>❄️|Frosty64💎</t>
-  </si>
-  <si>
     <t>哥本哈根大使</t>
   </si>
   <si>
-    <t>Blue</t>
-  </si>
-  <si>
     <t>Hogglific</t>
   </si>
   <si>
+    <t>Solo Entity</t>
+  </si>
+  <si>
     <t>ZSilverZ</t>
   </si>
   <si>
-    <t>TRB|Asakusaツ</t>
+    <t>VS|NINJA[¥T]</t>
   </si>
   <si>
     <t>prasanna</t>
   </si>
   <si>
-    <t>💕LovedMedic💕</t>
+    <t>ᴵᴬᴹGʀɪɴɢᴜʕ•̫͡•ʕ</t>
   </si>
   <si>
     <t>Saurav</t>
   </si>
   <si>
-    <t>Solo Entity</t>
+    <t>VS∣Daniel</t>
   </si>
   <si>
     <t>majd✿</t>
   </si>
   <si>
-    <t>KaiWen</t>
+    <t>OBL|💫Starlight</t>
   </si>
   <si>
     <t>SG|🔥Fire🔥</t>
@@ -136,24 +136,24 @@
     <t>one</t>
   </si>
   <si>
-    <t>#CLR99L9L</t>
-  </si>
-  <si>
     <t>#QYJGL9QU</t>
   </si>
   <si>
+    <t>#PUL98YG82</t>
+  </si>
+  <si>
     <t>#GC0LRQ0V</t>
   </si>
   <si>
-    <t>#2PR80P8CU</t>
-  </si>
-  <si>
     <t>#J2RLUJP2</t>
   </si>
   <si>
     <t>#RQ8RRV0Y</t>
   </si>
   <si>
+    <t>#VRU22R9Y</t>
+  </si>
+  <si>
     <t>#9UPQVRQ</t>
   </si>
   <si>
@@ -163,43 +163,43 @@
     <t>#YQ0LJU2</t>
   </si>
   <si>
+    <t>#RGVL0L8V</t>
+  </si>
+  <si>
     <t>#VY9JJ9RQ</t>
   </si>
   <si>
-    <t>#PQGQJVC22</t>
-  </si>
-  <si>
     <t>#9CQURRU28</t>
   </si>
   <si>
-    <t>#C9LR0R0V</t>
-  </si>
-  <si>
     <t>#UCY09URC</t>
   </si>
   <si>
+    <t>#CGV2R82J</t>
+  </si>
+  <si>
     <t>#2YQUPUYJ</t>
   </si>
   <si>
-    <t>#PUL98YG82</t>
+    <t>#JV9PGCUV</t>
   </si>
   <si>
     <t>#Y09QC2UJQ</t>
   </si>
   <si>
-    <t>#20GCCVGPR</t>
+    <t>#YQU8JL8YU</t>
   </si>
   <si>
     <t>#U2Q9L2QU</t>
   </si>
   <si>
-    <t>#CGV2R82J</t>
+    <t>#PCRG080</t>
   </si>
   <si>
     <t>#PY0YR2CR8</t>
   </si>
   <si>
-    <t>#YUCGRY2V</t>
+    <t>#U22LU9JR</t>
   </si>
   <si>
     <t>#CQ8RC802</t>
@@ -226,103 +226,94 @@
     <t>#2LQ899P82</t>
   </si>
   <si>
+    <t>Mythic II</t>
+  </si>
+  <si>
+    <t>Gold II</t>
+  </si>
+  <si>
+    <t>Mythic III</t>
+  </si>
+  <si>
+    <t>Masters</t>
+  </si>
+  <si>
+    <t>Silver III</t>
+  </si>
+  <si>
     <t>Mythic I</t>
   </si>
   <si>
-    <t>Mythic II</t>
-  </si>
-  <si>
-    <t>Gold II</t>
-  </si>
-  <si>
-    <t>Mythic III</t>
-  </si>
-  <si>
     <t>Diamond I</t>
   </si>
   <si>
-    <t>Silver III</t>
-  </si>
-  <si>
     <t>Diamond II</t>
   </si>
   <si>
-    <t>Legend I</t>
-  </si>
-  <si>
     <t>Diamond III</t>
   </si>
   <si>
     <t>Gold III</t>
   </si>
   <si>
-    <t xml:space="preserve">AMBER, ASH, BARLEY, BEA, BELLE, BO, BONNIE, BROCK, BYRON, CARL, COLETTE, CROW, ... </t>
-  </si>
-  <si>
     <t xml:space="preserve">BELLE, BIBI, BROCK, BULL, CARL, COLT, CROW, EL PRIMO, JESSIE, MAX, MORTIS, MR. P, ... </t>
   </si>
   <si>
-    <t xml:space="preserve">8-BIT, AMBER, ASH, BARLEY, BELLE, BO, BROCK, BYRON, CARL, CROW, DARRYL, GALE, ... </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AMBER, BEA, BO, BUZZ, BYRON, CARL, CHESTER, COLETTE, CROW, DARRYL, DYNAMIKE, EL PRIMO, ... </t>
-  </si>
-  <si>
-    <t xml:space="preserve">8-BIT, AMBER, BEA, BELLE, BIBI, BO, BONNIE, BROCK, BUSTER, BUZZ, BYRON, CARL, ... </t>
-  </si>
-  <si>
-    <t>BELLE, BYRON, CARL, GUS, MAX, MORTIS, RICO, SPIKE, STU, TARA</t>
-  </si>
-  <si>
-    <t>BROCK, EMZ, EVE, GALE, ROSA, SPROUT, TICK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AMBER, ASH, BEA, BELLE, BONNIE, BUSTER, CARL, CHESTER, COLETTE, CROW, GALE, GENE, ... </t>
+    <t xml:space="preserve">BEA, BO, BROCK, CARL, CHESTER, EMZ, EVE, FANG, GRIFF, GROM, LEON, MAX, ... </t>
+  </si>
+  <si>
+    <t xml:space="preserve">8-BIT, AMBER, ASH, BARLEY, BELLE, BO, BROCK, BYRON, CARL, COLETTE, CROW, DARRYL, ... </t>
+  </si>
+  <si>
+    <t xml:space="preserve">8-BIT, AMBER, ASH, BARLEY, BEA, BELLE, BIBI, BO, BONNIE, BROCK, BUSTER, BUZZ, ... </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BELLE, BROCK, BUZZ, BYRON, CARL, GRIFF, GUS, MANDY, MAX, MEG, MORTIS, PIPER, ... </t>
+  </si>
+  <si>
+    <t>AMBER, BUSTER, FANG, GENE, GROM, MANDY, MEG, PENNY, RICO, STU, SURGE</t>
+  </si>
+  <si>
+    <t>8-BIT, BELLE, BROCK, COLT, EMZ, EVE, GALE, LOU, NITA, ROSA, SPROUT, TICK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8-BIT, AMBER, ASH, BEA, BELLE, BONNIE, BUSTER, CARL, CHESTER, COLETTE, CROW, GALE, ... </t>
   </si>
   <si>
     <t xml:space="preserve">8-BIT, AMBER, BEA, BELLE, BIBI, COLETTE, EMZ, GENE, GRAY, GUS, JACKY, JANET, ... </t>
   </si>
   <si>
-    <t>BEA, BELLE, CROW, GENE, GUS, MAX, PIPER, SPIKE, STU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BEA, BELLE, BIBI, BO, BONNIE, BUSTER, CHESTER, CROW, FANG, GROM, JANET, LEON, ... </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ASH, BEA, BELLE, BIBI, BO, BROCK, BUZZ, BYRON, CARL, CHESTER, COLETTE, FANG, ... </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AMBER, ASH, BEA, BO, BONNIE, BUSTER, BYRON, CHESTER, COLETTE, CROW, EMZ, EVE, ... </t>
-  </si>
-  <si>
     <t xml:space="preserve">8-BIT, AMBER, ASH, BARLEY, BEA, BELLE, BIBI, BO, BONNIE, BROCK, BULL, BUSTER, ... </t>
   </si>
   <si>
-    <t xml:space="preserve">8-BIT, AMBER, ASH, BEA, BELLE, BIBI, BO, BROCK, BULL, BUSTER, BUZZ, CARL, ... </t>
-  </si>
-  <si>
-    <t xml:space="preserve">BO, BROCK, CARL, CHESTER, EMZ, EVE, FANG, GRIFF, GROM, LEON, MAX, MORTIS, ... </t>
-  </si>
-  <si>
-    <t>BUSTER, CHESTER, EL PRIMO, EMZ, FANG, GRIFF, LOLA, MAX, NITA, OTIS, SANDY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BYRON, COLETTE, EL PRIMO, JACKY, JANET, MANDY, MORTIS, RICO, ROSA, SPIKE, STU, TARA, ... </t>
+    <t>BEA, BELLE, CROW, GENE, GROM, GUS, MAX, PIPER, SPIKE, STU, TICK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ASH, BEA, BELLE, BIBI, BO, BONNIE, BROCK, BUZZ, BYRON, CARL, CHESTER, COLETTE, ... </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BEA, BIBI, BROCK, BUSTER, BUZZ, CARL, CHESTER, COLETTE, COLT, CROW, EDGAR, EL PRIMO, ... </t>
+  </si>
+  <si>
+    <t>BUSTER, CHESTER, EL PRIMO, EMZ, FANG, GRIFF, LOLA, MAX, NITA, OTIS, POCO, SANDY</t>
+  </si>
+  <si>
+    <t>BELLE, BUSTER, CARL, GALE, GENE, GRIFF, LEON, LOLA, PENNY, STU, SURGE</t>
   </si>
   <si>
     <t>BEA, CARL, COLT, EMZ, GENE, JACKY, MAX, MORTIS, SANDY, SURGE, TARA</t>
   </si>
   <si>
-    <t>BEA, BELLE, CARL, CHESTER, MORTIS, PENNY, PIPER, STU</t>
-  </si>
-  <si>
-    <t>SHELLY</t>
-  </si>
-  <si>
-    <t>BUZZ, CARL, CHESTER, GENE, MAX, MORTIS, SPIKE, SURGE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ASH, BEA, BELLE, BIBI, BO, BROCK, BUSTER, BUZZ, BYRON, CARL, CHESTER, COLETTE, ... </t>
+    <t xml:space="preserve">ASH, BEA, BELLE, BIBI, CROW, EMZ, EVE, FANG, GENE, GUS, LEON, MAX, ... </t>
+  </si>
+  <si>
+    <t>BEA, BELLE, BROCK, CARL, CHESTER, JANET, MORTIS, OTIS, PENNY, PIPER, STU</t>
+  </si>
+  <si>
+    <t>ASH, BUZZ, CARL, CHESTER, FANG, GENE, MAX, MORTIS, PIPER, RICO, SPIKE, SURGE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ASH, BEA, BELLE, BIBI, BO, BROCK, BULL, BUSTER, BUZZ, BYRON, CARL, CHESTER, ... </t>
   </si>
   <si>
     <t xml:space="preserve">8-BIT, AMBER, ASH, BARLEY, BEA, BELLE, BIBI, BO, BONNIE, BROCK, BULL, BUZZ, ... </t>
@@ -334,19 +325,19 @@
     <t xml:space="preserve">ASH, BELLE, BO, BONNIE, BROCK, BUZZ, BYRON, CARL, COLETTE, COLT, CROW, DARRYL, ... </t>
   </si>
   <si>
-    <t xml:space="preserve">BELLE, BO, BONNIE, BROCK, BUSTER, BUZZ, BYRON, CARL, CHESTER, DARRYL, EMZ, EVE, ... </t>
-  </si>
-  <si>
-    <t>BROCK, BYRON, CROW, LEON, MAX, PENNY, PIPER, SPIKE, STU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8-BIT, AMBER, ASH, BARLEY, BEA, BELLE, BO, BONNIE, BROCK, BYRON, CARL, CHESTER, ... </t>
+    <t xml:space="preserve">BEA, BELLE, BO, BONNIE, BROCK, BUSTER, BUZZ, BYRON, CARL, CHESTER, COLT, CROW, ... </t>
+  </si>
+  <si>
+    <t>BROCK, BYRON, CROW, GRIFF, LEON, MAX, PENNY, PIPER, SPIKE, STU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8-BIT, AMBER, ASH, BARLEY, BEA, BELLE, BO, BONNIE, BROCK, BULL, BUSTER, BYRON, ... </t>
   </si>
   <si>
     <t>C9 Brawler Levels</t>
   </si>
   <si>
-    <t>2023-01-18</t>
+    <t>2023-02-22</t>
   </si>
 </sst>
 </file>
@@ -730,7 +721,7 @@
   <sheetData>
     <row r="1" spans="1:45">
       <c r="A1" s="1" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -779,7 +770,7 @@
     </row>
     <row r="2" spans="1:45">
       <c r="A2" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B2" s="2">
         <v>1</v>
@@ -788,22 +779,22 @@
         <v>40</v>
       </c>
       <c r="D2" s="2">
-        <v>38523</v>
+        <v>6542</v>
       </c>
       <c r="E2" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>70</v>
       </c>
       <c r="G2" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H2" s="2">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="I2" s="2">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="J2" s="3" t="s">
         <v>80</v>
@@ -852,22 +843,22 @@
         <v>40</v>
       </c>
       <c r="D4" s="2">
-        <v>38523</v>
+        <v>6542</v>
       </c>
       <c r="E4" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>70</v>
       </c>
       <c r="G4" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H4" s="2">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="I4" s="2">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="J4" s="3" t="s">
         <v>80</v>
@@ -884,22 +875,22 @@
         <v>41</v>
       </c>
       <c r="D5" s="2">
-        <v>6558</v>
+        <v>44371</v>
       </c>
       <c r="E5" s="2">
         <v>14</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G5" s="2">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="H5" s="2">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="I5" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J5" s="3" t="s">
         <v>81</v>
@@ -916,22 +907,22 @@
         <v>42</v>
       </c>
       <c r="D6" s="2">
-        <v>28944</v>
+        <v>30089</v>
       </c>
       <c r="E6" s="2">
         <v>8</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G6" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H6" s="2">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="I6" s="2">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="J6" s="3" t="s">
         <v>82</v>
@@ -948,10 +939,10 @@
         <v>43</v>
       </c>
       <c r="D7" s="2">
-        <v>49865</v>
+        <v>49516</v>
       </c>
       <c r="E7" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>70</v>
@@ -960,10 +951,10 @@
         <v>12</v>
       </c>
       <c r="H7" s="2">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="I7" s="2">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="J7" s="3" t="s">
         <v>83</v>
@@ -980,22 +971,22 @@
         <v>44</v>
       </c>
       <c r="D8" s="2">
-        <v>48451</v>
+        <v>34110</v>
       </c>
       <c r="E8" s="2">
         <v>15</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G8" s="2">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="H8" s="2">
-        <v>4</v>
+        <v>37</v>
       </c>
       <c r="I8" s="2">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="J8" s="3" t="s">
         <v>84</v>
@@ -1012,22 +1003,22 @@
         <v>45</v>
       </c>
       <c r="D9" s="2">
-        <v>33331</v>
+        <v>24033</v>
       </c>
       <c r="E9" s="2">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G9" s="2">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="H9" s="2">
-        <v>33</v>
+        <v>1</v>
       </c>
       <c r="I9" s="2">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J9" s="3" t="s">
         <v>85</v>
@@ -1044,22 +1035,22 @@
         <v>46</v>
       </c>
       <c r="D10" s="2">
-        <v>36437</v>
+        <v>37305</v>
       </c>
       <c r="E10" s="2">
         <v>6</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G10" s="2">
         <v>37</v>
       </c>
       <c r="H10" s="2">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="I10" s="2">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="J10" s="3" t="s">
         <v>86</v>
@@ -1076,20 +1067,22 @@
         <v>47</v>
       </c>
       <c r="D11" s="2">
-        <v>39254</v>
+        <v>39866</v>
       </c>
       <c r="E11" s="2">
-        <v>0</v>
-      </c>
-      <c r="F11" s="2"/>
+        <v>8</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>71</v>
+      </c>
       <c r="G11" s="2">
         <v>7</v>
       </c>
       <c r="H11" s="2">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="I11" s="2">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="J11" s="3" t="s">
         <v>87</v>
@@ -1106,22 +1099,22 @@
         <v>48</v>
       </c>
       <c r="D12" s="2">
-        <v>51942</v>
+        <v>55951</v>
       </c>
       <c r="E12" s="2">
         <v>13</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="G12" s="2">
+        <v>17</v>
+      </c>
+      <c r="H12" s="2">
+        <v>23</v>
+      </c>
+      <c r="I12" s="2">
         <v>24</v>
-      </c>
-      <c r="H12" s="2">
-        <v>18</v>
-      </c>
-      <c r="I12" s="2">
-        <v>22</v>
       </c>
       <c r="J12" s="3" t="s">
         <v>88</v>
@@ -1138,22 +1131,22 @@
         <v>49</v>
       </c>
       <c r="D13" s="2">
-        <v>34935</v>
+        <v>42782</v>
       </c>
       <c r="E13" s="2">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="G13" s="2">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H13" s="2">
-        <v>39</v>
+        <v>1</v>
       </c>
       <c r="I13" s="2">
-        <v>9</v>
+        <v>63</v>
       </c>
       <c r="J13" s="3" t="s">
         <v>89</v>
@@ -1170,22 +1163,22 @@
         <v>50</v>
       </c>
       <c r="D14" s="2">
-        <v>36944</v>
+        <v>35936</v>
       </c>
       <c r="E14" s="2">
+        <v>14</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="G14" s="2">
+        <v>10</v>
+      </c>
+      <c r="H14" s="2">
+        <v>42</v>
+      </c>
+      <c r="I14" s="2">
         <v>11</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="G14" s="2">
-        <v>16</v>
-      </c>
-      <c r="H14" s="2">
-        <v>25</v>
-      </c>
-      <c r="I14" s="2">
-        <v>22</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>90</v>
@@ -1202,22 +1195,22 @@
         <v>51</v>
       </c>
       <c r="D15" s="2">
-        <v>44396</v>
+        <v>47833</v>
       </c>
       <c r="E15" s="2">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G15" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H15" s="2">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="I15" s="2">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="J15" s="3" t="s">
         <v>91</v>
@@ -1234,25 +1227,25 @@
         <v>52</v>
       </c>
       <c r="D16" s="2">
-        <v>43234</v>
+        <v>47408</v>
       </c>
       <c r="E16" s="2">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="G16" s="2">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="H16" s="2">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I16" s="2">
-        <v>30</v>
+        <v>64</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -1266,13 +1259,13 @@
         <v>53</v>
       </c>
       <c r="D17" s="2">
-        <v>46443</v>
+        <v>50302</v>
       </c>
       <c r="E17" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="G17" s="2">
         <v>0</v>
@@ -1284,7 +1277,7 @@
         <v>64</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -1298,25 +1291,25 @@
         <v>54</v>
       </c>
       <c r="D18" s="2">
-        <v>49618</v>
+        <v>50071</v>
       </c>
       <c r="E18" s="2">
         <v>14</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G18" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H18" s="2">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="I18" s="2">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -1330,25 +1323,25 @@
         <v>55</v>
       </c>
       <c r="D19" s="2">
-        <v>43457</v>
+        <v>44593</v>
       </c>
       <c r="E19" s="2">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="G19" s="2">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="H19" s="2">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="I19" s="2">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -1362,25 +1355,25 @@
         <v>56</v>
       </c>
       <c r="D20" s="2">
-        <v>35171</v>
+        <v>35778</v>
       </c>
       <c r="E20" s="2">
         <v>11</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G20" s="2">
         <v>13</v>
       </c>
       <c r="H20" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I20" s="2">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -1394,25 +1387,25 @@
         <v>57</v>
       </c>
       <c r="D21" s="2">
-        <v>47053</v>
+        <v>35807</v>
       </c>
       <c r="E21" s="2">
         <v>13</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="G21" s="2">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="H21" s="2">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="I21" s="2">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -1426,7 +1419,7 @@
         <v>58</v>
       </c>
       <c r="D22" s="2">
-        <v>34936</v>
+        <v>35675</v>
       </c>
       <c r="E22" s="2">
         <v>12</v>
@@ -1435,16 +1428,16 @@
         <v>78</v>
       </c>
       <c r="G22" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H22" s="2">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I22" s="2">
         <v>11</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -1458,25 +1451,25 @@
         <v>59</v>
       </c>
       <c r="D23" s="2">
-        <v>50516</v>
+        <v>56364</v>
       </c>
       <c r="E23" s="2">
         <v>13</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="G23" s="2">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H23" s="2">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="I23" s="2">
-        <v>64</v>
+        <v>21</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -1490,25 +1483,25 @@
         <v>60</v>
       </c>
       <c r="D24" s="2">
-        <v>41012</v>
+        <v>41481</v>
       </c>
       <c r="E24" s="2">
         <v>14</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G24" s="2">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H24" s="2">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I24" s="2">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="J24" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -1522,25 +1515,25 @@
         <v>61</v>
       </c>
       <c r="D25" s="2">
-        <v>36404</v>
+        <v>52277</v>
       </c>
       <c r="E25" s="2">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G25" s="2">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="H25" s="2">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="I25" s="2">
-        <v>2</v>
+        <v>64</v>
       </c>
       <c r="J25" s="3" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -1554,25 +1547,25 @@
         <v>62</v>
       </c>
       <c r="D26" s="2">
-        <v>45637</v>
+        <v>46905</v>
       </c>
       <c r="E26" s="2">
+        <v>14</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="G26" s="2">
+        <v>4</v>
+      </c>
+      <c r="H26" s="2">
+        <v>24</v>
+      </c>
+      <c r="I26" s="2">
         <v>12</v>
       </c>
-      <c r="F26" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="G26" s="2">
-        <v>5</v>
-      </c>
-      <c r="H26" s="2">
-        <v>27</v>
-      </c>
-      <c r="I26" s="2">
-        <v>8</v>
-      </c>
       <c r="J26" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -1586,25 +1579,25 @@
         <v>63</v>
       </c>
       <c r="D27" s="2">
-        <v>40154</v>
+        <v>40462</v>
       </c>
       <c r="E27" s="2">
         <v>13</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="G27" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H27" s="2">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I27" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="J27" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -1618,25 +1611,25 @@
         <v>64</v>
       </c>
       <c r="D28" s="2">
-        <v>34515</v>
+        <v>34805</v>
       </c>
       <c r="E28" s="2">
         <v>10</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G28" s="2">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H28" s="2">
         <v>1</v>
       </c>
       <c r="I28" s="2">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="J28" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -1650,7 +1643,7 @@
         <v>65</v>
       </c>
       <c r="D29" s="2">
-        <v>38078</v>
+        <v>38414</v>
       </c>
       <c r="E29" s="2">
         <v>12</v>
@@ -1668,7 +1661,7 @@
         <v>57</v>
       </c>
       <c r="J29" s="3" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="30" spans="1:10">
@@ -1682,13 +1675,13 @@
         <v>66</v>
       </c>
       <c r="D30" s="2">
-        <v>34720</v>
+        <v>36658</v>
       </c>
       <c r="E30" s="2">
         <v>13</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="G30" s="2">
         <v>28</v>
@@ -1700,7 +1693,7 @@
         <v>30</v>
       </c>
       <c r="J30" s="3" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="31" spans="1:10">
@@ -1714,7 +1707,7 @@
         <v>67</v>
       </c>
       <c r="D31" s="2">
-        <v>34660</v>
+        <v>35625</v>
       </c>
       <c r="E31" s="2">
         <v>12</v>
@@ -1723,16 +1716,16 @@
         <v>78</v>
       </c>
       <c r="G31" s="2">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="H31" s="2">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I31" s="2">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="J31" s="3" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="32" spans="1:10">
@@ -1746,7 +1739,7 @@
         <v>68</v>
       </c>
       <c r="D32" s="2">
-        <v>38267</v>
+        <v>38506</v>
       </c>
       <c r="E32" s="2">
         <v>9</v>
@@ -1758,13 +1751,13 @@
         <v>19</v>
       </c>
       <c r="H32" s="2">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I32" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J32" s="3" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="33" spans="1:10">
@@ -1778,7 +1771,7 @@
         <v>69</v>
       </c>
       <c r="D33" s="2">
-        <v>41349</v>
+        <v>42191</v>
       </c>
       <c r="E33" s="2">
         <v>12</v>
@@ -1787,16 +1780,16 @@
         <v>78</v>
       </c>
       <c r="G33" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H33" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="I33" s="2">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="J33" s="3" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>

--- a/output/c9/c9aurac_brawler_levels_team.xlsx
+++ b/output/c9/c9aurac_brawler_levels_team.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="98">
   <si>
     <t>player</t>
   </si>
@@ -82,7 +82,7 @@
     <t>哥本哈根大使</t>
   </si>
   <si>
-    <t>Hogglific</t>
+    <t>IHateThisUpdate</t>
   </si>
   <si>
     <t>Solo Entity</t>
@@ -100,12 +100,12 @@
     <t>ᴵᴬᴹGʀɪɴɢᴜʕ•̫͡•ʕ</t>
   </si>
   <si>
+    <t>Caped Baldy|💀❄</t>
+  </si>
+  <si>
     <t>Saurav</t>
   </si>
   <si>
-    <t>VS∣Daniel</t>
-  </si>
-  <si>
     <t>majd✿</t>
   </si>
   <si>
@@ -127,13 +127,13 @@
     <t>menoobenelol</t>
   </si>
   <si>
-    <t>XiXi</t>
-  </si>
-  <si>
-    <t>gkb</t>
-  </si>
-  <si>
-    <t>one</t>
+    <t>*Happy*</t>
+  </si>
+  <si>
+    <t>Staze✦</t>
+  </si>
+  <si>
+    <t>YoshioFm</t>
   </si>
   <si>
     <t>#QYJGL9QU</t>
@@ -190,12 +190,12 @@
     <t>#YQU8JL8YU</t>
   </si>
   <si>
+    <t>#80L9QRU9</t>
+  </si>
+  <si>
     <t>#U2Q9L2QU</t>
   </si>
   <si>
-    <t>#PCRG080</t>
-  </si>
-  <si>
     <t>#PY0YR2CR8</t>
   </si>
   <si>
@@ -217,49 +217,19 @@
     <t>#CP988U8Y</t>
   </si>
   <si>
-    <t>#CJ2Y202J</t>
-  </si>
-  <si>
-    <t>#J9CJGRLG</t>
-  </si>
-  <si>
-    <t>#2LQ899P82</t>
-  </si>
-  <si>
-    <t>Mythic II</t>
-  </si>
-  <si>
-    <t>Gold II</t>
-  </si>
-  <si>
-    <t>Mythic III</t>
-  </si>
-  <si>
-    <t>Masters</t>
-  </si>
-  <si>
-    <t>Silver III</t>
-  </si>
-  <si>
-    <t>Mythic I</t>
-  </si>
-  <si>
-    <t>Diamond I</t>
-  </si>
-  <si>
-    <t>Diamond II</t>
-  </si>
-  <si>
-    <t>Diamond III</t>
-  </si>
-  <si>
-    <t>Gold III</t>
+    <t>#CJRUQRGP</t>
+  </si>
+  <si>
+    <t>#V2JGGG8P</t>
+  </si>
+  <si>
+    <t>#2LV9CPC8C</t>
   </si>
   <si>
     <t xml:space="preserve">BELLE, BIBI, BROCK, BULL, CARL, COLT, CROW, EL PRIMO, JESSIE, MAX, MORTIS, MR. P, ... </t>
   </si>
   <si>
-    <t xml:space="preserve">BEA, BO, BROCK, CARL, CHESTER, EMZ, EVE, FANG, GRIFF, GROM, LEON, MAX, ... </t>
+    <t xml:space="preserve">BEA, BO, BROCK, CARL, CHESTER, DARRYL, EMZ, EVE, FANG, GRIFF, GROM, LEON, ... </t>
   </si>
   <si>
     <t xml:space="preserve">8-BIT, AMBER, ASH, BARLEY, BELLE, BO, BROCK, BYRON, CARL, COLETTE, CROW, DARRYL, ... </t>
@@ -286,13 +256,13 @@
     <t xml:space="preserve">8-BIT, AMBER, ASH, BARLEY, BEA, BELLE, BIBI, BO, BONNIE, BROCK, BULL, BUSTER, ... </t>
   </si>
   <si>
-    <t>BEA, BELLE, CROW, GENE, GROM, GUS, MAX, PIPER, SPIKE, STU, TICK</t>
+    <t xml:space="preserve">BEA, BELLE, BROCK, CROW, GENE, GROM, GUS, MAX, PAM, PIPER, SPIKE, STU, ... </t>
   </si>
   <si>
     <t xml:space="preserve">ASH, BEA, BELLE, BIBI, BO, BONNIE, BROCK, BUZZ, BYRON, CARL, CHESTER, COLETTE, ... </t>
   </si>
   <si>
-    <t xml:space="preserve">BEA, BIBI, BROCK, BUSTER, BUZZ, CARL, CHESTER, COLETTE, COLT, CROW, EDGAR, EL PRIMO, ... </t>
+    <t xml:space="preserve">BEA, BIBI, BO, BROCK, BUSTER, BUZZ, CARL, CHESTER, COLETTE, COLT, CROW, EDGAR, ... </t>
   </si>
   <si>
     <t>BUSTER, CHESTER, EL PRIMO, EMZ, FANG, GRIFF, LOLA, MAX, NITA, OTIS, POCO, SANDY</t>
@@ -301,16 +271,16 @@
     <t>BELLE, BUSTER, CARL, GALE, GENE, GRIFF, LEON, LOLA, PENNY, STU, SURGE</t>
   </si>
   <si>
+    <t xml:space="preserve">AMBER, ASH, BELLE, BO, BONNIE, BULL, BUSTER, BYRON, CARL, FANG, GALE, GENE, ... </t>
+  </si>
+  <si>
     <t>BEA, CARL, COLT, EMZ, GENE, JACKY, MAX, MORTIS, SANDY, SURGE, TARA</t>
   </si>
   <si>
-    <t xml:space="preserve">ASH, BEA, BELLE, BIBI, CROW, EMZ, EVE, FANG, GENE, GUS, LEON, MAX, ... </t>
-  </si>
-  <si>
     <t>BEA, BELLE, BROCK, CARL, CHESTER, JANET, MORTIS, OTIS, PENNY, PIPER, STU</t>
   </si>
   <si>
-    <t>ASH, BUZZ, CARL, CHESTER, FANG, GENE, MAX, MORTIS, PIPER, RICO, SPIKE, SURGE</t>
+    <t xml:space="preserve">ASH, BUZZ, CARL, CHESTER, CROW, FANG, GENE, MAX, MORTIS, PIPER, RICO, SPIKE, ... </t>
   </si>
   <si>
     <t xml:space="preserve">ASH, BEA, BELLE, BIBI, BO, BROCK, BULL, BUSTER, BUZZ, BYRON, CARL, CHESTER, ... </t>
@@ -322,22 +292,22 @@
     <t xml:space="preserve">8-BIT, AMBER, ASH, BARLEY, BEA, BELLE, BIBI, BO, BONNIE, BROCK, BUZZ, BYRON, ... </t>
   </si>
   <si>
-    <t xml:space="preserve">ASH, BELLE, BO, BONNIE, BROCK, BUZZ, BYRON, CARL, COLETTE, COLT, CROW, DARRYL, ... </t>
-  </si>
-  <si>
-    <t xml:space="preserve">BEA, BELLE, BO, BONNIE, BROCK, BUSTER, BUZZ, BYRON, CARL, CHESTER, COLT, CROW, ... </t>
-  </si>
-  <si>
-    <t>BROCK, BYRON, CROW, GRIFF, LEON, MAX, PENNY, PIPER, SPIKE, STU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8-BIT, AMBER, ASH, BARLEY, BEA, BELLE, BO, BONNIE, BROCK, BULL, BUSTER, BYRON, ... </t>
+    <t xml:space="preserve">AMBER, ASH, BELLE, BO, BONNIE, BROCK, BUZZ, BYRON, CARL, COLETTE, COLT, CROW, ... </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ASH, BEA, BO, BROCK, BULL, BUSTER, BUZZ, CARL, COLETTE, CROW, EMZ, FANG, ... </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ASH, BELLE, BIBI, BO, BONNIE, CARL, DARRYL, EMZ, FANG, GUS, JANET, LEON, ... </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BONNIE, BUSTER, BUZZ, CARL, COLT, CROW, EDGAR, EVE, FANG, GENE, GUS, JANET, ... </t>
   </si>
   <si>
     <t>C9 Brawler Levels</t>
   </si>
   <si>
-    <t>2023-02-22</t>
+    <t>2023-03-03</t>
   </si>
 </sst>
 </file>
@@ -721,7 +691,7 @@
   <sheetData>
     <row r="1" spans="1:45">
       <c r="A1" s="1" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -770,7 +740,7 @@
     </row>
     <row r="2" spans="1:45">
       <c r="A2" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="B2" s="2">
         <v>1</v>
@@ -779,14 +749,12 @@
         <v>40</v>
       </c>
       <c r="D2" s="2">
-        <v>6542</v>
+        <v>6558</v>
       </c>
       <c r="E2" s="2">
-        <v>14</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>70</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F2" s="2"/>
       <c r="G2" s="2">
         <v>0</v>
       </c>
@@ -797,7 +765,7 @@
         <v>21</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:45">
@@ -843,14 +811,12 @@
         <v>40</v>
       </c>
       <c r="D4" s="2">
-        <v>6542</v>
+        <v>6558</v>
       </c>
       <c r="E4" s="2">
-        <v>14</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>70</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F4" s="2"/>
       <c r="G4" s="2">
         <v>0</v>
       </c>
@@ -861,7 +827,7 @@
         <v>21</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:45">
@@ -875,25 +841,23 @@
         <v>41</v>
       </c>
       <c r="D5" s="2">
-        <v>44371</v>
+        <v>44662</v>
       </c>
       <c r="E5" s="2">
-        <v>14</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>70</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F5" s="2"/>
       <c r="G5" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H5" s="2">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I5" s="2">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6" spans="1:45">
@@ -907,14 +871,12 @@
         <v>42</v>
       </c>
       <c r="D6" s="2">
-        <v>30089</v>
+        <v>30321</v>
       </c>
       <c r="E6" s="2">
-        <v>8</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>71</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F6" s="2"/>
       <c r="G6" s="2">
         <v>3</v>
       </c>
@@ -925,7 +887,7 @@
         <v>32</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7" spans="1:45">
@@ -939,25 +901,23 @@
         <v>43</v>
       </c>
       <c r="D7" s="2">
-        <v>49516</v>
+        <v>49834</v>
       </c>
       <c r="E7" s="2">
-        <v>14</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>70</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F7" s="2"/>
       <c r="G7" s="2">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" s="2">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
     </row>
     <row r="8" spans="1:45">
@@ -971,16 +931,14 @@
         <v>44</v>
       </c>
       <c r="D8" s="2">
-        <v>34110</v>
+        <v>34665</v>
       </c>
       <c r="E8" s="2">
-        <v>15</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>72</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F8" s="2"/>
       <c r="G8" s="2">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H8" s="2">
         <v>37</v>
@@ -989,7 +947,7 @@
         <v>17</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
     </row>
     <row r="9" spans="1:45">
@@ -1003,16 +961,14 @@
         <v>45</v>
       </c>
       <c r="D9" s="2">
-        <v>24033</v>
+        <v>25094</v>
       </c>
       <c r="E9" s="2">
-        <v>19</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>73</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F9" s="2"/>
       <c r="G9" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H9" s="2">
         <v>1</v>
@@ -1021,7 +977,7 @@
         <v>11</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
     </row>
     <row r="10" spans="1:45">
@@ -1035,25 +991,23 @@
         <v>46</v>
       </c>
       <c r="D10" s="2">
-        <v>37305</v>
+        <v>37586</v>
       </c>
       <c r="E10" s="2">
-        <v>6</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>74</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F10" s="2"/>
       <c r="G10" s="2">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H10" s="2">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="I10" s="2">
         <v>12</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
     </row>
     <row r="11" spans="1:45">
@@ -1067,14 +1021,12 @@
         <v>47</v>
       </c>
       <c r="D11" s="2">
-        <v>39866</v>
+        <v>40007</v>
       </c>
       <c r="E11" s="2">
-        <v>8</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>71</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F11" s="2"/>
       <c r="G11" s="2">
         <v>7</v>
       </c>
@@ -1085,7 +1037,7 @@
         <v>37</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
     </row>
     <row r="12" spans="1:45">
@@ -1099,25 +1051,23 @@
         <v>48</v>
       </c>
       <c r="D12" s="2">
-        <v>55951</v>
+        <v>56764</v>
       </c>
       <c r="E12" s="2">
-        <v>13</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>75</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F12" s="2"/>
       <c r="G12" s="2">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H12" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I12" s="2">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
     </row>
     <row r="13" spans="1:45">
@@ -1131,25 +1081,23 @@
         <v>49</v>
       </c>
       <c r="D13" s="2">
-        <v>42782</v>
+        <v>42804</v>
       </c>
       <c r="E13" s="2">
-        <v>10</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>76</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F13" s="2"/>
       <c r="G13" s="2">
         <v>0</v>
       </c>
       <c r="H13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I13" s="2">
         <v>63</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
     </row>
     <row r="14" spans="1:45">
@@ -1163,25 +1111,23 @@
         <v>50</v>
       </c>
       <c r="D14" s="2">
-        <v>35936</v>
+        <v>36596</v>
       </c>
       <c r="E14" s="2">
-        <v>14</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>70</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F14" s="2"/>
       <c r="G14" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H14" s="2">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I14" s="2">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
     </row>
     <row r="15" spans="1:45">
@@ -1195,25 +1141,23 @@
         <v>51</v>
       </c>
       <c r="D15" s="2">
-        <v>47833</v>
+        <v>47801</v>
       </c>
       <c r="E15" s="2">
-        <v>15</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>72</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F15" s="2"/>
       <c r="G15" s="2">
         <v>9</v>
       </c>
       <c r="H15" s="2">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I15" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
     </row>
     <row r="16" spans="1:45">
@@ -1227,14 +1171,12 @@
         <v>52</v>
       </c>
       <c r="D16" s="2">
-        <v>47408</v>
+        <v>47440</v>
       </c>
       <c r="E16" s="2">
-        <v>14</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>70</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F16" s="2"/>
       <c r="G16" s="2">
         <v>0</v>
       </c>
@@ -1245,7 +1187,7 @@
         <v>64</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -1259,14 +1201,12 @@
         <v>53</v>
       </c>
       <c r="D17" s="2">
-        <v>50302</v>
+        <v>50228</v>
       </c>
       <c r="E17" s="2">
-        <v>13</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>75</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F17" s="2"/>
       <c r="G17" s="2">
         <v>0</v>
       </c>
@@ -1277,7 +1217,7 @@
         <v>64</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -1291,25 +1231,23 @@
         <v>54</v>
       </c>
       <c r="D18" s="2">
-        <v>50071</v>
+        <v>50177</v>
       </c>
       <c r="E18" s="2">
-        <v>14</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>70</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F18" s="2"/>
       <c r="G18" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H18" s="2">
         <v>6</v>
       </c>
       <c r="I18" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -1323,16 +1261,14 @@
         <v>55</v>
       </c>
       <c r="D19" s="2">
-        <v>44593</v>
+        <v>45226</v>
       </c>
       <c r="E19" s="2">
-        <v>11</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>77</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F19" s="2"/>
       <c r="G19" s="2">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H19" s="2">
         <v>2</v>
@@ -1341,7 +1277,7 @@
         <v>35</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -1355,14 +1291,12 @@
         <v>56</v>
       </c>
       <c r="D20" s="2">
-        <v>35778</v>
+        <v>35766</v>
       </c>
       <c r="E20" s="2">
-        <v>11</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>77</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F20" s="2"/>
       <c r="G20" s="2">
         <v>13</v>
       </c>
@@ -1370,10 +1304,10 @@
         <v>19</v>
       </c>
       <c r="I20" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -1387,14 +1321,12 @@
         <v>57</v>
       </c>
       <c r="D21" s="2">
-        <v>35807</v>
+        <v>35809</v>
       </c>
       <c r="E21" s="2">
-        <v>13</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>75</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F21" s="2"/>
       <c r="G21" s="2">
         <v>21</v>
       </c>
@@ -1405,7 +1337,7 @@
         <v>11</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -1419,25 +1351,23 @@
         <v>58</v>
       </c>
       <c r="D22" s="2">
-        <v>35675</v>
+        <v>45393</v>
       </c>
       <c r="E22" s="2">
-        <v>12</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>78</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F22" s="2"/>
       <c r="G22" s="2">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="H22" s="2">
+        <v>35</v>
+      </c>
+      <c r="I22" s="2">
         <v>28</v>
       </c>
-      <c r="I22" s="2">
-        <v>11</v>
-      </c>
       <c r="J22" s="3" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -1451,25 +1381,23 @@
         <v>59</v>
       </c>
       <c r="D23" s="2">
-        <v>56364</v>
+        <v>35847</v>
       </c>
       <c r="E23" s="2">
-        <v>13</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>75</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F23" s="2"/>
       <c r="G23" s="2">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="H23" s="2">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="I23" s="2">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -1483,16 +1411,14 @@
         <v>60</v>
       </c>
       <c r="D24" s="2">
-        <v>41481</v>
+        <v>41476</v>
       </c>
       <c r="E24" s="2">
-        <v>14</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>70</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F24" s="2"/>
       <c r="G24" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H24" s="2">
         <v>20</v>
@@ -1501,7 +1427,7 @@
         <v>11</v>
       </c>
       <c r="J24" s="3" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -1515,14 +1441,12 @@
         <v>61</v>
       </c>
       <c r="D25" s="2">
-        <v>52277</v>
+        <v>52202</v>
       </c>
       <c r="E25" s="2">
-        <v>13</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>75</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F25" s="2"/>
       <c r="G25" s="2">
         <v>0</v>
       </c>
@@ -1533,7 +1457,7 @@
         <v>64</v>
       </c>
       <c r="J25" s="3" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -1547,25 +1471,23 @@
         <v>62</v>
       </c>
       <c r="D26" s="2">
-        <v>46905</v>
+        <v>47265</v>
       </c>
       <c r="E26" s="2">
-        <v>14</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>70</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F26" s="2"/>
       <c r="G26" s="2">
         <v>4</v>
       </c>
       <c r="H26" s="2">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I26" s="2">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J26" s="3" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -1579,25 +1501,23 @@
         <v>63</v>
       </c>
       <c r="D27" s="2">
-        <v>40462</v>
+        <v>40593</v>
       </c>
       <c r="E27" s="2">
-        <v>13</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>75</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F27" s="2"/>
       <c r="G27" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H27" s="2">
         <v>16</v>
       </c>
       <c r="I27" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J27" s="3" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -1611,25 +1531,23 @@
         <v>64</v>
       </c>
       <c r="D28" s="2">
-        <v>34805</v>
+        <v>34887</v>
       </c>
       <c r="E28" s="2">
-        <v>10</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>76</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F28" s="2"/>
       <c r="G28" s="2">
         <v>6</v>
       </c>
       <c r="H28" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I28" s="2">
         <v>58</v>
       </c>
       <c r="J28" s="3" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -1643,25 +1561,23 @@
         <v>65</v>
       </c>
       <c r="D29" s="2">
-        <v>38414</v>
+        <v>38487</v>
       </c>
       <c r="E29" s="2">
-        <v>12</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>78</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F29" s="2"/>
       <c r="G29" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H29" s="2">
         <v>0</v>
       </c>
       <c r="I29" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="J29" s="3" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
     </row>
     <row r="30" spans="1:10">
@@ -1675,25 +1591,23 @@
         <v>66</v>
       </c>
       <c r="D30" s="2">
-        <v>36658</v>
+        <v>36738</v>
       </c>
       <c r="E30" s="2">
-        <v>13</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>75</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F30" s="2"/>
       <c r="G30" s="2">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H30" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I30" s="2">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="J30" s="3" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
     </row>
     <row r="31" spans="1:10">
@@ -1707,25 +1621,23 @@
         <v>67</v>
       </c>
       <c r="D31" s="2">
-        <v>35625</v>
+        <v>53360</v>
       </c>
       <c r="E31" s="2">
-        <v>12</v>
-      </c>
-      <c r="F31" s="2" t="s">
-        <v>78</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F31" s="2"/>
       <c r="G31" s="2">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="H31" s="2">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="I31" s="2">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="J31" s="3" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
     </row>
     <row r="32" spans="1:10">
@@ -1739,25 +1651,23 @@
         <v>68</v>
       </c>
       <c r="D32" s="2">
-        <v>38506</v>
+        <v>42446</v>
       </c>
       <c r="E32" s="2">
-        <v>9</v>
-      </c>
-      <c r="F32" s="2" t="s">
-        <v>79</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F32" s="2"/>
       <c r="G32" s="2">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="H32" s="2">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="I32" s="2">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="J32" s="3" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
     </row>
     <row r="33" spans="1:10">
@@ -1771,25 +1681,23 @@
         <v>69</v>
       </c>
       <c r="D33" s="2">
-        <v>42191</v>
+        <v>45729</v>
       </c>
       <c r="E33" s="2">
-        <v>12</v>
-      </c>
-      <c r="F33" s="2" t="s">
-        <v>78</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F33" s="2"/>
       <c r="G33" s="2">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="H33" s="2">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="I33" s="2">
-        <v>54</v>
+        <v>23</v>
       </c>
       <c r="J33" s="3" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>

--- a/output/c9/c9aurac_brawler_levels_team.xlsx
+++ b/output/c9/c9aurac_brawler_levels_team.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="102">
   <si>
     <t>player</t>
   </si>
@@ -100,12 +100,6 @@
     <t>ᴵᴬᴹGʀɪɴɢᴜʕ•̫͡•ʕ</t>
   </si>
   <si>
-    <t>Caped Baldy|💀❄</t>
-  </si>
-  <si>
-    <t>Saurav</t>
-  </si>
-  <si>
     <t>majd✿</t>
   </si>
   <si>
@@ -136,6 +130,9 @@
     <t>YoshioFm</t>
   </si>
   <si>
+    <t>FS | Broken</t>
+  </si>
+  <si>
     <t>#QYJGL9QU</t>
   </si>
   <si>
@@ -190,12 +187,6 @@
     <t>#YQU8JL8YU</t>
   </si>
   <si>
-    <t>#80L9QRU9</t>
-  </si>
-  <si>
-    <t>#U2Q9L2QU</t>
-  </si>
-  <si>
     <t>#PY0YR2CR8</t>
   </si>
   <si>
@@ -226,10 +217,34 @@
     <t>#2LV9CPC8C</t>
   </si>
   <si>
+    <t>#PV9LVRJ2</t>
+  </si>
+  <si>
+    <t>Diamond III</t>
+  </si>
+  <si>
+    <t>Mythic II</t>
+  </si>
+  <si>
+    <t>Legend I</t>
+  </si>
+  <si>
+    <t>Silver III</t>
+  </si>
+  <si>
+    <t>Diamond II</t>
+  </si>
+  <si>
+    <t>Mythic I</t>
+  </si>
+  <si>
+    <t>Gold III</t>
+  </si>
+  <si>
     <t xml:space="preserve">BELLE, BIBI, BROCK, BULL, CARL, COLT, CROW, EL PRIMO, JESSIE, MAX, MORTIS, MR. P, ... </t>
   </si>
   <si>
-    <t xml:space="preserve">BEA, BO, BROCK, CARL, CHESTER, DARRYL, EMZ, EVE, FANG, GRIFF, GROM, LEON, ... </t>
+    <t xml:space="preserve">BEA, BO, BROCK, CARL, CHESTER, DARRYL, EMZ, EVE, FANG, GENE, GRIFF, GROM, ... </t>
   </si>
   <si>
     <t xml:space="preserve">8-BIT, AMBER, ASH, BARLEY, BELLE, BO, BROCK, BYRON, CARL, COLETTE, CROW, DARRYL, ... </t>
@@ -244,7 +259,7 @@
     <t>AMBER, BUSTER, FANG, GENE, GROM, MANDY, MEG, PENNY, RICO, STU, SURGE</t>
   </si>
   <si>
-    <t>8-BIT, BELLE, BROCK, COLT, EMZ, EVE, GALE, LOU, NITA, ROSA, SPROUT, TICK</t>
+    <t xml:space="preserve">8-BIT, BELLE, BROCK, COLT, EMZ, EVE, GALE, LEON, LOU, NITA, ROSA, SPROUT, ... </t>
   </si>
   <si>
     <t xml:space="preserve">8-BIT, AMBER, ASH, BEA, BELLE, BONNIE, BUSTER, CARL, CHESTER, COLETTE, CROW, GALE, ... </t>
@@ -256,13 +271,13 @@
     <t xml:space="preserve">8-BIT, AMBER, ASH, BARLEY, BEA, BELLE, BIBI, BO, BONNIE, BROCK, BULL, BUSTER, ... </t>
   </si>
   <si>
-    <t xml:space="preserve">BEA, BELLE, BROCK, CROW, GENE, GROM, GUS, MAX, PAM, PIPER, SPIKE, STU, ... </t>
+    <t xml:space="preserve">BEA, BELLE, BROCK, CROW, EMZ, GENE, GROM, GUS, MAX, PAM, PIPER, SPIKE, ... </t>
   </si>
   <si>
     <t xml:space="preserve">ASH, BEA, BELLE, BIBI, BO, BONNIE, BROCK, BUZZ, BYRON, CARL, CHESTER, COLETTE, ... </t>
   </si>
   <si>
-    <t xml:space="preserve">BEA, BIBI, BO, BROCK, BUSTER, BUZZ, CARL, CHESTER, COLETTE, COLT, CROW, EDGAR, ... </t>
+    <t xml:space="preserve">BARLEY, BEA, BIBI, BO, BROCK, BUSTER, BUZZ, CARL, CHESTER, COLETTE, COLT, CROW, ... </t>
   </si>
   <si>
     <t>BUSTER, CHESTER, EL PRIMO, EMZ, FANG, GRIFF, LOLA, MAX, NITA, OTIS, POCO, SANDY</t>
@@ -271,16 +286,10 @@
     <t>BELLE, BUSTER, CARL, GALE, GENE, GRIFF, LEON, LOLA, PENNY, STU, SURGE</t>
   </si>
   <si>
-    <t xml:space="preserve">AMBER, ASH, BELLE, BO, BONNIE, BULL, BUSTER, BYRON, CARL, FANG, GALE, GENE, ... </t>
-  </si>
-  <si>
-    <t>BEA, CARL, COLT, EMZ, GENE, JACKY, MAX, MORTIS, SANDY, SURGE, TARA</t>
-  </si>
-  <si>
     <t>BEA, BELLE, BROCK, CARL, CHESTER, JANET, MORTIS, OTIS, PENNY, PIPER, STU</t>
   </si>
   <si>
-    <t xml:space="preserve">ASH, BUZZ, CARL, CHESTER, CROW, FANG, GENE, MAX, MORTIS, PIPER, RICO, SPIKE, ... </t>
+    <t xml:space="preserve">ASH, BUZZ, CARL, CHESTER, CROW, FANG, GENE, MAX, MORTIS, PIPER, POCO, RICO, ... </t>
   </si>
   <si>
     <t xml:space="preserve">ASH, BEA, BELLE, BIBI, BO, BROCK, BULL, BUSTER, BUZZ, BYRON, CARL, CHESTER, ... </t>
@@ -298,16 +307,19 @@
     <t xml:space="preserve">ASH, BEA, BO, BROCK, BULL, BUSTER, BUZZ, CARL, COLETTE, CROW, EMZ, FANG, ... </t>
   </si>
   <si>
-    <t xml:space="preserve">ASH, BELLE, BIBI, BO, BONNIE, CARL, DARRYL, EMZ, FANG, GUS, JANET, LEON, ... </t>
+    <t xml:space="preserve">8-BIT, ASH, BELLE, BIBI, BO, BONNIE, CARL, DARRYL, EMZ, EVE, FANG, GENE, ... </t>
   </si>
   <si>
     <t xml:space="preserve">BONNIE, BUSTER, BUZZ, CARL, COLT, CROW, EDGAR, EVE, FANG, GENE, GUS, JANET, ... </t>
   </si>
   <si>
+    <t xml:space="preserve">ASH, BEA, BELLE, CARL, CROW, DARRYL, DYNAMIKE, EMZ, FANG, GALE, GENE, GUS, ... </t>
+  </si>
+  <si>
     <t>C9 Brawler Levels</t>
   </si>
   <si>
-    <t>2023-03-03</t>
+    <t>2023-03-07</t>
   </si>
 </sst>
 </file>
@@ -678,7 +690,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AS33"/>
+  <dimension ref="A1:AS32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -691,7 +703,7 @@
   <sheetData>
     <row r="1" spans="1:45">
       <c r="A1" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -740,21 +752,23 @@
     </row>
     <row r="2" spans="1:45">
       <c r="A2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B2" s="2">
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D2" s="2">
-        <v>6558</v>
+        <v>6534</v>
       </c>
       <c r="E2" s="2">
-        <v>0</v>
-      </c>
-      <c r="F2" s="2"/>
+        <v>12</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>68</v>
+      </c>
       <c r="G2" s="2">
         <v>0</v>
       </c>
@@ -765,7 +779,7 @@
         <v>21</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:45">
@@ -808,15 +822,17 @@
         <v>1</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D4" s="2">
-        <v>6558</v>
+        <v>6534</v>
       </c>
       <c r="E4" s="2">
-        <v>0</v>
-      </c>
-      <c r="F4" s="2"/>
+        <v>12</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>68</v>
+      </c>
       <c r="G4" s="2">
         <v>0</v>
       </c>
@@ -827,7 +843,7 @@
         <v>21</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5" spans="1:45">
@@ -838,26 +854,28 @@
         <v>1</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D5" s="2">
-        <v>44662</v>
+        <v>44453</v>
       </c>
       <c r="E5" s="2">
-        <v>0</v>
-      </c>
-      <c r="F5" s="2"/>
+        <v>14</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>69</v>
+      </c>
       <c r="G5" s="2">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H5" s="2">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I5" s="2">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6" spans="1:45">
@@ -868,10 +886,10 @@
         <v>1</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D6" s="2">
-        <v>30321</v>
+        <v>29812</v>
       </c>
       <c r="E6" s="2">
         <v>0</v>
@@ -887,7 +905,7 @@
         <v>32</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
     </row>
     <row r="7" spans="1:45">
@@ -898,26 +916,28 @@
         <v>2</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D7" s="2">
-        <v>49834</v>
+        <v>49247</v>
       </c>
       <c r="E7" s="2">
-        <v>0</v>
-      </c>
-      <c r="F7" s="2"/>
+        <v>14</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>69</v>
+      </c>
       <c r="G7" s="2">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7" s="2">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
     </row>
     <row r="8" spans="1:45">
@@ -928,26 +948,28 @@
         <v>2</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D8" s="2">
-        <v>34665</v>
+        <v>34468</v>
       </c>
       <c r="E8" s="2">
-        <v>0</v>
-      </c>
-      <c r="F8" s="2"/>
+        <v>14</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>69</v>
+      </c>
       <c r="G8" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H8" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I8" s="2">
         <v>17</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
     </row>
     <row r="9" spans="1:45">
@@ -958,17 +980,19 @@
         <v>2</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D9" s="2">
-        <v>25094</v>
+        <v>25390</v>
       </c>
       <c r="E9" s="2">
-        <v>0</v>
-      </c>
-      <c r="F9" s="2"/>
+        <v>16</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>70</v>
+      </c>
       <c r="G9" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H9" s="2">
         <v>1</v>
@@ -977,7 +1001,7 @@
         <v>11</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
     </row>
     <row r="10" spans="1:45">
@@ -988,26 +1012,28 @@
         <v>3</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D10" s="2">
-        <v>37586</v>
+        <v>37481</v>
       </c>
       <c r="E10" s="2">
-        <v>0</v>
-      </c>
-      <c r="F10" s="2"/>
+        <v>6</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>71</v>
+      </c>
       <c r="G10" s="2">
         <v>34</v>
       </c>
       <c r="H10" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I10" s="2">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
     </row>
     <row r="11" spans="1:45">
@@ -1018,10 +1044,10 @@
         <v>3</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D11" s="2">
-        <v>40007</v>
+        <v>39675</v>
       </c>
       <c r="E11" s="2">
         <v>0</v>
@@ -1037,7 +1063,7 @@
         <v>37</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
     </row>
     <row r="12" spans="1:45">
@@ -1048,26 +1074,26 @@
         <v>3</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D12" s="2">
-        <v>56764</v>
+        <v>55360</v>
       </c>
       <c r="E12" s="2">
         <v>0</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H12" s="2">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I12" s="2">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
     </row>
     <row r="13" spans="1:45">
@@ -1078,15 +1104,17 @@
         <v>4</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D13" s="2">
-        <v>42804</v>
+        <v>41640</v>
       </c>
       <c r="E13" s="2">
-        <v>0</v>
-      </c>
-      <c r="F13" s="2"/>
+        <v>11</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>72</v>
+      </c>
       <c r="G13" s="2">
         <v>0</v>
       </c>
@@ -1097,7 +1125,7 @@
         <v>63</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
     </row>
     <row r="14" spans="1:45">
@@ -1108,26 +1136,28 @@
         <v>4</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D14" s="2">
-        <v>36596</v>
+        <v>36016</v>
       </c>
       <c r="E14" s="2">
-        <v>0</v>
-      </c>
-      <c r="F14" s="2"/>
+        <v>14</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>69</v>
+      </c>
       <c r="G14" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H14" s="2">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I14" s="2">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
     </row>
     <row r="15" spans="1:45">
@@ -1138,26 +1168,28 @@
         <v>4</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D15" s="2">
-        <v>47801</v>
+        <v>47320</v>
       </c>
       <c r="E15" s="2">
-        <v>0</v>
-      </c>
-      <c r="F15" s="2"/>
+        <v>13</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>73</v>
+      </c>
       <c r="G15" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H15" s="2">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I15" s="2">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
     </row>
     <row r="16" spans="1:45">
@@ -1168,15 +1200,17 @@
         <v>5</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D16" s="2">
-        <v>47440</v>
+        <v>47224</v>
       </c>
       <c r="E16" s="2">
-        <v>0</v>
-      </c>
-      <c r="F16" s="2"/>
+        <v>12</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>68</v>
+      </c>
       <c r="G16" s="2">
         <v>0</v>
       </c>
@@ -1187,7 +1221,7 @@
         <v>64</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -1198,15 +1232,17 @@
         <v>5</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D17" s="2">
-        <v>50228</v>
+        <v>48934</v>
       </c>
       <c r="E17" s="2">
-        <v>0</v>
-      </c>
-      <c r="F17" s="2"/>
+        <v>11</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>72</v>
+      </c>
       <c r="G17" s="2">
         <v>0</v>
       </c>
@@ -1217,7 +1253,7 @@
         <v>64</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -1228,26 +1264,28 @@
         <v>5</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D18" s="2">
-        <v>50177</v>
+        <v>49905</v>
       </c>
       <c r="E18" s="2">
-        <v>0</v>
-      </c>
-      <c r="F18" s="2"/>
+        <v>13</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>73</v>
+      </c>
       <c r="G18" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H18" s="2">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I18" s="2">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -1258,26 +1296,28 @@
         <v>6</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D19" s="2">
-        <v>45226</v>
+        <v>44953</v>
       </c>
       <c r="E19" s="2">
-        <v>0</v>
-      </c>
-      <c r="F19" s="2"/>
+        <v>11</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>72</v>
+      </c>
       <c r="G19" s="2">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H19" s="2">
         <v>2</v>
       </c>
       <c r="I19" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -1288,26 +1328,28 @@
         <v>6</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D20" s="2">
-        <v>35766</v>
+        <v>35989</v>
       </c>
       <c r="E20" s="2">
-        <v>0</v>
-      </c>
-      <c r="F20" s="2"/>
+        <v>11</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>72</v>
+      </c>
       <c r="G20" s="2">
         <v>13</v>
       </c>
       <c r="H20" s="2">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I20" s="2">
         <v>12</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -1318,10 +1360,10 @@
         <v>6</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D21" s="2">
-        <v>35809</v>
+        <v>35146</v>
       </c>
       <c r="E21" s="2">
         <v>0</v>
@@ -1337,7 +1379,7 @@
         <v>11</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -1348,26 +1390,26 @@
         <v>7</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D22" s="2">
-        <v>45393</v>
+        <v>41155</v>
       </c>
       <c r="E22" s="2">
         <v>0</v>
       </c>
       <c r="F22" s="2"/>
       <c r="G22" s="2">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="H22" s="2">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="I22" s="2">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -1375,29 +1417,31 @@
         <v>29</v>
       </c>
       <c r="B23" s="2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D23" s="2">
-        <v>35847</v>
+        <v>50985</v>
       </c>
       <c r="E23" s="2">
-        <v>0</v>
-      </c>
-      <c r="F23" s="2"/>
+        <v>14</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>69</v>
+      </c>
       <c r="G23" s="2">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="H23" s="2">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="I23" s="2">
-        <v>11</v>
+        <v>64</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -1405,29 +1449,31 @@
         <v>30</v>
       </c>
       <c r="B24" s="2">
+        <v>8</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D24" s="2">
+        <v>47105</v>
+      </c>
+      <c r="E24" s="2">
+        <v>13</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="G24" s="2">
         <v>7</v>
       </c>
-      <c r="C24" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="D24" s="2">
-        <v>41476</v>
-      </c>
-      <c r="E24" s="2">
-        <v>0</v>
-      </c>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2">
-        <v>31</v>
-      </c>
       <c r="H24" s="2">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I24" s="2">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="J24" s="3" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -1438,26 +1484,28 @@
         <v>8</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D25" s="2">
-        <v>52202</v>
+        <v>39920</v>
       </c>
       <c r="E25" s="2">
-        <v>0</v>
-      </c>
-      <c r="F25" s="2"/>
+        <v>11</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>72</v>
+      </c>
       <c r="G25" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H25" s="2">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="I25" s="2">
-        <v>64</v>
+        <v>43</v>
       </c>
       <c r="J25" s="3" t="s">
-        <v>79</v>
+        <v>92</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -1465,29 +1513,31 @@
         <v>32</v>
       </c>
       <c r="B26" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D26" s="2">
-        <v>47265</v>
+        <v>34386</v>
       </c>
       <c r="E26" s="2">
-        <v>0</v>
-      </c>
-      <c r="F26" s="2"/>
+        <v>9</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>74</v>
+      </c>
       <c r="G26" s="2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H26" s="2">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="I26" s="2">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="J26" s="3" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -1495,29 +1545,31 @@
         <v>33</v>
       </c>
       <c r="B27" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D27" s="2">
-        <v>40593</v>
+        <v>37737</v>
       </c>
       <c r="E27" s="2">
-        <v>0</v>
-      </c>
-      <c r="F27" s="2"/>
+        <v>11</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>72</v>
+      </c>
       <c r="G27" s="2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H27" s="2">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="I27" s="2">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="J27" s="3" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -1528,26 +1580,28 @@
         <v>9</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D28" s="2">
-        <v>34887</v>
+        <v>36231</v>
       </c>
       <c r="E28" s="2">
-        <v>0</v>
-      </c>
-      <c r="F28" s="2"/>
+        <v>14</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>69</v>
+      </c>
       <c r="G28" s="2">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="H28" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I28" s="2">
-        <v>58</v>
+        <v>33</v>
       </c>
       <c r="J28" s="3" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -1555,29 +1609,31 @@
         <v>35</v>
       </c>
       <c r="B29" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D29" s="2">
-        <v>38487</v>
+        <v>52669</v>
       </c>
       <c r="E29" s="2">
-        <v>0</v>
-      </c>
-      <c r="F29" s="2"/>
+        <v>14</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>69</v>
+      </c>
       <c r="G29" s="2">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H29" s="2">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="I29" s="2">
-        <v>58</v>
+        <v>31</v>
       </c>
       <c r="J29" s="3" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
     </row>
     <row r="30" spans="1:10">
@@ -1585,29 +1641,31 @@
         <v>36</v>
       </c>
       <c r="B30" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D30" s="2">
-        <v>36738</v>
+        <v>42759</v>
       </c>
       <c r="E30" s="2">
-        <v>0</v>
-      </c>
-      <c r="F30" s="2"/>
+        <v>16</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>70</v>
+      </c>
       <c r="G30" s="2">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="H30" s="2">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="I30" s="2">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="J30" s="3" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
     </row>
     <row r="31" spans="1:10">
@@ -1618,86 +1676,58 @@
         <v>10</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D31" s="2">
-        <v>53360</v>
+        <v>45301</v>
       </c>
       <c r="E31" s="2">
-        <v>0</v>
-      </c>
-      <c r="F31" s="2"/>
+        <v>13</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>73</v>
+      </c>
       <c r="G31" s="2">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="H31" s="2">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="I31" s="2">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="J31" s="3" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
     </row>
     <row r="32" spans="1:10">
       <c r="A32" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B32" s="2">
-        <v>10</v>
-      </c>
+      <c r="B32" s="2"/>
       <c r="C32" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D32" s="2">
-        <v>42446</v>
+        <v>44988</v>
       </c>
       <c r="E32" s="2">
-        <v>0</v>
-      </c>
-      <c r="F32" s="2"/>
+        <v>14</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>69</v>
+      </c>
       <c r="G32" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H32" s="2">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="I32" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J32" s="3" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10">
-      <c r="A33" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B33" s="2">
-        <v>10</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="D33" s="2">
-        <v>45729</v>
-      </c>
-      <c r="E33" s="2">
-        <v>0</v>
-      </c>
-      <c r="F33" s="2"/>
-      <c r="G33" s="2">
-        <v>16</v>
-      </c>
-      <c r="H33" s="2">
-        <v>25</v>
-      </c>
-      <c r="I33" s="2">
-        <v>23</v>
-      </c>
-      <c r="J33" s="3" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -1705,7 +1735,7 @@
     <mergeCell ref="A1:AS1"/>
     <mergeCell ref="A2:AS2"/>
   </mergeCells>
-  <conditionalFormatting sqref="A2:H33">
+  <conditionalFormatting sqref="A2:H31">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>MOD($B2,2)=0</formula>
     </cfRule>

--- a/output/c9/c9aurac_brawler_levels_team.xlsx
+++ b/output/c9/c9aurac_brawler_levels_team.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="97">
   <si>
     <t>player</t>
   </si>
@@ -82,7 +82,7 @@
     <t>哥本哈根大使</t>
   </si>
   <si>
-    <t>IHateThisUpdate</t>
+    <t>Hogglific</t>
   </si>
   <si>
     <t>Solo Entity</t>
@@ -103,9 +103,6 @@
     <t>majd✿</t>
   </si>
   <si>
-    <t>OBL|💫Starlight</t>
-  </si>
-  <si>
     <t>SG|🔥Fire🔥</t>
   </si>
   <si>
@@ -121,18 +118,15 @@
     <t>menoobenelol</t>
   </si>
   <si>
-    <t>*Happy*</t>
-  </si>
-  <si>
     <t>Staze✦</t>
   </si>
   <si>
+    <t>Terrific🎃🎃🎃</t>
+  </si>
+  <si>
     <t>YoshioFm</t>
   </si>
   <si>
-    <t>FS | Broken</t>
-  </si>
-  <si>
     <t>#QYJGL9QU</t>
   </si>
   <si>
@@ -190,9 +184,6 @@
     <t>#PY0YR2CR8</t>
   </si>
   <si>
-    <t>#U22LU9JR</t>
-  </si>
-  <si>
     <t>#CQ8RC802</t>
   </si>
   <si>
@@ -208,43 +199,40 @@
     <t>#CP988U8Y</t>
   </si>
   <si>
-    <t>#CJRUQRGP</t>
-  </si>
-  <si>
     <t>#V2JGGG8P</t>
   </si>
   <si>
+    <t>#LQL0U9VP2</t>
+  </si>
+  <si>
     <t>#2LV9CPC8C</t>
   </si>
   <si>
-    <t>#PV9LVRJ2</t>
+    <t>Mythic I</t>
+  </si>
+  <si>
+    <t>Mythic II</t>
+  </si>
+  <si>
+    <t>Mythic III</t>
+  </si>
+  <si>
+    <t>Legend I</t>
+  </si>
+  <si>
+    <t>Diamond II</t>
   </si>
   <si>
     <t>Diamond III</t>
   </si>
   <si>
-    <t>Mythic II</t>
-  </si>
-  <si>
-    <t>Legend I</t>
-  </si>
-  <si>
-    <t>Silver III</t>
-  </si>
-  <si>
-    <t>Diamond II</t>
-  </si>
-  <si>
-    <t>Mythic I</t>
-  </si>
-  <si>
     <t>Gold III</t>
   </si>
   <si>
     <t xml:space="preserve">BELLE, BIBI, BROCK, BULL, CARL, COLT, CROW, EL PRIMO, JESSIE, MAX, MORTIS, MR. P, ... </t>
   </si>
   <si>
-    <t xml:space="preserve">BEA, BO, BROCK, CARL, CHESTER, DARRYL, EMZ, EVE, FANG, GENE, GRIFF, GROM, ... </t>
+    <t xml:space="preserve">BEA, BO, BONNIE, BROCK, CARL, CHESTER, DARRYL, EMZ, EVE, FANG, GENE, GRIFF, ... </t>
   </si>
   <si>
     <t xml:space="preserve">8-BIT, AMBER, ASH, BARLEY, BELLE, BO, BROCK, BYRON, CARL, COLETTE, CROW, DARRYL, ... </t>
@@ -253,25 +241,25 @@
     <t xml:space="preserve">8-BIT, AMBER, ASH, BARLEY, BEA, BELLE, BIBI, BO, BONNIE, BROCK, BUSTER, BUZZ, ... </t>
   </si>
   <si>
-    <t xml:space="preserve">BELLE, BROCK, BUZZ, BYRON, CARL, GRIFF, GUS, MANDY, MAX, MEG, MORTIS, PIPER, ... </t>
-  </si>
-  <si>
-    <t>AMBER, BUSTER, FANG, GENE, GROM, MANDY, MEG, PENNY, RICO, STU, SURGE</t>
+    <t xml:space="preserve">BELLE, BROCK, BUZZ, BYRON, CARL, GRIFF, GUS, LOLA, MANDY, MAX, MEG, MORTIS, ... </t>
+  </si>
+  <si>
+    <t>AMBER, BUSTER, FANG, GENE, GROM, MANDY, MEG, PENNY, R-T, RICO, STU, SURGE</t>
   </si>
   <si>
     <t xml:space="preserve">8-BIT, BELLE, BROCK, COLT, EMZ, EVE, GALE, LEON, LOU, NITA, ROSA, SPROUT, ... </t>
   </si>
   <si>
-    <t xml:space="preserve">8-BIT, AMBER, ASH, BEA, BELLE, BONNIE, BUSTER, CARL, CHESTER, COLETTE, CROW, GALE, ... </t>
-  </si>
-  <si>
-    <t xml:space="preserve">8-BIT, AMBER, BEA, BELLE, BIBI, COLETTE, EMZ, GENE, GRAY, GUS, JACKY, JANET, ... </t>
+    <t xml:space="preserve">8-BIT, AMBER, ASH, BARLEY, BEA, BELLE, BONNIE, BUSTER, CARL, CHESTER, COLETTE, CROW, ... </t>
+  </si>
+  <si>
+    <t xml:space="preserve">8-BIT, AMBER, ASH, BEA, BELLE, BIBI, COLETTE, EMZ, GENE, GRAY, GRIFF, GUS, ... </t>
   </si>
   <si>
     <t xml:space="preserve">8-BIT, AMBER, ASH, BARLEY, BEA, BELLE, BIBI, BO, BONNIE, BROCK, BULL, BUSTER, ... </t>
   </si>
   <si>
-    <t xml:space="preserve">BEA, BELLE, BROCK, CROW, EMZ, GENE, GROM, GUS, MAX, PAM, PIPER, SPIKE, ... </t>
+    <t xml:space="preserve">BEA, BELLE, BROCK, CROW, EMZ, GENE, GROM, GUS, MAX, PAM, PIPER, RUFFS, ... </t>
   </si>
   <si>
     <t xml:space="preserve">ASH, BEA, BELLE, BIBI, BO, BONNIE, BROCK, BUZZ, BYRON, CARL, CHESTER, COLETTE, ... </t>
@@ -286,10 +274,10 @@
     <t>BELLE, BUSTER, CARL, GALE, GENE, GRIFF, LEON, LOLA, PENNY, STU, SURGE</t>
   </si>
   <si>
-    <t>BEA, BELLE, BROCK, CARL, CHESTER, JANET, MORTIS, OTIS, PENNY, PIPER, STU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ASH, BUZZ, CARL, CHESTER, CROW, FANG, GENE, MAX, MORTIS, PIPER, POCO, RICO, ... </t>
+    <t xml:space="preserve">BEA, BELLE, BROCK, CARL, CHESTER, GROM, JANET, MORTIS, OTIS, PENNY, PIPER, POCO, ... </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ASH, BUZZ, CARL, CHESTER, CROW, FANG, GENE, GUS, MAX, MORTIS, PENNY, PIPER, ... </t>
   </si>
   <si>
     <t xml:space="preserve">ASH, BEA, BELLE, BIBI, BO, BROCK, BULL, BUSTER, BUZZ, BYRON, CARL, CHESTER, ... </t>
@@ -304,22 +292,19 @@
     <t xml:space="preserve">AMBER, ASH, BELLE, BO, BONNIE, BROCK, BUZZ, BYRON, CARL, COLETTE, COLT, CROW, ... </t>
   </si>
   <si>
-    <t xml:space="preserve">ASH, BEA, BO, BROCK, BULL, BUSTER, BUZZ, CARL, COLETTE, CROW, EMZ, FANG, ... </t>
-  </si>
-  <si>
     <t xml:space="preserve">8-BIT, ASH, BELLE, BIBI, BO, BONNIE, CARL, DARRYL, EMZ, EVE, FANG, GENE, ... </t>
   </si>
   <si>
+    <t>BEA, CARL, COLT, JANET, POCO, RICO</t>
+  </si>
+  <si>
     <t xml:space="preserve">BONNIE, BUSTER, BUZZ, CARL, COLT, CROW, EDGAR, EVE, FANG, GENE, GUS, JANET, ... </t>
   </si>
   <si>
-    <t xml:space="preserve">ASH, BEA, BELLE, CARL, CROW, DARRYL, DYNAMIKE, EMZ, FANG, GALE, GENE, GUS, ... </t>
-  </si>
-  <si>
     <t>C9 Brawler Levels</t>
   </si>
   <si>
-    <t>2023-03-07</t>
+    <t>2023-03-16</t>
   </si>
 </sst>
 </file>
@@ -690,7 +675,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AS32"/>
+  <dimension ref="A1:AS30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -703,7 +688,7 @@
   <sheetData>
     <row r="1" spans="1:45">
       <c r="A1" s="1" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -752,22 +737,22 @@
     </row>
     <row r="2" spans="1:45">
       <c r="A2" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="B2" s="2">
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D2" s="2">
-        <v>6534</v>
+        <v>6542</v>
       </c>
       <c r="E2" s="2">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="G2" s="2">
         <v>0</v>
@@ -779,7 +764,7 @@
         <v>21</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:45">
@@ -822,16 +807,16 @@
         <v>1</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D4" s="2">
-        <v>6534</v>
+        <v>6542</v>
       </c>
       <c r="E4" s="2">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="G4" s="2">
         <v>0</v>
@@ -843,7 +828,7 @@
         <v>21</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:45">
@@ -854,28 +839,28 @@
         <v>1</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D5" s="2">
-        <v>44453</v>
+        <v>44575</v>
       </c>
       <c r="E5" s="2">
         <v>14</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="G5" s="2">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H5" s="2">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I5" s="2">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6" spans="1:45">
@@ -886,10 +871,10 @@
         <v>1</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D6" s="2">
-        <v>29812</v>
+        <v>29832</v>
       </c>
       <c r="E6" s="2">
         <v>0</v>
@@ -905,7 +890,7 @@
         <v>32</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="7" spans="1:45">
@@ -916,28 +901,28 @@
         <v>2</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D7" s="2">
-        <v>49247</v>
+        <v>49260</v>
       </c>
       <c r="E7" s="2">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="G7" s="2">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H7" s="2">
         <v>1</v>
       </c>
       <c r="I7" s="2">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="8" spans="1:45">
@@ -948,28 +933,28 @@
         <v>2</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D8" s="2">
-        <v>34468</v>
+        <v>34528</v>
       </c>
       <c r="E8" s="2">
         <v>14</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="G8" s="2">
         <v>6</v>
       </c>
       <c r="H8" s="2">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I8" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="9" spans="1:45">
@@ -980,28 +965,28 @@
         <v>2</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D9" s="2">
-        <v>25390</v>
+        <v>26362</v>
       </c>
       <c r="E9" s="2">
         <v>16</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="G9" s="2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H9" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I9" s="2">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="10" spans="1:45">
@@ -1012,28 +997,26 @@
         <v>3</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D10" s="2">
-        <v>37481</v>
+        <v>38189</v>
       </c>
       <c r="E10" s="2">
-        <v>6</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>71</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F10" s="2"/>
       <c r="G10" s="2">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H10" s="2">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="I10" s="2">
         <v>13</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="11" spans="1:45">
@@ -1044,26 +1027,26 @@
         <v>3</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D11" s="2">
-        <v>39675</v>
+        <v>39742</v>
       </c>
       <c r="E11" s="2">
         <v>0</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H11" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I11" s="2">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:45">
@@ -1074,26 +1057,28 @@
         <v>3</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D12" s="2">
-        <v>55360</v>
+        <v>56282</v>
       </c>
       <c r="E12" s="2">
-        <v>0</v>
-      </c>
-      <c r="F12" s="2"/>
+        <v>13</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>64</v>
+      </c>
       <c r="G12" s="2">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H12" s="2">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I12" s="2">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="13" spans="1:45">
@@ -1104,16 +1089,16 @@
         <v>4</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D13" s="2">
-        <v>41640</v>
+        <v>41715</v>
       </c>
       <c r="E13" s="2">
         <v>11</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="G13" s="2">
         <v>0</v>
@@ -1125,7 +1110,7 @@
         <v>63</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="14" spans="1:45">
@@ -1136,28 +1121,28 @@
         <v>4</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D14" s="2">
-        <v>36016</v>
+        <v>36148</v>
       </c>
       <c r="E14" s="2">
         <v>14</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="G14" s="2">
         <v>8</v>
       </c>
       <c r="H14" s="2">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I14" s="2">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="15" spans="1:45">
@@ -1168,28 +1153,28 @@
         <v>4</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D15" s="2">
-        <v>47320</v>
+        <v>47972</v>
       </c>
       <c r="E15" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="G15" s="2">
         <v>8</v>
       </c>
       <c r="H15" s="2">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I15" s="2">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="16" spans="1:45">
@@ -1200,16 +1185,16 @@
         <v>5</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D16" s="2">
-        <v>47224</v>
+        <v>47340</v>
       </c>
       <c r="E16" s="2">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="G16" s="2">
         <v>0</v>
@@ -1221,7 +1206,7 @@
         <v>64</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -1232,16 +1217,16 @@
         <v>5</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D17" s="2">
-        <v>48934</v>
+        <v>48997</v>
       </c>
       <c r="E17" s="2">
         <v>11</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="G17" s="2">
         <v>0</v>
@@ -1253,7 +1238,7 @@
         <v>64</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -1264,16 +1249,16 @@
         <v>5</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D18" s="2">
-        <v>49905</v>
+        <v>49716</v>
       </c>
       <c r="E18" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="G18" s="2">
         <v>0</v>
@@ -1285,7 +1270,7 @@
         <v>64</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -1296,28 +1281,28 @@
         <v>6</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D19" s="2">
-        <v>44953</v>
+        <v>45104</v>
       </c>
       <c r="E19" s="2">
         <v>11</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="G19" s="2">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H19" s="2">
         <v>2</v>
       </c>
       <c r="I19" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -1328,28 +1313,28 @@
         <v>6</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D20" s="2">
-        <v>35989</v>
+        <v>36943</v>
       </c>
       <c r="E20" s="2">
         <v>11</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="G20" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H20" s="2">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="I20" s="2">
         <v>12</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -1360,26 +1345,28 @@
         <v>6</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D21" s="2">
-        <v>35146</v>
+        <v>35332</v>
       </c>
       <c r="E21" s="2">
-        <v>0</v>
-      </c>
-      <c r="F21" s="2"/>
+        <v>13</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>64</v>
+      </c>
       <c r="G21" s="2">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H21" s="2">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="I21" s="2">
         <v>11</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -1390,26 +1377,28 @@
         <v>7</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D22" s="2">
-        <v>41155</v>
+        <v>41359</v>
       </c>
       <c r="E22" s="2">
-        <v>0</v>
-      </c>
-      <c r="F22" s="2"/>
+        <v>13</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>64</v>
+      </c>
       <c r="G22" s="2">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H22" s="2">
         <v>21</v>
       </c>
       <c r="I22" s="2">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -1420,28 +1409,28 @@
         <v>8</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D23" s="2">
-        <v>50985</v>
+        <v>47065</v>
       </c>
       <c r="E23" s="2">
         <v>14</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="G23" s="2">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H23" s="2">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="I23" s="2">
-        <v>64</v>
+        <v>17</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -1452,28 +1441,28 @@
         <v>8</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D24" s="2">
-        <v>47105</v>
+        <v>40036</v>
       </c>
       <c r="E24" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="G24" s="2">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H24" s="2">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I24" s="2">
-        <v>14</v>
+        <v>47</v>
       </c>
       <c r="J24" s="3" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -1481,31 +1470,31 @@
         <v>31</v>
       </c>
       <c r="B25" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D25" s="2">
-        <v>39920</v>
+        <v>34514</v>
       </c>
       <c r="E25" s="2">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G25" s="2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H25" s="2">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="I25" s="2">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="J25" s="3" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -1516,16 +1505,16 @@
         <v>9</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D26" s="2">
-        <v>34386</v>
+        <v>37900</v>
       </c>
       <c r="E26" s="2">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="G26" s="2">
         <v>6</v>
@@ -1537,7 +1526,7 @@
         <v>58</v>
       </c>
       <c r="J26" s="3" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -1548,28 +1537,28 @@
         <v>9</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D27" s="2">
-        <v>37737</v>
+        <v>36882</v>
       </c>
       <c r="E27" s="2">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="G27" s="2">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="H27" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I27" s="2">
-        <v>58</v>
+        <v>33</v>
       </c>
       <c r="J27" s="3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -1577,31 +1566,31 @@
         <v>34</v>
       </c>
       <c r="B28" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D28" s="2">
-        <v>36231</v>
+        <v>42812</v>
       </c>
       <c r="E28" s="2">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="G28" s="2">
+        <v>6</v>
+      </c>
+      <c r="H28" s="2">
         <v>27</v>
       </c>
-      <c r="H28" s="2">
-        <v>2</v>
-      </c>
       <c r="I28" s="2">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="J28" s="3" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -1612,28 +1601,28 @@
         <v>10</v>
       </c>
       <c r="C29" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D29" s="2">
+        <v>6885</v>
+      </c>
+      <c r="E29" s="2">
+        <v>13</v>
+      </c>
+      <c r="F29" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="D29" s="2">
-        <v>52669</v>
-      </c>
-      <c r="E29" s="2">
-        <v>14</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>69</v>
-      </c>
       <c r="G29" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H29" s="2">
-        <v>33</v>
+        <v>1</v>
       </c>
       <c r="I29" s="2">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="J29" s="3" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="30" spans="1:10">
@@ -1644,90 +1633,28 @@
         <v>10</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D30" s="2">
-        <v>42759</v>
+        <v>45738</v>
       </c>
       <c r="E30" s="2">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="G30" s="2">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="H30" s="2">
         <v>28</v>
       </c>
       <c r="I30" s="2">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="J30" s="3" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10">
-      <c r="A31" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B31" s="2">
-        <v>10</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="D31" s="2">
-        <v>45301</v>
-      </c>
-      <c r="E31" s="2">
-        <v>13</v>
-      </c>
-      <c r="F31" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="G31" s="2">
-        <v>14</v>
-      </c>
-      <c r="H31" s="2">
-        <v>27</v>
-      </c>
-      <c r="I31" s="2">
-        <v>23</v>
-      </c>
-      <c r="J31" s="3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10">
-      <c r="A32" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B32" s="2"/>
-      <c r="C32" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="D32" s="2">
-        <v>44988</v>
-      </c>
-      <c r="E32" s="2">
-        <v>14</v>
-      </c>
-      <c r="F32" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="G32" s="2">
-        <v>7</v>
-      </c>
-      <c r="H32" s="2">
-        <v>25</v>
-      </c>
-      <c r="I32" s="2">
-        <v>24</v>
-      </c>
-      <c r="J32" s="3" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -1735,7 +1662,7 @@
     <mergeCell ref="A1:AS1"/>
     <mergeCell ref="A2:AS2"/>
   </mergeCells>
-  <conditionalFormatting sqref="A2:H31">
+  <conditionalFormatting sqref="A2:H30">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>MOD($B2,2)=0</formula>
     </cfRule>

--- a/output/c9/c9aurac_brawler_levels_team.xlsx
+++ b/output/c9/c9aurac_brawler_levels_team.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="104">
   <si>
     <t>player</t>
   </si>
@@ -46,61 +46,70 @@
     <t>brawlers_11</t>
   </si>
   <si>
+    <t>PFCXF</t>
+  </si>
+  <si>
     <t>Sean747❤️Alexa</t>
   </si>
   <si>
+    <t>VS | dragoh</t>
+  </si>
+  <si>
+    <t>Tribe|LHC</t>
+  </si>
+  <si>
+    <t>Zachary ϟ</t>
+  </si>
+  <si>
+    <t>𝓙𝓸𝔂🥀</t>
+  </si>
+  <si>
+    <t>Dead Beat</t>
+  </si>
+  <si>
+    <t>FS | Broken</t>
+  </si>
+  <si>
+    <t>Oh No! Jotaro</t>
+  </si>
+  <si>
+    <t>Cred</t>
+  </si>
+  <si>
+    <t>DepressedRekt™</t>
+  </si>
+  <si>
+    <t>majd✿</t>
+  </si>
+  <si>
+    <t>Hogglific</t>
+  </si>
+  <si>
+    <t>Solo Entity</t>
+  </si>
+  <si>
+    <t>ZSilverZ</t>
+  </si>
+  <si>
+    <t>VS|NINJA[¥T]</t>
+  </si>
+  <si>
+    <t>prasanna</t>
+  </si>
+  <si>
+    <t>ᴵᴬᴹGʀɪɴɢᴜʕ•̫͡•ʕ</t>
+  </si>
+  <si>
+    <t>(⁎⁍̴̛ᴗ⁍̴̛⁎)</t>
+  </si>
+  <si>
     <t>TRB|Asakusaツ</t>
   </si>
   <si>
-    <t>VS | dragoh</t>
-  </si>
-  <si>
-    <t>Tribe|LHC</t>
-  </si>
-  <si>
-    <t>Zachary ϟ</t>
-  </si>
-  <si>
-    <t>𝓙𝓸𝔂🥀</t>
-  </si>
-  <si>
-    <t>David</t>
-  </si>
-  <si>
-    <t>Dead Beat</t>
-  </si>
-  <si>
-    <t>Oh No! Jotaro</t>
-  </si>
-  <si>
-    <t>Cred</t>
-  </si>
-  <si>
-    <t>DepressedRekt™</t>
-  </si>
-  <si>
     <t>哥本哈根大使</t>
   </si>
   <si>
-    <t>Hogglific</t>
-  </si>
-  <si>
-    <t>Solo Entity</t>
-  </si>
-  <si>
-    <t>ZSilverZ</t>
-  </si>
-  <si>
-    <t>VS|NINJA[¥T]</t>
-  </si>
-  <si>
-    <t>prasanna</t>
-  </si>
-  <si>
-    <t>ᴵᴬᴹGʀɪɴɢᴜʕ•̫͡•ʕ</t>
-  </si>
-  <si>
-    <t>majd✿</t>
+    <t>Emzy❦プロ</t>
   </si>
   <si>
     <t>SG|🔥Fire🔥</t>
@@ -118,70 +127,79 @@
     <t>menoobenelol</t>
   </si>
   <si>
-    <t>Staze✦</t>
-  </si>
-  <si>
-    <t>Terrific🎃🎃🎃</t>
+    <t>Freezer 🥶🥶</t>
   </si>
   <si>
     <t>YoshioFm</t>
   </si>
   <si>
+    <t>⚔Sword Emperor⚔</t>
+  </si>
+  <si>
+    <t>#CLR99L9L</t>
+  </si>
+  <si>
     <t>#QYJGL9QU</t>
   </si>
   <si>
+    <t>#GC0LRQ0V</t>
+  </si>
+  <si>
+    <t>#J2RLUJP2</t>
+  </si>
+  <si>
+    <t>#RQ8RRV0Y</t>
+  </si>
+  <si>
+    <t>#VRU22R9Y</t>
+  </si>
+  <si>
+    <t>#2LJGQ02YV</t>
+  </si>
+  <si>
+    <t>#PV9LVRJ2</t>
+  </si>
+  <si>
+    <t>#YQ0LJU2</t>
+  </si>
+  <si>
+    <t>#RGVL0L8V</t>
+  </si>
+  <si>
+    <t>#VY9JJ9RQ</t>
+  </si>
+  <si>
+    <t>#PY0YR2CR8</t>
+  </si>
+  <si>
+    <t>#UCY09URC</t>
+  </si>
+  <si>
+    <t>#CGV2R82J</t>
+  </si>
+  <si>
+    <t>#2YQUPUYJ</t>
+  </si>
+  <si>
+    <t>#JV9PGCUV</t>
+  </si>
+  <si>
+    <t>#Y09QC2UJQ</t>
+  </si>
+  <si>
+    <t>#YQU8JL8YU</t>
+  </si>
+  <si>
+    <t>#8VQQQ820G</t>
+  </si>
+  <si>
     <t>#PUL98YG82</t>
   </si>
   <si>
-    <t>#GC0LRQ0V</t>
-  </si>
-  <si>
-    <t>#J2RLUJP2</t>
-  </si>
-  <si>
-    <t>#RQ8RRV0Y</t>
-  </si>
-  <si>
-    <t>#VRU22R9Y</t>
-  </si>
-  <si>
-    <t>#9UPQVRQ</t>
-  </si>
-  <si>
-    <t>#2LJGQ02YV</t>
-  </si>
-  <si>
-    <t>#YQ0LJU2</t>
-  </si>
-  <si>
-    <t>#RGVL0L8V</t>
-  </si>
-  <si>
-    <t>#VY9JJ9RQ</t>
-  </si>
-  <si>
     <t>#9CQURRU28</t>
   </si>
   <si>
-    <t>#UCY09URC</t>
-  </si>
-  <si>
-    <t>#CGV2R82J</t>
-  </si>
-  <si>
-    <t>#2YQUPUYJ</t>
-  </si>
-  <si>
-    <t>#JV9PGCUV</t>
-  </si>
-  <si>
-    <t>#Y09QC2UJQ</t>
-  </si>
-  <si>
-    <t>#YQU8JL8YU</t>
-  </si>
-  <si>
-    <t>#PY0YR2CR8</t>
+    <t>#8PUYJUQ0V</t>
   </si>
   <si>
     <t>#CQ8RC802</t>
@@ -199,112 +217,115 @@
     <t>#CP988U8Y</t>
   </si>
   <si>
-    <t>#V2JGGG8P</t>
-  </si>
-  <si>
-    <t>#LQL0U9VP2</t>
+    <t>#2VP9VPJJY</t>
   </si>
   <si>
     <t>#2LV9CPC8C</t>
   </si>
   <si>
+    <t>#RV2RQQQC</t>
+  </si>
+  <si>
+    <t>Diamond III</t>
+  </si>
+  <si>
+    <t>Mythic II</t>
+  </si>
+  <si>
+    <t>Legend I</t>
+  </si>
+  <si>
+    <t>Diamond I</t>
+  </si>
+  <si>
     <t>Mythic I</t>
   </si>
   <si>
-    <t>Mythic II</t>
-  </si>
-  <si>
     <t>Mythic III</t>
   </si>
   <si>
-    <t>Legend I</t>
-  </si>
-  <si>
     <t>Diamond II</t>
   </si>
   <si>
-    <t>Diamond III</t>
-  </si>
-  <si>
     <t>Gold III</t>
   </si>
   <si>
-    <t xml:space="preserve">BELLE, BIBI, BROCK, BULL, CARL, COLT, CROW, EL PRIMO, JESSIE, MAX, MORTIS, MR. P, ... </t>
-  </si>
-  <si>
-    <t xml:space="preserve">BEA, BO, BONNIE, BROCK, CARL, CHESTER, DARRYL, EMZ, EVE, FANG, GENE, GRIFF, ... </t>
+    <t xml:space="preserve">AMBER, ASH, BARLEY, BEA, BELLE, BO, BONNIE, BROCK, BYRON, CARL, COLETTE, CROW, ... </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BEA, BELLE, BIBI, BROCK, BULL, CARL, COLT, CROW, EL PRIMO, GENE, JESSIE, MAX, ... </t>
   </si>
   <si>
     <t xml:space="preserve">8-BIT, AMBER, ASH, BARLEY, BELLE, BO, BROCK, BYRON, CARL, COLETTE, CROW, DARRYL, ... </t>
   </si>
   <si>
-    <t xml:space="preserve">8-BIT, AMBER, ASH, BARLEY, BEA, BELLE, BIBI, BO, BONNIE, BROCK, BUSTER, BUZZ, ... </t>
-  </si>
-  <si>
-    <t xml:space="preserve">BELLE, BROCK, BUZZ, BYRON, CARL, GRIFF, GUS, LOLA, MANDY, MAX, MEG, MORTIS, ... </t>
-  </si>
-  <si>
-    <t>AMBER, BUSTER, FANG, GENE, GROM, MANDY, MEG, PENNY, R-T, RICO, STU, SURGE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8-BIT, BELLE, BROCK, COLT, EMZ, EVE, GALE, LEON, LOU, NITA, ROSA, SPROUT, ... </t>
-  </si>
-  <si>
-    <t xml:space="preserve">8-BIT, AMBER, ASH, BARLEY, BEA, BELLE, BONNIE, BUSTER, CARL, CHESTER, COLETTE, CROW, ... </t>
-  </si>
-  <si>
-    <t xml:space="preserve">8-BIT, AMBER, ASH, BEA, BELLE, BIBI, COLETTE, EMZ, GENE, GRAY, GRIFF, GUS, ... </t>
-  </si>
-  <si>
     <t xml:space="preserve">8-BIT, AMBER, ASH, BARLEY, BEA, BELLE, BIBI, BO, BONNIE, BROCK, BULL, BUSTER, ... </t>
   </si>
   <si>
-    <t xml:space="preserve">BEA, BELLE, BROCK, CROW, EMZ, GENE, GROM, GUS, MAX, PAM, PIPER, RUFFS, ... </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ASH, BEA, BELLE, BIBI, BO, BONNIE, BROCK, BUZZ, BYRON, CARL, CHESTER, COLETTE, ... </t>
+    <t xml:space="preserve">BELLE, BROCK, BUZZ, BYRON, CARL, GRIFF, GUS, JANET, LOLA, MANDY, MAX, MEG, ... </t>
+  </si>
+  <si>
+    <t xml:space="preserve">AMBER, BUSTER, COLETTE, EDGAR, FANG, GENE, GROM, MANDY, MEG, PENNY, R-T, RICO, ... </t>
+  </si>
+  <si>
+    <t xml:space="preserve">8-BIT, AMBER, ASH, BARLEY, BEA, BELLE, BIBI, BONNIE, BROCK, BUSTER, CARL, CHESTER, ... </t>
+  </si>
+  <si>
+    <t xml:space="preserve">AMBER, ASH, BEA, BELLE, BO, BUZZ, CARL, CROW, DARRYL, DYNAMIKE, EMZ, FANG, ... </t>
+  </si>
+  <si>
+    <t xml:space="preserve">8-BIT, AMBER, ASH, BEA, BELLE, BIBI, COLETTE, EMZ, FANG, GENE, GRAY, GRIFF, ... </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BARLEY, BEA, BELLE, BONNIE, BROCK, CROW, EMZ, EVE, GENE, GRAY, GROM, GUS, ... </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BEA, BELLE, BROCK, CARL, CHESTER, GROM, JANET, MORTIS, OTIS, PENNY, PIPER, POCO, ... </t>
   </si>
   <si>
     <t xml:space="preserve">BARLEY, BEA, BIBI, BO, BROCK, BUSTER, BUZZ, CARL, CHESTER, COLETTE, COLT, CROW, ... </t>
   </si>
   <si>
-    <t>BUSTER, CHESTER, EL PRIMO, EMZ, FANG, GRIFF, LOLA, MAX, NITA, OTIS, POCO, SANDY</t>
-  </si>
-  <si>
-    <t>BELLE, BUSTER, CARL, GALE, GENE, GRIFF, LEON, LOLA, PENNY, STU, SURGE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BEA, BELLE, BROCK, CARL, CHESTER, GROM, JANET, MORTIS, OTIS, PENNY, PIPER, POCO, ... </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ASH, BUZZ, CARL, CHESTER, CROW, FANG, GENE, GUS, MAX, MORTIS, PENNY, PIPER, ... </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ASH, BEA, BELLE, BIBI, BO, BROCK, BULL, BUSTER, BUZZ, BYRON, CARL, CHESTER, ... </t>
-  </si>
-  <si>
-    <t xml:space="preserve">8-BIT, AMBER, ASH, BARLEY, BEA, BELLE, BIBI, BO, BONNIE, BROCK, BULL, BUZZ, ... </t>
-  </si>
-  <si>
-    <t xml:space="preserve">8-BIT, AMBER, ASH, BARLEY, BEA, BELLE, BIBI, BO, BONNIE, BROCK, BUZZ, BYRON, ... </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AMBER, ASH, BELLE, BO, BONNIE, BROCK, BUZZ, BYRON, CARL, COLETTE, COLT, CROW, ... </t>
-  </si>
-  <si>
-    <t xml:space="preserve">8-BIT, ASH, BELLE, BIBI, BO, BONNIE, CARL, DARRYL, EMZ, EVE, FANG, GENE, ... </t>
-  </si>
-  <si>
-    <t>BEA, CARL, COLT, JANET, POCO, RICO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BONNIE, BUSTER, BUZZ, CARL, COLT, CROW, EDGAR, EVE, FANG, GENE, GUS, JANET, ... </t>
+    <t xml:space="preserve">ASH, BUSTER, CHESTER, EL PRIMO, EMZ, FANG, GRIFF, LOLA, MAX, NITA, OTIS, POCO, ... </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ASH, BEA, BELLE, BUSTER, CARL, GALE, GENE, GRIFF, LEON, LOLA, MAX, PENNY, ... </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ASH, BEA, BELLE, BIBI, BROCK, BUSTER, CARL, CHESTER, COLETTE, COLT, DARRYL, DYNAMIKE, ... </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BEA, BO, BONNIE, BROCK, CARL, CHESTER, COLETTE, CROW, DARRYL, EMZ, EVE, FANG, ... </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ASH, BARLEY, BEA, BELLE, BIBI, BO, BONNIE, BROCK, BUZZ, BYRON, CARL, CHESTER, ... </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ASH, BEA, BUZZ, CHESTER, DYNAMIKE, EMZ, FANG, GENE, JANET, MAX, MORTIS, POCO, ... </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ASH, BROCK, BUZZ, CARL, CHESTER, COLETTE, CROW, FANG, GENE, GROM, GUS, MAX, ... </t>
+  </si>
+  <si>
+    <t xml:space="preserve">8-BIT, ASH, BEA, BELLE, BIBI, BO, BONNIE, BROCK, BULL, BUSTER, BUZZ, BYRON, ... </t>
+  </si>
+  <si>
+    <t xml:space="preserve">AMBER, ASH, BELLE, BO, BONNIE, BROCK, BULL, BUZZ, BYRON, CARL, COLETTE, COLT, ... </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ASH, BROCK, BYRON, DARRYL, MAX, MORTIS, PENNY, POCO, RICO, ROSA, SURGE, TARA, ... </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BO, BONNIE, BUSTER, BUZZ, CARL, COLT, CROW, EDGAR, EVE, FANG, GENE, GUS, ... </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BEA, BONNIE, BROCK, CARL, CROW, EDGAR, GENE, GRIFF, MAX, MEG, MORTIS, OTIS, ... </t>
   </si>
   <si>
     <t>C9 Brawler Levels</t>
   </si>
   <si>
-    <t>2023-03-16</t>
+    <t>2023-03-29</t>
   </si>
 </sst>
 </file>
@@ -675,7 +696,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AS30"/>
+  <dimension ref="A1:AS33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -688,7 +709,7 @@
   <sheetData>
     <row r="1" spans="1:45">
       <c r="A1" s="1" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -737,34 +758,34 @@
     </row>
     <row r="2" spans="1:45">
       <c r="A2" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="B2" s="2">
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D2" s="2">
-        <v>6542</v>
+        <v>39767</v>
       </c>
       <c r="E2" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="G2" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H2" s="2">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="I2" s="2">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:45">
@@ -807,28 +828,28 @@
         <v>1</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D4" s="2">
-        <v>6542</v>
+        <v>39767</v>
       </c>
       <c r="E4" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="G4" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H4" s="2">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="I4" s="2">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5" spans="1:45">
@@ -839,28 +860,28 @@
         <v>1</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D5" s="2">
-        <v>44575</v>
+        <v>6520</v>
       </c>
       <c r="E5" s="2">
         <v>14</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="G5" s="2">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="H5" s="2">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="I5" s="2">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6" spans="1:45">
@@ -871,26 +892,28 @@
         <v>1</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D6" s="2">
-        <v>29832</v>
+        <v>29825</v>
       </c>
       <c r="E6" s="2">
-        <v>0</v>
-      </c>
-      <c r="F6" s="2"/>
+        <v>12</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>70</v>
+      </c>
       <c r="G6" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H6" s="2">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="I6" s="2">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7" spans="1:45">
@@ -901,28 +924,28 @@
         <v>2</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="D7" s="2">
-        <v>49260</v>
+        <v>49372</v>
       </c>
       <c r="E7" s="2">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="G7" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H7" s="2">
         <v>1</v>
       </c>
       <c r="I7" s="2">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
     </row>
     <row r="8" spans="1:45">
@@ -933,28 +956,28 @@
         <v>2</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D8" s="2">
-        <v>34528</v>
+        <v>34515</v>
       </c>
       <c r="E8" s="2">
         <v>14</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="G8" s="2">
         <v>6</v>
       </c>
       <c r="H8" s="2">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I8" s="2">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
     </row>
     <row r="9" spans="1:45">
@@ -965,16 +988,16 @@
         <v>2</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D9" s="2">
-        <v>26362</v>
+        <v>27611</v>
       </c>
       <c r="E9" s="2">
         <v>16</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="G9" s="2">
         <v>8</v>
@@ -983,10 +1006,10 @@
         <v>2</v>
       </c>
       <c r="I9" s="2">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
     </row>
     <row r="10" spans="1:45">
@@ -997,26 +1020,28 @@
         <v>3</v>
       </c>
       <c r="C10" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D10" s="2">
+        <v>39927</v>
+      </c>
+      <c r="E10" s="2">
+        <v>10</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="G10" s="2">
+        <v>4</v>
+      </c>
+      <c r="H10" s="2">
+        <v>17</v>
+      </c>
+      <c r="I10" s="2">
         <v>43</v>
       </c>
-      <c r="D10" s="2">
-        <v>38189</v>
-      </c>
-      <c r="E10" s="2">
-        <v>0</v>
-      </c>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2">
-        <v>29</v>
-      </c>
-      <c r="H10" s="2">
-        <v>16</v>
-      </c>
-      <c r="I10" s="2">
-        <v>13</v>
-      </c>
       <c r="J10" s="3" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
     </row>
     <row r="11" spans="1:45">
@@ -1027,26 +1052,28 @@
         <v>3</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D11" s="2">
-        <v>39742</v>
+        <v>46329</v>
       </c>
       <c r="E11" s="2">
-        <v>0</v>
-      </c>
-      <c r="F11" s="2"/>
+        <v>14</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>71</v>
+      </c>
       <c r="G11" s="2">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H11" s="2">
         <v>19</v>
       </c>
       <c r="I11" s="2">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
     </row>
     <row r="12" spans="1:45">
@@ -1057,28 +1084,28 @@
         <v>3</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D12" s="2">
-        <v>56282</v>
+        <v>57542</v>
       </c>
       <c r="E12" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="G12" s="2">
         <v>10</v>
       </c>
       <c r="H12" s="2">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I12" s="2">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
     </row>
     <row r="13" spans="1:45">
@@ -1089,16 +1116,16 @@
         <v>4</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D13" s="2">
-        <v>41715</v>
+        <v>42546</v>
       </c>
       <c r="E13" s="2">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G13" s="2">
         <v>0</v>
@@ -1107,10 +1134,10 @@
         <v>0</v>
       </c>
       <c r="I13" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="14" spans="1:45">
@@ -1121,28 +1148,28 @@
         <v>4</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D14" s="2">
-        <v>36148</v>
+        <v>36404</v>
       </c>
       <c r="E14" s="2">
         <v>14</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="G14" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H14" s="2">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="I14" s="2">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:45">
@@ -1153,28 +1180,28 @@
         <v>4</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D15" s="2">
-        <v>47972</v>
+        <v>41786</v>
       </c>
       <c r="E15" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="G15" s="2">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="H15" s="2">
+        <v>27</v>
+      </c>
+      <c r="I15" s="2">
         <v>13</v>
       </c>
-      <c r="I15" s="2">
-        <v>42</v>
-      </c>
       <c r="J15" s="3" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
     </row>
     <row r="16" spans="1:45">
@@ -1185,16 +1212,16 @@
         <v>5</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D16" s="2">
-        <v>47340</v>
+        <v>47968</v>
       </c>
       <c r="E16" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="G16" s="2">
         <v>0</v>
@@ -1203,10 +1230,10 @@
         <v>0</v>
       </c>
       <c r="I16" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -1217,16 +1244,16 @@
         <v>5</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D17" s="2">
-        <v>48997</v>
+        <v>49000</v>
       </c>
       <c r="E17" s="2">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="G17" s="2">
         <v>0</v>
@@ -1235,10 +1262,10 @@
         <v>0</v>
       </c>
       <c r="I17" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -1249,16 +1276,16 @@
         <v>5</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D18" s="2">
-        <v>49716</v>
+        <v>50043</v>
       </c>
       <c r="E18" s="2">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="G18" s="2">
         <v>0</v>
@@ -1267,10 +1294,10 @@
         <v>0</v>
       </c>
       <c r="I18" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -1281,16 +1308,16 @@
         <v>6</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D19" s="2">
-        <v>45104</v>
+        <v>45444</v>
       </c>
       <c r="E19" s="2">
         <v>11</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="G19" s="2">
         <v>25</v>
@@ -1299,10 +1326,10 @@
         <v>2</v>
       </c>
       <c r="I19" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -1313,28 +1340,28 @@
         <v>6</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="D20" s="2">
-        <v>36943</v>
+        <v>38540</v>
       </c>
       <c r="E20" s="2">
         <v>11</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="G20" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H20" s="2">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="I20" s="2">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -1345,28 +1372,28 @@
         <v>6</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="D21" s="2">
-        <v>35332</v>
+        <v>35696</v>
       </c>
       <c r="E21" s="2">
         <v>13</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="G21" s="2">
         <v>22</v>
       </c>
       <c r="H21" s="2">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I21" s="2">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -1377,28 +1404,28 @@
         <v>7</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D22" s="2">
-        <v>41359</v>
+        <v>52311</v>
       </c>
       <c r="E22" s="2">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="G22" s="2">
+        <v>9</v>
+      </c>
+      <c r="H22" s="2">
+        <v>25</v>
+      </c>
+      <c r="I22" s="2">
         <v>29</v>
       </c>
-      <c r="H22" s="2">
-        <v>21</v>
-      </c>
-      <c r="I22" s="2">
-        <v>13</v>
-      </c>
       <c r="J22" s="3" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -1406,31 +1433,31 @@
         <v>29</v>
       </c>
       <c r="B23" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="D23" s="2">
-        <v>47065</v>
+        <v>44985</v>
       </c>
       <c r="E23" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="G23" s="2">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="H23" s="2">
         <v>19</v>
       </c>
       <c r="I23" s="2">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -1438,31 +1465,31 @@
         <v>30</v>
       </c>
       <c r="B24" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="D24" s="2">
-        <v>40036</v>
+        <v>49136</v>
       </c>
       <c r="E24" s="2">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="G24" s="2">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="H24" s="2">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="I24" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J24" s="3" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -1470,31 +1497,31 @@
         <v>31</v>
       </c>
       <c r="B25" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="D25" s="2">
-        <v>34514</v>
+        <v>37220</v>
       </c>
       <c r="E25" s="2">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>70</v>
       </c>
       <c r="G25" s="2">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="H25" s="2">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="I25" s="2">
-        <v>58</v>
+        <v>14</v>
       </c>
       <c r="J25" s="3" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -1502,31 +1529,31 @@
         <v>32</v>
       </c>
       <c r="B26" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="D26" s="2">
-        <v>37900</v>
+        <v>46990</v>
       </c>
       <c r="E26" s="2">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="G26" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H26" s="2">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="I26" s="2">
-        <v>58</v>
+        <v>21</v>
       </c>
       <c r="J26" s="3" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -1534,31 +1561,31 @@
         <v>33</v>
       </c>
       <c r="B27" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="D27" s="2">
-        <v>36882</v>
+        <v>40299</v>
       </c>
       <c r="E27" s="2">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="G27" s="2">
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="H27" s="2">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="I27" s="2">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="J27" s="3" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -1566,31 +1593,31 @@
         <v>34</v>
       </c>
       <c r="B28" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="D28" s="2">
-        <v>42812</v>
+        <v>34619</v>
       </c>
       <c r="E28" s="2">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="G28" s="2">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H28" s="2">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="I28" s="2">
-        <v>29</v>
+        <v>65</v>
       </c>
       <c r="J28" s="3" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -1598,31 +1625,31 @@
         <v>35</v>
       </c>
       <c r="B29" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="D29" s="2">
-        <v>6885</v>
+        <v>38569</v>
       </c>
       <c r="E29" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="G29" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H29" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I29" s="2">
-        <v>6</v>
+        <v>65</v>
       </c>
       <c r="J29" s="3" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
     </row>
     <row r="30" spans="1:10">
@@ -1630,31 +1657,127 @@
         <v>36</v>
       </c>
       <c r="B30" s="2">
+        <v>9</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D30" s="2">
+        <v>37365</v>
+      </c>
+      <c r="E30" s="2">
+        <v>14</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="G30" s="2">
+        <v>24</v>
+      </c>
+      <c r="H30" s="2">
+        <v>2</v>
+      </c>
+      <c r="I30" s="2">
+        <v>36</v>
+      </c>
+      <c r="J30" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="A31" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B31" s="2">
         <v>10</v>
       </c>
-      <c r="C30" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="D30" s="2">
-        <v>45738</v>
-      </c>
-      <c r="E30" s="2">
+      <c r="C31" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D31" s="2">
+        <v>14416</v>
+      </c>
+      <c r="E31" s="2">
+        <v>14</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="G31" s="2">
+        <v>1</v>
+      </c>
+      <c r="H31" s="2">
+        <v>12</v>
+      </c>
+      <c r="I31" s="2">
         <v>13</v>
       </c>
-      <c r="F30" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="G30" s="2">
+      <c r="J31" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
+      <c r="A32" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B32" s="2">
+        <v>10</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D32" s="2">
+        <v>46655</v>
+      </c>
+      <c r="E32" s="2">
+        <v>14</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="G32" s="2">
         <v>13</v>
       </c>
-      <c r="H30" s="2">
-        <v>28</v>
-      </c>
-      <c r="I30" s="2">
-        <v>23</v>
-      </c>
-      <c r="J30" s="3" t="s">
-        <v>94</v>
+      <c r="H32" s="2">
+        <v>26</v>
+      </c>
+      <c r="I32" s="2">
+        <v>25</v>
+      </c>
+      <c r="J32" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
+      <c r="A33" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B33" s="2">
+        <v>10</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D33" s="2">
+        <v>36860</v>
+      </c>
+      <c r="E33" s="2">
+        <v>12</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="G33" s="2">
+        <v>26</v>
+      </c>
+      <c r="H33" s="2">
+        <v>13</v>
+      </c>
+      <c r="I33" s="2">
+        <v>17</v>
+      </c>
+      <c r="J33" s="3" t="s">
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -1662,7 +1785,7 @@
     <mergeCell ref="A1:AS1"/>
     <mergeCell ref="A2:AS2"/>
   </mergeCells>
-  <conditionalFormatting sqref="A2:H30">
+  <conditionalFormatting sqref="A2:H33">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>MOD($B2,2)=0</formula>
     </cfRule>

--- a/output/c9/c9aurac_brawler_levels_team.xlsx
+++ b/output/c9/c9aurac_brawler_levels_team.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="102">
   <si>
     <t>player</t>
   </si>
@@ -67,12 +67,12 @@
     <t>Dead Beat</t>
   </si>
   <si>
-    <t>FS | Broken</t>
-  </si>
-  <si>
     <t>Oh No! Jotaro</t>
   </si>
   <si>
+    <t>VS∣Daniel</t>
+  </si>
+  <si>
     <t>Cred</t>
   </si>
   <si>
@@ -112,7 +112,7 @@
     <t>Emzy❦プロ</t>
   </si>
   <si>
-    <t>SG|🔥Fire🔥</t>
+    <t>Fire❤️Star</t>
   </si>
   <si>
     <t>꧁✨やͪeͧ༒ͨ 𝖊𝖗✨꧂</t>
@@ -157,12 +157,12 @@
     <t>#2LJGQ02YV</t>
   </si>
   <si>
-    <t>#PV9LVRJ2</t>
-  </si>
-  <si>
     <t>#YQ0LJU2</t>
   </si>
   <si>
+    <t>#PCRG080</t>
+  </si>
+  <si>
     <t>#RGVL0L8V</t>
   </si>
   <si>
@@ -232,31 +232,25 @@
     <t>Mythic II</t>
   </si>
   <si>
+    <t>Diamond II</t>
+  </si>
+  <si>
     <t>Legend I</t>
   </si>
   <si>
-    <t>Diamond I</t>
-  </si>
-  <si>
     <t>Mythic I</t>
   </si>
   <si>
     <t>Mythic III</t>
   </si>
   <si>
-    <t>Diamond II</t>
-  </si>
-  <si>
-    <t>Gold III</t>
-  </si>
-  <si>
     <t xml:space="preserve">AMBER, ASH, BARLEY, BEA, BELLE, BO, BONNIE, BROCK, BYRON, CARL, COLETTE, CROW, ... </t>
   </si>
   <si>
     <t xml:space="preserve">BEA, BELLE, BIBI, BROCK, BULL, CARL, COLT, CROW, EL PRIMO, GENE, JESSIE, MAX, ... </t>
   </si>
   <si>
-    <t xml:space="preserve">8-BIT, AMBER, ASH, BARLEY, BELLE, BO, BROCK, BYRON, CARL, COLETTE, CROW, DARRYL, ... </t>
+    <t xml:space="preserve">8-BIT, AMBER, ASH, BARLEY, BEA, BELLE, BO, BROCK, BUZZ, BYRON, CARL, COLETTE, ... </t>
   </si>
   <si>
     <t xml:space="preserve">8-BIT, AMBER, ASH, BARLEY, BEA, BELLE, BIBI, BO, BONNIE, BROCK, BULL, BUSTER, ... </t>
@@ -271,13 +265,13 @@
     <t xml:space="preserve">8-BIT, AMBER, ASH, BARLEY, BEA, BELLE, BIBI, BONNIE, BROCK, BUSTER, CARL, CHESTER, ... </t>
   </si>
   <si>
-    <t xml:space="preserve">AMBER, ASH, BEA, BELLE, BO, BUZZ, CARL, CROW, DARRYL, DYNAMIKE, EMZ, FANG, ... </t>
-  </si>
-  <si>
-    <t xml:space="preserve">8-BIT, AMBER, ASH, BEA, BELLE, BIBI, COLETTE, EMZ, FANG, GENE, GRAY, GRIFF, ... </t>
-  </si>
-  <si>
-    <t xml:space="preserve">BARLEY, BEA, BELLE, BONNIE, BROCK, CROW, EMZ, EVE, GENE, GRAY, GROM, GUS, ... </t>
+    <t xml:space="preserve">8-BIT, AMBER, ASH, BARLEY, BEA, BELLE, BIBI, BUSTER, BYRON, COLETTE, EMZ, FANG, ... </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ASH, BEA, BELLE, BIBI, BONNIE, BROCK, BUZZ, BYRON, CARL, COLETTE, CROW, EL PRIMO, ... </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BARLEY, BEA, BELLE, BONNIE, BROCK, CROW, EMZ, EVE, FANG, GENE, GRAY, GROM, ... </t>
   </si>
   <si>
     <t xml:space="preserve">BEA, BELLE, BROCK, CARL, CHESTER, GROM, JANET, MORTIS, OTIS, PENNY, PIPER, POCO, ... </t>
@@ -289,7 +283,7 @@
     <t xml:space="preserve">ASH, BUSTER, CHESTER, EL PRIMO, EMZ, FANG, GRIFF, LOLA, MAX, NITA, OTIS, POCO, ... </t>
   </si>
   <si>
-    <t xml:space="preserve">ASH, BEA, BELLE, BUSTER, CARL, GALE, GENE, GRIFF, LEON, LOLA, MAX, PENNY, ... </t>
+    <t xml:space="preserve">ASH, BEA, BELLE, BUSTER, CARL, GALE, GENE, GRIFF, JANET, LEON, LOLA, MAX, ... </t>
   </si>
   <si>
     <t xml:space="preserve">ASH, BEA, BELLE, BIBI, BROCK, BUSTER, CARL, CHESTER, COLETTE, COLT, DARRYL, DYNAMIKE, ... </t>
@@ -301,10 +295,10 @@
     <t xml:space="preserve">ASH, BARLEY, BEA, BELLE, BIBI, BO, BONNIE, BROCK, BUZZ, BYRON, CARL, CHESTER, ... </t>
   </si>
   <si>
-    <t xml:space="preserve">ASH, BEA, BUZZ, CHESTER, DYNAMIKE, EMZ, FANG, GENE, JANET, MAX, MORTIS, POCO, ... </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ASH, BROCK, BUZZ, CARL, CHESTER, COLETTE, CROW, FANG, GENE, GROM, GUS, MAX, ... </t>
+    <t xml:space="preserve">ASH, BEA, BUZZ, CARL, CHESTER, DYNAMIKE, EMZ, FANG, GENE, JANET, MAX, MORTIS, ... </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ASH, BEA, BROCK, BUZZ, CARL, CHESTER, COLETTE, CROW, FANG, GENE, GROM, GUS, ... </t>
   </si>
   <si>
     <t xml:space="preserve">8-BIT, ASH, BEA, BELLE, BIBI, BO, BONNIE, BROCK, BULL, BUSTER, BUZZ, BYRON, ... </t>
@@ -313,19 +307,19 @@
     <t xml:space="preserve">AMBER, ASH, BELLE, BO, BONNIE, BROCK, BULL, BUZZ, BYRON, CARL, COLETTE, COLT, ... </t>
   </si>
   <si>
-    <t xml:space="preserve">ASH, BROCK, BYRON, DARRYL, MAX, MORTIS, PENNY, POCO, RICO, ROSA, SURGE, TARA, ... </t>
+    <t xml:space="preserve">ASH, BROCK, BYRON, CARL, DARRYL, GENE, MAX, MORTIS, NITA, PENNY, PIPER, POCO, ... </t>
   </si>
   <si>
     <t xml:space="preserve">BO, BONNIE, BUSTER, BUZZ, CARL, COLT, CROW, EDGAR, EVE, FANG, GENE, GUS, ... </t>
   </si>
   <si>
-    <t xml:space="preserve">BEA, BONNIE, BROCK, CARL, CROW, EDGAR, GENE, GRIFF, MAX, MEG, MORTIS, OTIS, ... </t>
+    <t xml:space="preserve">BEA, BONNIE, BROCK, CARL, CROW, EDGAR, EMZ, GENE, GRIFF, LOU, MAX, MEG, ... </t>
   </si>
   <si>
     <t>C9 Brawler Levels</t>
   </si>
   <si>
-    <t>2023-03-29</t>
+    <t>2023-04-14</t>
   </si>
 </sst>
 </file>
@@ -709,7 +703,7 @@
   <sheetData>
     <row r="1" spans="1:45">
       <c r="A1" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -758,7 +752,7 @@
     </row>
     <row r="2" spans="1:45">
       <c r="A2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B2" s="2">
         <v>1</v>
@@ -767,7 +761,7 @@
         <v>40</v>
       </c>
       <c r="D2" s="2">
-        <v>39767</v>
+        <v>40279</v>
       </c>
       <c r="E2" s="2">
         <v>12</v>
@@ -776,7 +770,7 @@
         <v>70</v>
       </c>
       <c r="G2" s="2">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H2" s="2">
         <v>22</v>
@@ -785,7 +779,7 @@
         <v>34</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:45">
@@ -831,7 +825,7 @@
         <v>40</v>
       </c>
       <c r="D4" s="2">
-        <v>39767</v>
+        <v>40279</v>
       </c>
       <c r="E4" s="2">
         <v>12</v>
@@ -840,7 +834,7 @@
         <v>70</v>
       </c>
       <c r="G4" s="2">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H4" s="2">
         <v>22</v>
@@ -849,7 +843,7 @@
         <v>34</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:45">
@@ -863,7 +857,7 @@
         <v>41</v>
       </c>
       <c r="D5" s="2">
-        <v>6520</v>
+        <v>6511</v>
       </c>
       <c r="E5" s="2">
         <v>14</v>
@@ -881,7 +875,7 @@
         <v>23</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6" spans="1:45">
@@ -895,25 +889,25 @@
         <v>42</v>
       </c>
       <c r="D6" s="2">
-        <v>29825</v>
+        <v>29868</v>
       </c>
       <c r="E6" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G6" s="2">
         <v>2</v>
       </c>
       <c r="H6" s="2">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I6" s="2">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7" spans="1:45">
@@ -927,25 +921,25 @@
         <v>43</v>
       </c>
       <c r="D7" s="2">
-        <v>49372</v>
+        <v>49999</v>
       </c>
       <c r="E7" s="2">
         <v>16</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G7" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" s="2">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="8" spans="1:45">
@@ -959,7 +953,7 @@
         <v>44</v>
       </c>
       <c r="D8" s="2">
-        <v>34515</v>
+        <v>34794</v>
       </c>
       <c r="E8" s="2">
         <v>14</v>
@@ -974,10 +968,10 @@
         <v>35</v>
       </c>
       <c r="I8" s="2">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9" spans="1:45">
@@ -991,16 +985,16 @@
         <v>45</v>
       </c>
       <c r="D9" s="2">
-        <v>27611</v>
+        <v>28374</v>
       </c>
       <c r="E9" s="2">
         <v>16</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G9" s="2">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H9" s="2">
         <v>2</v>
@@ -1009,7 +1003,7 @@
         <v>14</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="10" spans="1:45">
@@ -1023,25 +1017,25 @@
         <v>46</v>
       </c>
       <c r="D10" s="2">
-        <v>39927</v>
+        <v>40291</v>
       </c>
       <c r="E10" s="2">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="G10" s="2">
         <v>4</v>
       </c>
       <c r="H10" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I10" s="2">
         <v>43</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="11" spans="1:45">
@@ -1055,7 +1049,7 @@
         <v>47</v>
       </c>
       <c r="D11" s="2">
-        <v>46329</v>
+        <v>58924</v>
       </c>
       <c r="E11" s="2">
         <v>14</v>
@@ -1070,10 +1064,10 @@
         <v>19</v>
       </c>
       <c r="I11" s="2">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="12" spans="1:45">
@@ -1087,25 +1081,25 @@
         <v>48</v>
       </c>
       <c r="D12" s="2">
-        <v>57542</v>
+        <v>55289</v>
       </c>
       <c r="E12" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="G12" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="H12" s="2">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I12" s="2">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="13" spans="1:45">
@@ -1119,13 +1113,13 @@
         <v>49</v>
       </c>
       <c r="D13" s="2">
-        <v>42546</v>
+        <v>45607</v>
       </c>
       <c r="E13" s="2">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="G13" s="2">
         <v>0</v>
@@ -1134,10 +1128,10 @@
         <v>0</v>
       </c>
       <c r="I13" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="14" spans="1:45">
@@ -1151,7 +1145,7 @@
         <v>50</v>
       </c>
       <c r="D14" s="2">
-        <v>36404</v>
+        <v>38043</v>
       </c>
       <c r="E14" s="2">
         <v>14</v>
@@ -1163,13 +1157,13 @@
         <v>7</v>
       </c>
       <c r="H14" s="2">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="I14" s="2">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="15" spans="1:45">
@@ -1183,7 +1177,7 @@
         <v>51</v>
       </c>
       <c r="D15" s="2">
-        <v>41786</v>
+        <v>42534</v>
       </c>
       <c r="E15" s="2">
         <v>13</v>
@@ -1192,16 +1186,16 @@
         <v>74</v>
       </c>
       <c r="G15" s="2">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H15" s="2">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="I15" s="2">
         <v>13</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="16" spans="1:45">
@@ -1215,13 +1209,13 @@
         <v>52</v>
       </c>
       <c r="D16" s="2">
-        <v>47968</v>
+        <v>48367</v>
       </c>
       <c r="E16" s="2">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="G16" s="2">
         <v>0</v>
@@ -1230,10 +1224,10 @@
         <v>0</v>
       </c>
       <c r="I16" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -1247,13 +1241,13 @@
         <v>53</v>
       </c>
       <c r="D17" s="2">
-        <v>49000</v>
+        <v>48980</v>
       </c>
       <c r="E17" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="G17" s="2">
         <v>0</v>
@@ -1262,10 +1256,10 @@
         <v>0</v>
       </c>
       <c r="I17" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -1279,7 +1273,7 @@
         <v>54</v>
       </c>
       <c r="D18" s="2">
-        <v>50043</v>
+        <v>50166</v>
       </c>
       <c r="E18" s="2">
         <v>15</v>
@@ -1294,10 +1288,10 @@
         <v>0</v>
       </c>
       <c r="I18" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -1311,25 +1305,25 @@
         <v>55</v>
       </c>
       <c r="D19" s="2">
-        <v>45444</v>
+        <v>45865</v>
       </c>
       <c r="E19" s="2">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="G19" s="2">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H19" s="2">
         <v>2</v>
       </c>
       <c r="I19" s="2">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -1343,25 +1337,25 @@
         <v>56</v>
       </c>
       <c r="D20" s="2">
-        <v>38540</v>
+        <v>40866</v>
       </c>
       <c r="E20" s="2">
         <v>11</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G20" s="2">
         <v>11</v>
       </c>
       <c r="H20" s="2">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="I20" s="2">
         <v>14</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -1375,7 +1369,7 @@
         <v>57</v>
       </c>
       <c r="D21" s="2">
-        <v>35696</v>
+        <v>35761</v>
       </c>
       <c r="E21" s="2">
         <v>13</v>
@@ -1384,16 +1378,16 @@
         <v>74</v>
       </c>
       <c r="G21" s="2">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H21" s="2">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I21" s="2">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -1407,25 +1401,25 @@
         <v>58</v>
       </c>
       <c r="D22" s="2">
-        <v>52311</v>
+        <v>55034</v>
       </c>
       <c r="E22" s="2">
         <v>16</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G22" s="2">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="H22" s="2">
         <v>25</v>
       </c>
       <c r="I22" s="2">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -1439,7 +1433,7 @@
         <v>59</v>
       </c>
       <c r="D23" s="2">
-        <v>44985</v>
+        <v>45304</v>
       </c>
       <c r="E23" s="2">
         <v>13</v>
@@ -1448,16 +1442,16 @@
         <v>74</v>
       </c>
       <c r="G23" s="2">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H23" s="2">
         <v>19</v>
       </c>
       <c r="I23" s="2">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -1471,25 +1465,25 @@
         <v>60</v>
       </c>
       <c r="D24" s="2">
-        <v>49136</v>
+        <v>50711</v>
       </c>
       <c r="E24" s="2">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="G24" s="2">
         <v>7</v>
       </c>
       <c r="H24" s="2">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I24" s="2">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="J24" s="3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -1503,25 +1497,25 @@
         <v>61</v>
       </c>
       <c r="D25" s="2">
-        <v>37220</v>
+        <v>37657</v>
       </c>
       <c r="E25" s="2">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="G25" s="2">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H25" s="2">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I25" s="2">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="J25" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -1535,25 +1529,25 @@
         <v>62</v>
       </c>
       <c r="D26" s="2">
-        <v>46990</v>
+        <v>47689</v>
       </c>
       <c r="E26" s="2">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G26" s="2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H26" s="2">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I26" s="2">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="J26" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -1567,7 +1561,7 @@
         <v>63</v>
       </c>
       <c r="D27" s="2">
-        <v>40299</v>
+        <v>40574</v>
       </c>
       <c r="E27" s="2">
         <v>12</v>
@@ -1576,16 +1570,16 @@
         <v>70</v>
       </c>
       <c r="G27" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H27" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I27" s="2">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J27" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -1599,13 +1593,13 @@
         <v>64</v>
       </c>
       <c r="D28" s="2">
-        <v>34619</v>
+        <v>34747</v>
       </c>
       <c r="E28" s="2">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="G28" s="2">
         <v>0</v>
@@ -1614,10 +1608,10 @@
         <v>0</v>
       </c>
       <c r="I28" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="J28" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -1631,13 +1625,13 @@
         <v>65</v>
       </c>
       <c r="D29" s="2">
-        <v>38569</v>
+        <v>38741</v>
       </c>
       <c r="E29" s="2">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="G29" s="2">
         <v>0</v>
@@ -1646,10 +1640,10 @@
         <v>0</v>
       </c>
       <c r="I29" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="J29" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="30" spans="1:10">
@@ -1663,7 +1657,7 @@
         <v>66</v>
       </c>
       <c r="D30" s="2">
-        <v>37365</v>
+        <v>37409</v>
       </c>
       <c r="E30" s="2">
         <v>14</v>
@@ -1681,7 +1675,7 @@
         <v>36</v>
       </c>
       <c r="J30" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="31" spans="1:10">
@@ -1695,25 +1689,25 @@
         <v>67</v>
       </c>
       <c r="D31" s="2">
-        <v>14416</v>
+        <v>14516</v>
       </c>
       <c r="E31" s="2">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="G31" s="2">
         <v>1</v>
       </c>
       <c r="H31" s="2">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="I31" s="2">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="J31" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="32" spans="1:10">
@@ -1727,7 +1721,7 @@
         <v>68</v>
       </c>
       <c r="D32" s="2">
-        <v>46655</v>
+        <v>48472</v>
       </c>
       <c r="E32" s="2">
         <v>14</v>
@@ -1742,10 +1736,10 @@
         <v>26</v>
       </c>
       <c r="I32" s="2">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J32" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="33" spans="1:10">
@@ -1759,25 +1753,25 @@
         <v>69</v>
       </c>
       <c r="D33" s="2">
-        <v>36860</v>
+        <v>37246</v>
       </c>
       <c r="E33" s="2">
+        <v>13</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="G33" s="2">
+        <v>23</v>
+      </c>
+      <c r="H33" s="2">
         <v>12</v>
       </c>
-      <c r="F33" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="G33" s="2">
-        <v>26</v>
-      </c>
-      <c r="H33" s="2">
-        <v>13</v>
-      </c>
       <c r="I33" s="2">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="J33" s="3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>
